--- a/import/raw_data/eurostat/renewable_energy_system_utilization_eurostat.xlsx
+++ b/import/raw_data/eurostat/renewable_energy_system_utilization_eurostat.xlsx
@@ -1,32 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\back_end\import\public\eurostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\eurostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A79B9ED-0209-476D-8B74-1CD021E6E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="1128" windowWidth="43200" windowHeight="11328"/>
+    <workbookView xWindow="30624" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id_region</t>
+  </si>
+  <si>
+    <t>id_technology</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
   </si>
   <si>
     <t>2007</t>
@@ -59,6 +79,9 @@
     <t>2016</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
@@ -68,13 +91,16 @@
     <t>2020</t>
   </si>
   <si>
-    <t>id_technology</t>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,10 +112,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,12 +124,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -114,13 +153,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -143,44 +184,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -207,15 +248,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -242,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -254,232 +293,257 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+      <selection sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="12" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1">
-        <v>2000</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2002</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2004</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2005</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2006</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="1">
-        <v>2017</v>
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -487,714 +551,774 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.8270580050558486E-5</v>
+        <v>5.0927665574480194</v>
       </c>
       <c r="D2">
-        <v>3.8126997282633544E-5</v>
+        <v>5.0739158392462507</v>
       </c>
       <c r="E2">
-        <v>3.7557659403971977E-5</v>
+        <v>4.9988078848109199</v>
       </c>
       <c r="F2">
-        <v>3.8242197323836576E-5</v>
+        <v>5.0892156567053233</v>
       </c>
       <c r="G2">
-        <v>3.7680002350739305E-5</v>
+        <v>5.0146699194345086</v>
       </c>
       <c r="H2">
-        <v>3.7063592102360882E-5</v>
+        <v>4.9334370934538816</v>
       </c>
       <c r="I2">
-        <v>3.6565306648699969E-5</v>
+        <v>4.8675121182968528</v>
       </c>
       <c r="J2">
-        <v>3.5728861976685281E-5</v>
+        <v>4.7584399797647619</v>
       </c>
       <c r="K2">
-        <v>3.3064863858495534E-5</v>
+        <v>4.4080148309137082</v>
       </c>
       <c r="L2">
-        <v>3.1065735476586786E-5</v>
+        <v>4.1336369234531416</v>
       </c>
       <c r="M2">
-        <v>2.7313522685685367E-5</v>
+        <v>3.634363336143819</v>
       </c>
       <c r="N2">
-        <v>2.405865185205655E-5</v>
+        <v>3.2008559514585029</v>
       </c>
       <c r="O2">
-        <v>2.2235542003568156E-5</v>
+        <v>2.958336999780744</v>
       </c>
       <c r="P2">
-        <v>2.1689510151595438E-5</v>
+        <v>2.885764881667324</v>
       </c>
       <c r="Q2">
-        <v>2.2034948722407756E-5</v>
+        <v>2.9316991675655979</v>
       </c>
       <c r="R2">
-        <v>2.2133701758414989E-5</v>
+        <v>2.944855819720023</v>
       </c>
       <c r="S2">
-        <v>2.2354150466222855E-5</v>
+        <v>2.974213028846258</v>
       </c>
       <c r="T2">
-        <v>2.2723084026865245E-5</v>
+        <v>3.0233876212995709</v>
       </c>
       <c r="U2">
-        <v>2.2319726465319376E-5</v>
+        <v>2.9702653247707822</v>
       </c>
       <c r="V2">
-        <v>2.1455554274582744E-5</v>
+        <v>2.8557465972457221</v>
       </c>
       <c r="W2">
-        <v>2.0477608876518354E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.7263758573302641</v>
+      </c>
+      <c r="X2">
+        <v>2.595898886156752</v>
+      </c>
+      <c r="Y2">
+        <v>2.424419796636974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>5.8056112835313902</v>
+      </c>
+      <c r="I3">
+        <v>5.8189402665952557</v>
+      </c>
+      <c r="J3">
+        <v>5.8113656016123469</v>
+      </c>
+      <c r="K3">
+        <v>5.7780353688266404</v>
+      </c>
+      <c r="L3">
+        <v>5.6761044590771208</v>
+      </c>
+      <c r="M3">
+        <v>5.4748190081603738</v>
+      </c>
+      <c r="N3">
+        <v>5.1438741836714756</v>
+      </c>
+      <c r="O3">
+        <v>4.7536940741320963</v>
+      </c>
+      <c r="P3">
+        <v>4.3335244366357033</v>
+      </c>
+      <c r="Q3">
+        <v>4.3389343633429007</v>
+      </c>
+      <c r="R3">
+        <v>4.3249668488066586</v>
+      </c>
+      <c r="S3">
+        <v>4.2480187834695231</v>
+      </c>
+      <c r="T3">
+        <v>4.1355297390183097</v>
+      </c>
+      <c r="U3">
+        <v>4.0652065620276847</v>
+      </c>
+      <c r="V3">
+        <v>3.8964456028384662</v>
+      </c>
+      <c r="W3">
+        <v>3.645115163032862</v>
+      </c>
+      <c r="X3">
+        <v>3.269096225381805</v>
+      </c>
+      <c r="Y3">
+        <v>2.8909341834362978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>3.2724372210621583E-7</v>
-      </c>
-      <c r="D3">
-        <v>2.5101393979513986E-7</v>
-      </c>
-      <c r="E3">
-        <v>8.2383883884246407E-7</v>
-      </c>
-      <c r="F3">
-        <v>6.4865986316303893E-7</v>
-      </c>
-      <c r="G3">
-        <v>5.2886803880914752E-7</v>
-      </c>
-      <c r="H3">
-        <v>4.4012800807191562E-7</v>
-      </c>
-      <c r="I3">
-        <v>4.658939415430838E-7</v>
-      </c>
-      <c r="J3">
-        <v>4.7168285296963119E-7</v>
-      </c>
-      <c r="K3">
-        <v>4.6744753733617703E-7</v>
-      </c>
-      <c r="L3">
-        <v>5.3635688200191359E-7</v>
-      </c>
-      <c r="M3">
-        <v>5.9479428730342682E-7</v>
-      </c>
-      <c r="N3">
-        <v>4.7162731906982501E-7</v>
-      </c>
-      <c r="O3">
-        <v>4.7171409502753446E-7</v>
-      </c>
-      <c r="P3">
-        <v>6.4082288721378718E-7</v>
-      </c>
-      <c r="Q3">
-        <v>6.9613257670131279E-7</v>
-      </c>
-      <c r="R3">
-        <v>1.100511975520539E-6</v>
-      </c>
-      <c r="S3">
-        <v>1.285337819767277E-6</v>
-      </c>
-      <c r="T3">
-        <v>1.4236650300190267E-6</v>
-      </c>
-      <c r="U3">
-        <v>1.5994230890396143E-6</v>
-      </c>
-      <c r="V3">
-        <v>1.6661886300001525E-6</v>
-      </c>
-      <c r="W3">
-        <v>1.8279570523274837E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="D4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="E4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="F4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="G4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="H4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="I4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="J4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="K4">
+        <v>5.8229191700712963</v>
+      </c>
+      <c r="L4">
+        <v>3.37424692350208</v>
+      </c>
+      <c r="M4">
+        <v>2.1715306297227208</v>
+      </c>
+      <c r="N4">
+        <v>1.667048489266048</v>
+      </c>
+      <c r="O4">
+        <v>1.43037648181719</v>
+      </c>
+      <c r="P4">
+        <v>1.3231413769529969</v>
+      </c>
+      <c r="Q4">
+        <v>1.4416953298173569</v>
+      </c>
+      <c r="R4">
+        <v>1.610347481899858</v>
+      </c>
+      <c r="S4">
+        <v>1.6675106357834939</v>
+      </c>
+      <c r="T4">
+        <v>1.730680757079629</v>
+      </c>
+      <c r="U4">
+        <v>1.6891080947557231</v>
+      </c>
+      <c r="V4">
+        <v>1.5810752161179931</v>
+      </c>
+      <c r="W4">
+        <v>1.3702089529183441</v>
+      </c>
+      <c r="X4">
+        <v>1.427254821027073</v>
+      </c>
+      <c r="Y4">
+        <v>1.468633935709512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1.1535226554291418E-6</v>
-      </c>
-      <c r="D4">
-        <v>1.373335205665165E-6</v>
-      </c>
-      <c r="E4">
-        <v>1.3698481852794057E-6</v>
-      </c>
-      <c r="F4">
-        <v>8.6048924109423146E-7</v>
-      </c>
-      <c r="G4">
-        <v>1.5424760385453947E-6</v>
-      </c>
-      <c r="H4">
-        <v>2.2476263176610461E-6</v>
-      </c>
-      <c r="I4">
-        <v>2.7201458378507973E-6</v>
-      </c>
-      <c r="J4">
-        <v>3.5508015984389312E-6</v>
-      </c>
-      <c r="K4">
-        <v>6.2190350322621314E-6</v>
-      </c>
-      <c r="L4">
-        <v>8.1492540695051444E-6</v>
-      </c>
-      <c r="M4">
-        <v>1.1843029455105049E-5</v>
-      </c>
-      <c r="N4">
-        <v>1.5221067256967462E-5</v>
-      </c>
-      <c r="O4">
-        <v>1.7044090329498155E-5</v>
-      </c>
-      <c r="P4">
-        <v>1.7421013389284613E-5</v>
-      </c>
-      <c r="Q4">
-        <v>1.7020265128984772E-5</v>
-      </c>
-      <c r="R4">
-        <v>1.6517132694158312E-5</v>
-      </c>
-      <c r="S4">
-        <v>1.6111858142103708E-5</v>
-      </c>
-      <c r="T4">
-        <v>1.5604597371209568E-5</v>
-      </c>
-      <c r="U4">
-        <v>1.5832196873734861E-5</v>
-      </c>
-      <c r="V4">
-        <v>1.6629603523510948E-5</v>
-      </c>
-      <c r="W4">
-        <v>1.7445780499248013E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.7832821190277892</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2.7832821190277892</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.7832821190277892</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.7832821190277892</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8.3498463570833685</v>
       </c>
       <c r="H5">
-        <v>4.2922847437220732E-5</v>
+        <v>1.53364524926021</v>
       </c>
       <c r="I5">
-        <v>4.3021393116323735E-5</v>
+        <v>1.53364524926021</v>
       </c>
       <c r="J5">
-        <v>4.296539105666608E-5</v>
+        <v>1.53364524926021</v>
       </c>
       <c r="K5">
-        <v>4.2718969374772537E-5</v>
+        <v>0.84436648554775628</v>
       </c>
       <c r="L5">
-        <v>4.1965359690168494E-5</v>
+        <v>0.4446663740458599</v>
       </c>
       <c r="M5">
-        <v>4.0477188285110802E-5</v>
+        <v>7.6947729527731008</v>
       </c>
       <c r="N5">
-        <v>3.8030401285786555E-5</v>
+        <v>7.7709005184920441</v>
       </c>
       <c r="O5">
-        <v>3.5145667793156001E-5</v>
+        <v>7.4854993449328608</v>
       </c>
       <c r="P5">
-        <v>3.2039211579118899E-5</v>
+        <v>6.7460893396712791</v>
       </c>
       <c r="Q5">
-        <v>3.2079208996679096E-5</v>
+        <v>5.8198893593163641</v>
       </c>
       <c r="R5">
-        <v>3.1975942438475836E-5</v>
+        <v>5.634739615663598</v>
       </c>
       <c r="S5">
-        <v>3.1407039370779212E-5</v>
+        <v>5.4482553176997586</v>
       </c>
       <c r="T5">
-        <v>3.0575369826000252E-5</v>
+        <v>4.9183052558752598</v>
       </c>
       <c r="U5">
-        <v>3.0055446798113125E-5</v>
+        <v>4.7681406376119622</v>
       </c>
       <c r="V5">
-        <v>2.880773995883749E-5</v>
+        <v>4.2622627454673498</v>
       </c>
       <c r="W5">
-        <v>2.6949569027775158E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.404288168741</v>
+      </c>
+      <c r="X5">
+        <v>2.786094748011497</v>
+      </c>
+      <c r="Y5">
+        <v>2.261204658998011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
       <c r="C6">
-        <v>0</v>
+        <v>4.8358183535231856</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4.8914431748589076</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>4.876942127931879</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4.8875704449314341</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.8799243741034486</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.9148866719261157</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.8413949377268573</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.965626238192629</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.4703652800338409</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.55005688888415183</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.50193337932043947</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.56691062108618662</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.56443596961234388</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.59382381357615155</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.59755681302443053</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.60121452130665387</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.64778099652126087</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>0.6608119842494059</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.69788461439823257</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.68659748669449117</v>
+      </c>
+      <c r="X6">
+        <v>0.6720090369581454</v>
+      </c>
+      <c r="Y6">
+        <v>0.61561438796145174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
       <c r="C7">
-        <v>4.4016075304532941E-5</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>4.4016075304532941E-5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4.4016075304532941E-5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4.4016075304532941E-5</v>
+        <v>5.9112214830153036</v>
       </c>
       <c r="G7">
-        <v>4.4016075304532941E-5</v>
+        <v>5.7060105895598339</v>
       </c>
       <c r="H7">
-        <v>1.0932278673121987E-6</v>
+        <v>5.4733444794005237</v>
       </c>
       <c r="I7">
-        <v>9.9468218820920587E-7</v>
+        <v>5.3346674878276508</v>
       </c>
       <c r="J7">
-        <v>1.0506842478668633E-6</v>
+        <v>5.1239064579127964</v>
       </c>
       <c r="K7">
-        <v>1.2971059297604057E-6</v>
+        <v>4.8009975263997013</v>
       </c>
       <c r="L7">
-        <v>2.0507156143644429E-6</v>
+        <v>4.3114052196164989</v>
       </c>
       <c r="M7">
-        <v>3.5388870194221326E-6</v>
+        <v>3.6374168971802008</v>
       </c>
       <c r="N7">
-        <v>5.9856740187463856E-6</v>
+        <v>3.179905705917347</v>
       </c>
       <c r="O7">
-        <v>8.8704075113769344E-6</v>
+        <v>2.8749196813436662</v>
       </c>
       <c r="P7">
-        <v>1.197686372541404E-5</v>
+        <v>2.8606729521203298</v>
       </c>
       <c r="Q7">
-        <v>1.1936866307853845E-5</v>
+        <v>2.9943116467863971</v>
       </c>
       <c r="R7">
-        <v>1.20401328660571E-5</v>
+        <v>3.0010475073307261</v>
       </c>
       <c r="S7">
-        <v>1.260903593375373E-5</v>
+        <v>3.0602861615583148</v>
       </c>
       <c r="T7">
-        <v>1.3440705478532692E-5</v>
+        <v>3.1220146735808192</v>
       </c>
       <c r="U7">
-        <v>1.3960628506419816E-5</v>
+        <v>3.067789035230736</v>
       </c>
       <c r="V7">
-        <v>1.5208335345695449E-5</v>
+        <v>2.9538756578904599</v>
       </c>
       <c r="W7">
-        <v>1.7066506276757786E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.8599027417876481</v>
+      </c>
+      <c r="X7">
+        <v>2.7511882000816761</v>
+      </c>
+      <c r="Y7">
+        <v>2.6436804484435168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.78814948824055</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.7916867555281799</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3.5820549402861359</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3.3432690612413341</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.3439095093623541</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.3435352577411348</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.3448552176148878</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>3.3429247681252732</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.349368151753465</v>
       </c>
       <c r="L8">
-        <v>2.4946948536467258E-5</v>
+        <v>3.1315422582232251</v>
       </c>
       <c r="M8">
-        <v>1.6054860267555541E-5</v>
+        <v>2.981583761149472</v>
       </c>
       <c r="N8">
-        <v>1.2325053208125107E-5</v>
+        <v>3.00419453792016</v>
       </c>
       <c r="O8">
-        <v>1.0575257024352898E-5</v>
+        <v>2.7478857685871612</v>
       </c>
       <c r="P8">
-        <v>9.7824316316062543E-6</v>
+        <v>2.5478097366733681</v>
       </c>
       <c r="Q8">
-        <v>1.0658941095185274E-5</v>
+        <v>2.5473624107989901</v>
       </c>
       <c r="R8">
-        <v>1.1905843486726866E-5</v>
+        <v>2.514268788172243</v>
       </c>
       <c r="S8">
-        <v>1.2328470013607463E-5</v>
+        <v>2.5232929772405792</v>
       </c>
       <c r="T8">
-        <v>1.2795508081877064E-5</v>
+        <v>2.557188034204247</v>
       </c>
       <c r="U8">
-        <v>1.2488147331158203E-5</v>
+        <v>2.4036223156438878</v>
       </c>
       <c r="V8">
-        <v>1.1689423727129646E-5</v>
+        <v>2.373739628946685</v>
       </c>
       <c r="W8">
-        <v>1.0130418137029248E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.3325814899324619</v>
+      </c>
+      <c r="X8">
+        <v>2.0883320528039748</v>
+      </c>
+      <c r="Y8">
+        <v>1.821433256405139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.626992121049333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="L9">
-        <v>1.385941585359292E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="M9">
-        <v>4.4091964256808715E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="N9">
-        <v>2.7757856222310413E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="O9">
-        <v>4.0867967606029567E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="P9">
-        <v>6.5231573218578599E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="Q9">
-        <v>6.1578225412756077E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="R9">
-        <v>5.7693871656908258E-6</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="S9">
-        <v>5.4146129401154639E-6</v>
+        <v>4.7284458517996244</v>
       </c>
       <c r="T9">
-        <v>5.9006517135015034E-6</v>
+        <v>4.6569413403596878</v>
       </c>
       <c r="U9">
-        <v>6.9890013780181757E-6</v>
+        <v>4.4255708469607482</v>
       </c>
       <c r="V9">
-        <v>7.8782056358536242E-6</v>
+        <v>3.5327268226174242</v>
       </c>
       <c r="W9">
-        <v>9.5039112955048949E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.9490336918785438</v>
+      </c>
+      <c r="X9">
+        <v>2.170024805147611</v>
+      </c>
+      <c r="Y9">
+        <v>1.8449623573621621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4.8809763631479983</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4.8629653802581538</v>
       </c>
       <c r="E10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8640285285537344</v>
       </c>
       <c r="F10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8678554589459884</v>
       </c>
       <c r="G10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8706133560075564</v>
       </c>
       <c r="H10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8710556794830628</v>
       </c>
       <c r="I10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8486091458857441</v>
       </c>
       <c r="J10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8295976645885466</v>
       </c>
       <c r="K10">
-        <v>4.3050810495223002E-5</v>
+        <v>4.8243306026472466</v>
       </c>
       <c r="L10">
-        <v>1.6717920373396459E-5</v>
+        <v>4.6964858843437192</v>
       </c>
       <c r="M10">
-        <v>2.2586753801986597E-5</v>
+        <v>4.2236715462440682</v>
       </c>
       <c r="N10">
-        <v>2.7949971664866859E-5</v>
+        <v>3.5545298559337111</v>
       </c>
       <c r="O10">
-        <v>2.8388756710267153E-5</v>
+        <v>2.6015054924288359</v>
       </c>
       <c r="P10">
-        <v>2.6745221541758888E-5</v>
+        <v>2.0122347859924181</v>
       </c>
       <c r="Q10">
-        <v>2.6234046858762123E-5</v>
+        <v>2.11075016316282</v>
       </c>
       <c r="R10">
-        <v>2.5375579842805315E-5</v>
+        <v>2.1738278115745402</v>
       </c>
       <c r="S10">
-        <v>2.5307727541500078E-5</v>
+        <v>2.325676312959541</v>
       </c>
       <c r="T10">
-        <v>2.4354650699844438E-5</v>
+        <v>2.4491076591778511</v>
       </c>
       <c r="U10">
-        <v>2.3573661786046627E-5</v>
+        <v>2.5404574528683681</v>
       </c>
       <c r="V10">
-        <v>2.348318113223974E-5</v>
+        <v>2.727444357947761</v>
       </c>
       <c r="W10">
-        <v>2.3416481062688868E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.7144669758662818</v>
+      </c>
+      <c r="X10">
+        <v>2.5421124218429578</v>
+      </c>
+      <c r="Y10">
+        <v>2.2652019397276568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4.1625224166252242</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4.0686309335434521</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4.09584585617585</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4.1426060414260606</v>
       </c>
       <c r="G11">
-        <v>6.1733237691263183E-5</v>
+        <v>4.1778070766617921</v>
       </c>
       <c r="H11">
-        <v>1.1338757943293235E-5</v>
+        <v>4.1778070766617921</v>
       </c>
       <c r="I11">
-        <v>1.1338757943293235E-5</v>
+        <v>4.1408551512986609</v>
       </c>
       <c r="J11">
-        <v>1.1338757943293235E-5</v>
+        <v>4.1910980853892417</v>
       </c>
       <c r="K11">
-        <v>6.2426869575434678E-6</v>
+        <v>4.2051621729241049</v>
       </c>
       <c r="L11">
-        <v>3.287568871132359E-6</v>
+        <v>4.2097749930781427</v>
       </c>
       <c r="M11">
-        <v>5.6890058494414288E-5</v>
+        <v>4.1818530160832363</v>
       </c>
       <c r="N11">
-        <v>5.7452895330974526E-5</v>
+        <v>4.1837923318864672</v>
       </c>
       <c r="O11">
-        <v>5.5342827943956293E-5</v>
+        <v>4.2112987468299696</v>
       </c>
       <c r="P11">
-        <v>4.9876119737117419E-5</v>
+        <v>4.2730233579714616</v>
       </c>
       <c r="Q11">
-        <v>4.3028410079754871E-5</v>
+        <v>4.2765264953514732</v>
       </c>
       <c r="R11">
-        <v>4.1659535414929876E-5</v>
+        <v>4.2902834301337549</v>
       </c>
       <c r="S11">
-        <v>4.0280793938791955E-5</v>
+        <v>4.2633211285122634</v>
       </c>
       <c r="T11">
-        <v>3.6362693924489527E-5</v>
+        <v>4.0627719165684528</v>
       </c>
       <c r="U11">
-        <v>3.525247612219404E-5</v>
+        <v>3.954290823930803</v>
       </c>
       <c r="V11">
-        <v>3.151234979854908E-5</v>
+        <v>3.8658113425288239</v>
       </c>
       <c r="W11">
-        <v>2.5169053621227595E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.791655369355948</v>
+      </c>
+      <c r="X11">
+        <v>3.7889794947067421</v>
+      </c>
+      <c r="Y11">
+        <v>3.8723388512135322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1230,894 +1354,972 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3.462850488494424</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.1805073981307328</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3.0383360092793059</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3.022092336530199</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>2.9559333170908499</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>3.0045344834824879</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3.056401943397911</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>3.040621104057331</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>3.0279462249713092</v>
       </c>
       <c r="W12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.9804041117927049</v>
+      </c>
+      <c r="X12">
+        <v>2.801078110133548</v>
+      </c>
+      <c r="Y12">
+        <v>2.666975585000444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.7989506379082061</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.7989506379082061</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.7989506379082061</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.7989506379082061</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.7989506379082061</v>
       </c>
       <c r="H13">
-        <v>5.0394479747969946E-5</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="I13">
-        <v>5.0394479747969946E-5</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="J13">
-        <v>5.0394479747969946E-5</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="K13">
-        <v>5.5490550733719716E-5</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="L13">
-        <v>5.8445668820130829E-5</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="M13">
-        <v>4.8431791968488913E-6</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="N13">
-        <v>4.2803423602886585E-6</v>
+        <v>5.3968519137246167</v>
       </c>
       <c r="O13">
-        <v>6.3904097473068899E-6</v>
+        <v>5.2795290460349511</v>
       </c>
       <c r="P13">
-        <v>1.1857117954145761E-5</v>
+        <v>5.0212468354800457</v>
       </c>
       <c r="Q13">
-        <v>1.8704827611508312E-5</v>
+        <v>4.9180989213780784</v>
       </c>
       <c r="R13">
-        <v>2.0073702276333307E-5</v>
+        <v>4.8430315584733572</v>
       </c>
       <c r="S13">
-        <v>2.1452443752471225E-5</v>
+        <v>4.8379351787843179</v>
       </c>
       <c r="T13">
-        <v>2.5370543766773653E-5</v>
+        <v>4.887794981129935</v>
       </c>
       <c r="U13">
-        <v>2.648076156906913E-5</v>
+        <v>4.838186967915509</v>
       </c>
       <c r="V13">
-        <v>3.0220887892714107E-5</v>
+        <v>4.7708731935989883</v>
       </c>
       <c r="W13">
-        <v>3.6564184070035592E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.7532396553830898</v>
+      </c>
+      <c r="X13">
+        <v>4.7335168446985634</v>
+      </c>
+      <c r="Y13">
+        <v>4.4057847246710429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>3.5752840361735432E-5</v>
+        <v>1.8751773598534689</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="E14">
-        <v>3.6164093475888727E-5</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="F14">
-        <v>3.6056882332301753E-5</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="G14">
-        <v>3.6135461073937533E-5</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="H14">
-        <v>3.6078931086720713E-5</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="I14">
-        <v>3.6337419177329533E-5</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="J14">
-        <v>3.5794069934523738E-5</v>
+        <v>5.625532079560406</v>
       </c>
       <c r="K14">
-        <v>2.9319215790045834E-5</v>
+        <v>5.5838614715636634</v>
       </c>
       <c r="L14">
-        <v>1.0870907732129372E-5</v>
+        <v>5.5979559419155018</v>
       </c>
       <c r="M14">
-        <v>4.0667565860533161E-6</v>
+        <v>5.5873928790210128</v>
       </c>
       <c r="N14">
-        <v>3.7109632064644564E-6</v>
+        <v>5.5583615472671468</v>
       </c>
       <c r="O14">
-        <v>4.1913619274594475E-6</v>
+        <v>5.4252163972021714</v>
       </c>
       <c r="P14">
-        <v>4.1730659922883556E-6</v>
+        <v>5.0846155334488294</v>
       </c>
       <c r="Q14">
-        <v>4.3903402604684482E-6</v>
+        <v>4.4277513257784058</v>
       </c>
       <c r="R14">
-        <v>4.4179395877358847E-6</v>
+        <v>3.694211684980786</v>
       </c>
       <c r="S14">
-        <v>4.4449822619523078E-6</v>
+        <v>3.2815603797435702</v>
       </c>
       <c r="T14">
-        <v>4.7892639600734926E-6</v>
+        <v>2.7500743747033778</v>
       </c>
       <c r="U14">
-        <v>4.8856064588897825E-6</v>
+        <v>1.750993428737345</v>
       </c>
       <c r="V14">
-        <v>5.1312037521363327E-6</v>
+        <v>1.0545832046999479</v>
       </c>
       <c r="W14">
-        <v>5.0061103783862203E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.74044289392746976</v>
+      </c>
+      <c r="X14">
+        <v>0.55366719130545916</v>
+      </c>
+      <c r="Y14">
+        <v>0.39979653296283651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.4551193650209928</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.4533612251303074</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.4533417437121887</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>4.4533460081289498</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.4531545266931412</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.4528897945576444</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>4.452554989761369</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>4.4507669229777163</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>4.4463778558282314</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>4.4397381532576476</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>4.4300632835346594</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>4.4137145520918457</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.3920085266364071</v>
+      </c>
+      <c r="X15">
+        <v>4.3621951317124541</v>
+      </c>
+      <c r="Y15">
+        <v>4.2779462096127574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1.2871022530224751E-6</v>
+        <v>6.2147381192038376</v>
       </c>
       <c r="D16">
-        <v>3.7039942614757905E-5</v>
+        <v>6.3487985696672267</v>
       </c>
       <c r="E16">
-        <v>8.7584913886917989E-7</v>
+        <v>6.3606251932083548</v>
       </c>
       <c r="F16">
-        <v>9.8306028245615168E-7</v>
+        <v>6.3510933161381899</v>
       </c>
       <c r="G16">
-        <v>9.044815408203758E-7</v>
+        <v>6.3649489874032863</v>
       </c>
       <c r="H16">
-        <v>9.6101152803719712E-7</v>
+        <v>6.4067974044785903</v>
       </c>
       <c r="I16">
-        <v>7.0252343742837087E-7</v>
+        <v>6.3888711839521664</v>
       </c>
       <c r="J16">
-        <v>1.2458726802341699E-6</v>
+        <v>6.2841942208225179</v>
       </c>
       <c r="K16">
-        <v>7.7207268247120705E-6</v>
+        <v>5.7518953926952756</v>
       </c>
       <c r="L16">
-        <v>2.616903488262853E-5</v>
+        <v>5.1943340209548863</v>
       </c>
       <c r="M16">
-        <v>3.2973186028704584E-5</v>
+        <v>4.0371744087345398</v>
       </c>
       <c r="N16">
-        <v>3.332897940829345E-5</v>
+        <v>2.256666658958983</v>
       </c>
       <c r="O16">
-        <v>3.2848580687298459E-5</v>
+        <v>2.129115696431461</v>
       </c>
       <c r="P16">
-        <v>3.2866876622469547E-5</v>
+        <v>2.0902052011703032</v>
       </c>
       <c r="Q16">
-        <v>3.2649602354289459E-5</v>
+        <v>2.0818659779680901</v>
       </c>
       <c r="R16">
-        <v>3.2622003027022027E-5</v>
+        <v>2.1312586753625791</v>
       </c>
       <c r="S16">
-        <v>3.25949603528056E-5</v>
+        <v>2.1408454849845171</v>
       </c>
       <c r="T16">
-        <v>3.2250678654684409E-5</v>
+        <v>2.164511592357977</v>
       </c>
       <c r="U16">
-        <v>3.2154336155868126E-5</v>
+        <v>2.2053679697626212</v>
       </c>
       <c r="V16">
-        <v>3.1908738862621578E-5</v>
+        <v>2.2141242102171779</v>
       </c>
       <c r="W16">
-        <v>3.2033832236371685E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.1861229698921898</v>
+      </c>
+      <c r="X16">
+        <v>2.1947343427398041</v>
+      </c>
+      <c r="Y16">
+        <v>2.1252189700554092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="F17">
-        <v>4.3703659355015057E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="G17">
-        <v>4.2186465825845967E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="H17">
-        <v>4.0466286595364474E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="I17">
-        <v>3.9441000701832436E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="J17">
-        <v>3.7882773136992077E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="K17">
-        <v>3.5495398211845217E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="L17">
-        <v>3.1875676727889826E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="M17">
-        <v>2.6892653145090715E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="N17">
-        <v>2.3510118196686186E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="O17">
-        <v>2.1255253383329661E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="P17">
-        <v>2.1149922496525834E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="Q17">
-        <v>2.2137958557281837E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="R17">
-        <v>2.2187759052076032E-5</v>
+        <v>4.775631549554876</v>
       </c>
       <c r="S17">
-        <v>2.262573045484801E-5</v>
+        <v>4.7289542244016376</v>
       </c>
       <c r="T17">
-        <v>2.3082110218264915E-5</v>
+        <v>4.7332742544948747</v>
       </c>
       <c r="U17">
-        <v>2.2681201737070359E-5</v>
+        <v>4.6587050377093826</v>
       </c>
       <c r="V17">
-        <v>2.1839001617591978E-5</v>
+        <v>4.5820834805189854</v>
       </c>
       <c r="W17">
-        <v>2.1144228071082971E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.4830399583519913</v>
+      </c>
+      <c r="X17">
+        <v>4.3702207510988806</v>
+      </c>
+      <c r="Y17">
+        <v>2.0143457631232038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="L18">
-        <v>4.341552264762984E-8</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="M18">
-        <v>8.0207741550432727E-8</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="N18">
-        <v>1.5495380104392805E-7</v>
+        <v>5.0866880106369949</v>
       </c>
       <c r="O18">
-        <v>1.8548428598001855E-7</v>
+        <v>4.9604227054084173</v>
       </c>
       <c r="P18">
-        <v>3.2588676114638372E-7</v>
+        <v>4.0898730690712437</v>
       </c>
       <c r="Q18">
-        <v>5.8493170669692042E-7</v>
+        <v>4.1035466304298449</v>
       </c>
       <c r="R18">
-        <v>1.7638669387114224E-6</v>
+        <v>4.3916751933420386</v>
       </c>
       <c r="S18">
-        <v>2.0745540898025512E-6</v>
+        <v>4.4717170939796729</v>
       </c>
       <c r="T18">
-        <v>2.4869830557647413E-6</v>
+        <v>4.4527248614872867</v>
       </c>
       <c r="U18">
-        <v>2.7710006632221909E-6</v>
+        <v>4.4084629425520623</v>
       </c>
       <c r="V18">
-        <v>3.1021425765865222E-6</v>
+        <v>4.2641937169233213</v>
       </c>
       <c r="W18">
-        <v>3.025877604835577E-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.9017209172499681</v>
+      </c>
+      <c r="X18">
+        <v>3.685926193452941</v>
+      </c>
+      <c r="Y18">
+        <v>3.1699649921360979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>4.5025618316104795E-5</v>
+        <v>6.6381278538812776</v>
       </c>
       <c r="D19">
-        <v>4.5025618316104795E-5</v>
+        <v>6.5625872808641361</v>
       </c>
       <c r="E19">
-        <v>4.5025618316104795E-5</v>
+        <v>5.9555913747466436</v>
       </c>
       <c r="F19">
-        <v>1.3219589610897399E-6</v>
+        <v>3.9250539660965158</v>
       </c>
       <c r="G19">
-        <v>2.8391524902588335E-6</v>
+        <v>3.9628241408880549</v>
       </c>
       <c r="H19">
-        <v>4.5593317207403199E-6</v>
+        <v>3.9613334148463069</v>
       </c>
       <c r="I19">
-        <v>5.5846176142723571E-6</v>
+        <v>3.953694144659305</v>
       </c>
       <c r="J19">
-        <v>7.1428451791127207E-6</v>
+        <v>3.9377003450463439</v>
       </c>
       <c r="K19">
-        <v>9.5302201042595749E-6</v>
+        <v>4.2218127191385957</v>
       </c>
       <c r="L19">
-        <v>1.3106526065567338E-5</v>
+        <v>4.1129624426966567</v>
       </c>
       <c r="M19">
-        <v>1.8052757429463648E-5</v>
+        <v>3.9665666821540162</v>
       </c>
       <c r="N19">
-        <v>2.1360546318374676E-5</v>
+        <v>3.4694859783053968</v>
       </c>
       <c r="O19">
-        <v>2.3584880646795118E-5</v>
+        <v>2.9115594207693829</v>
       </c>
       <c r="P19">
-        <v>2.3549809058432572E-5</v>
+        <v>2.5248590352227169</v>
       </c>
       <c r="Q19">
-        <v>2.2302728052126041E-5</v>
+        <v>2.3014806432990129</v>
       </c>
       <c r="R19">
-        <v>2.1073992325317339E-5</v>
+        <v>2.3517639549415339</v>
       </c>
       <c r="S19">
-        <v>2.0325333771454234E-5</v>
+        <v>3.288811934858503</v>
       </c>
       <c r="T19">
-        <v>1.9456525042075136E-5</v>
+        <v>3.2064313746432189</v>
       </c>
       <c r="U19">
-        <v>1.9573415915812245E-5</v>
+        <v>3.217862575733816</v>
       </c>
       <c r="V19">
-        <v>2.0084474121926296E-5</v>
+        <v>3.050174039149848</v>
       </c>
       <c r="W19">
-        <v>2.0855512640186244E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.987545783760845</v>
+      </c>
+      <c r="X19">
+        <v>2.1898495349306151</v>
+      </c>
+      <c r="Y19">
+        <v>2.277139209643809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>2.8007070162339742E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="D20">
-        <v>2.8033222375554966E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="E20">
-        <v>2.6483343476644486E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="F20">
-        <v>2.4717918725339353E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="G20">
-        <v>2.4722653774871166E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="H20">
-        <v>2.4719886806079052E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="I20">
-        <v>2.4729645715781646E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="J20">
-        <v>2.4715373249906595E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="K20">
-        <v>2.4763011363956173E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="L20">
-        <v>2.3152550873362037E-5</v>
+        <v>1.763114967830353</v>
       </c>
       <c r="M20">
-        <v>2.2043856994722551E-5</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>2.221102611341954E-5</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.0316048708695643E-5</v>
+        <v>3.3476866477791509E-2</v>
       </c>
       <c r="P20">
-        <v>1.8836818947302368E-5</v>
+        <v>1.849421294926944E-2</v>
       </c>
       <c r="Q20">
-        <v>1.8833511715845943E-5</v>
+        <v>9.6697347412999235E-3</v>
       </c>
       <c r="R20">
-        <v>1.8588839372869383E-5</v>
+        <v>7.061875705595539E-3</v>
       </c>
       <c r="S20">
-        <v>1.8655558254259799E-5</v>
+        <v>5.6449785522850156E-3</v>
       </c>
       <c r="T20">
-        <v>1.890615587230123E-5</v>
+        <v>4.7284132407418534E-3</v>
       </c>
       <c r="U20">
-        <v>1.7770792585397871E-5</v>
+        <v>4.0073830619676166E-3</v>
       </c>
       <c r="V20">
-        <v>1.75498597775544E-5</v>
+        <v>3.4061736677835608E-3</v>
       </c>
       <c r="W20">
-        <v>1.7258701760338197E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.813436436381898E-3</v>
+      </c>
+      <c r="X20">
+        <v>2.5729764626147688E-3</v>
+      </c>
+      <c r="Y20">
+        <v>2.376624821277722E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>1.7962776951025636E-3</v>
+        <v>4.9240676247675603</v>
       </c>
       <c r="D21">
-        <v>1.7192409404690808E-3</v>
+        <v>4.8573861164856913</v>
       </c>
       <c r="E21">
-        <v>2.1137624033103597E-6</v>
+        <v>4.8785208751374904</v>
       </c>
       <c r="F21">
-        <v>3.8806136739736446E-6</v>
+        <v>4.8221684749380378</v>
       </c>
       <c r="G21">
-        <v>3.8759008886925929E-6</v>
+        <v>4.8420610299727729</v>
       </c>
       <c r="H21">
-        <v>3.8695574979325338E-6</v>
+        <v>4.8645822440656694</v>
       </c>
       <c r="I21">
-        <v>3.85986725652854E-6</v>
+        <v>4.5618016835936972</v>
       </c>
       <c r="J21">
-        <v>3.8740392945916408E-6</v>
+        <v>4.6119774117857757</v>
       </c>
       <c r="K21">
-        <v>3.8267363848158968E-6</v>
+        <v>4.4086194571115218</v>
       </c>
       <c r="L21">
-        <v>5.4232817890383894E-6</v>
+        <v>4.4103634669480876</v>
       </c>
       <c r="M21">
-        <v>6.5204152084489922E-6</v>
+        <v>4.3747966481914888</v>
       </c>
       <c r="N21">
-        <v>6.2832669778487732E-6</v>
+        <v>4.2922784506461786</v>
       </c>
       <c r="O21">
-        <v>5.7801924396910691E-6</v>
+        <v>4.107844610969976</v>
       </c>
       <c r="P21">
-        <v>6.7484204544437397E-6</v>
+        <v>3.7443276329737798</v>
       </c>
       <c r="Q21">
-        <v>6.6212995152689064E-6</v>
+        <v>3.4510328904100951</v>
       </c>
       <c r="R21">
-        <v>6.2080572153682919E-6</v>
+        <v>3.1264971554993162</v>
       </c>
       <c r="S21">
-        <v>5.9666830357920541E-6</v>
+        <v>2.6161202540363622</v>
       </c>
       <c r="T21">
-        <v>5.6550904574996748E-6</v>
+        <v>2.311760313466892</v>
       </c>
       <c r="U21">
-        <v>6.8352602817015235E-6</v>
+        <v>1.9343956484552649</v>
       </c>
       <c r="V21">
-        <v>6.7688301811839201E-6</v>
+        <v>1.5262879546912551</v>
       </c>
       <c r="W21">
-        <v>6.4284060743249853E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.195273670563588</v>
+      </c>
+      <c r="X21">
+        <v>1.174497835187664</v>
+      </c>
+      <c r="Y21">
+        <v>1.1053857301439649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1.1968500944349725E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="D22">
-        <v>1.1455209222755515E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="E22">
-        <v>1.9759405499512592E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="F22">
-        <v>1.8332886141365983E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="G22">
-        <v>1.8310621890599236E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="H22">
-        <v>2.7420981442772175E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="I22">
-        <v>2.7352313144172955E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="J22">
-        <v>2.7452740956123589E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="K22">
-        <v>2.7117536682290518E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="L22">
-        <v>4.1032623053933496E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="M22">
-        <v>5.2593082282817246E-8</v>
+        <v>5.0099078142500204</v>
       </c>
       <c r="N22">
-        <v>1.2257219418604526E-7</v>
+        <v>5.0068202750803881</v>
       </c>
       <c r="O22">
-        <v>2.5206241370676464E-6</v>
+        <v>5.0073689766253677</v>
       </c>
       <c r="P22">
-        <v>3.0316258837082533E-6</v>
+        <v>5.006413982619689</v>
       </c>
       <c r="Q22">
-        <v>3.1620540543395041E-6</v>
+        <v>4.9746984651031099</v>
       </c>
       <c r="R22">
-        <v>3.8199686972166813E-6</v>
+        <v>4.9017826748021793</v>
       </c>
       <c r="S22">
-        <v>3.9946239954025064E-6</v>
+        <v>4.8518270655897657</v>
       </c>
       <c r="T22">
-        <v>4.0556189556534504E-6</v>
+        <v>4.7720327106684053</v>
       </c>
       <c r="U22">
-        <v>4.0108124183549633E-6</v>
+        <v>4.5649925284732307</v>
       </c>
       <c r="V22">
-        <v>4.2981753267160362E-6</v>
+        <v>3.9645608188162722</v>
       </c>
       <c r="W22">
-        <v>4.9297574507911764E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.0774403975710052</v>
+      </c>
+      <c r="X22">
+        <v>2.4268979452850661</v>
+      </c>
+      <c r="Y22">
+        <v>2.009383175749154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>4.8406660681088223</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4.860106494085163</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4.8733381976292689</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>4.8626985508820084</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4.8813333375836532</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.8897960001728569</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.8902599339011967</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.8461443364626042</v>
       </c>
       <c r="K23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.7998651740844034</v>
       </c>
       <c r="L23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.735260654728819</v>
       </c>
       <c r="M23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.7319480828396072</v>
       </c>
       <c r="N23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.7066439435648073</v>
       </c>
       <c r="O23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.6461120232004847</v>
       </c>
       <c r="P23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.6014102148611276</v>
       </c>
       <c r="Q23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.5114589344459377</v>
       </c>
       <c r="R23">
-        <v>3.6086708797466337E-5</v>
+        <v>4.490422801864896</v>
       </c>
       <c r="S23">
-        <v>3.4958999147545522E-5</v>
+        <v>4.4532980038227494</v>
       </c>
       <c r="T23">
-        <v>3.4430342114596093E-5</v>
+        <v>4.4014421642979524</v>
       </c>
       <c r="U23">
-        <v>3.2719741816948129E-5</v>
+        <v>4.3390809070471636</v>
       </c>
       <c r="V23">
-        <v>2.6118644021986632E-5</v>
+        <v>4.1778897963340436</v>
       </c>
       <c r="W23">
-        <v>2.1803203325512857E-5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.0130506346134993</v>
+      </c>
+      <c r="X23">
+        <v>3.7416561971123299</v>
+      </c>
+      <c r="Y23">
+        <v>3.3000362026635899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1.8211599050428751</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1.8211599050428751</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1.8211599050428751</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.4634797151286243</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.74501996115390334</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3.2846571433639019E-2</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.1764416948422233E-2</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>5.0775833783723273E-2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3.057917751004827E-2</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>3.057917751004827E-2</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>3.057917751004827E-2</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>4.1078794850591162E-2</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>4.6008250232662098E-2</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>3.6791109192785353E-2</v>
       </c>
       <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.0545304008375693E-2</v>
+      </c>
+      <c r="X24">
+        <v>4.0395413790230122E-2</v>
+      </c>
+      <c r="Y24">
+        <v>3.9518840615758589E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2156,110 +2358,122 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.13361771042434131</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1018039698471172</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.12770542235246779</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.11975695208156729</v>
       </c>
       <c r="S25">
-        <v>1.127709649920823E-6</v>
+        <v>0.12229417564261751</v>
       </c>
       <c r="T25">
-        <v>1.6563666828702421E-6</v>
+        <v>0.1269394961888185</v>
       </c>
       <c r="U25">
-        <v>3.3669669805182107E-6</v>
+        <v>0.1269394961888185</v>
       </c>
       <c r="V25">
-        <v>9.9680647754797088E-6</v>
+        <v>0.1129095480669596</v>
       </c>
       <c r="W25">
-        <v>1.4283505471953485E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8.5095872190477928E-2</v>
+      </c>
+      <c r="X25">
+        <v>6.8928940220798152E-2</v>
+      </c>
+      <c r="Y25">
+        <v>5.0861553921319053E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>3.6086708797466337E-5</v>
+        <v>5.0832095409824003</v>
       </c>
       <c r="D26">
-        <v>3.5953547510390818E-5</v>
+        <v>5.0867855446953989</v>
       </c>
       <c r="E26">
-        <v>3.5961407725252917E-5</v>
+        <v>5.0885655026853067</v>
       </c>
       <c r="F26">
-        <v>3.5989701515752725E-5</v>
+        <v>5.0874257249905499</v>
       </c>
       <c r="G26">
-        <v>3.6010091581335833E-5</v>
+        <v>5.086071797395725</v>
       </c>
       <c r="H26">
-        <v>3.6013361828365801E-5</v>
+        <v>5.0796197866518424</v>
       </c>
       <c r="I26">
-        <v>3.5847407014989777E-5</v>
+        <v>5.0455608390144109</v>
       </c>
       <c r="J26">
-        <v>3.5706848704861428E-5</v>
+        <v>4.9379874410601348</v>
       </c>
       <c r="K26">
-        <v>3.56679075348265E-5</v>
+        <v>4.2267002546540224</v>
       </c>
       <c r="L26">
-        <v>3.4722708300602371E-5</v>
+        <v>4.2794236308266314</v>
       </c>
       <c r="M26">
-        <v>3.1227032012740872E-5</v>
+        <v>4.1767600868528767</v>
       </c>
       <c r="N26">
-        <v>2.6279841220179751E-5</v>
+        <v>4.0774638742060478</v>
       </c>
       <c r="O26">
-        <v>1.9233809827290513E-5</v>
+        <v>3.9637026118447709</v>
       </c>
       <c r="P26">
-        <v>1.4877132227578989E-5</v>
+        <v>3.913898615248752</v>
       </c>
       <c r="Q26">
-        <v>1.5605489724833498E-5</v>
+        <v>3.9116682865066048</v>
       </c>
       <c r="R26">
-        <v>1.6071844109798107E-5</v>
+        <v>3.911471994052897</v>
       </c>
       <c r="S26">
-        <v>1.7194511429432094E-5</v>
+        <v>3.912170210386559</v>
       </c>
       <c r="T26">
-        <v>1.8107081111409948E-5</v>
+        <v>3.9161984371732501</v>
       </c>
       <c r="U26">
-        <v>1.8780630021742444E-5</v>
+        <v>3.921937190543682</v>
       </c>
       <c r="V26">
-        <v>2.0164931005744027E-5</v>
+        <v>3.560348859511957</v>
       </c>
       <c r="W26">
-        <v>2.0068958725897799E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.4882772577863612</v>
+      </c>
+      <c r="X26">
+        <v>3.244108671285352</v>
+      </c>
+      <c r="Y26">
+        <v>2.759216362815093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2271,433 +2485,469 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>3.7388860712830669</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.7674672104585398</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.7860044793999679</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>3.7997605902659508</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3.3180330351739311</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3.4640201247334881</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>3.514221050201042</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.6338828381981272</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>3.7243460948301972</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>3.7701578992285238</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>3.7347613462668301</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3.764135282776083</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>3.7621880751943801</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>3.7601311752985951</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>3.7157303150959549</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>3.6503695542916832</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>3.5869536889099169</v>
       </c>
       <c r="W27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.5050943056221802</v>
+      </c>
+      <c r="X27">
+        <v>3.453800680310847</v>
+      </c>
+      <c r="Y27">
+        <v>3.359381996184208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="D28">
-        <v>1.3316128707552156E-7</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="E28">
-        <v>1.2530107221342479E-7</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="F28">
-        <v>9.70072817136192E-8</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="G28">
-        <v>7.6617216130501777E-8</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="H28">
-        <v>7.334696910054135E-8</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="I28">
-        <v>2.3930178247656724E-7</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="J28">
-        <v>3.7986009260490877E-7</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="K28">
-        <v>4.1880126263984153E-7</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="L28">
-        <v>1.3640004968639701E-6</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="M28">
-        <v>4.8596767847254667E-6</v>
+        <v>1.695562670212331</v>
       </c>
       <c r="N28">
-        <v>9.8068675772865899E-6</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>1.6852898970175831E-5</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>2.120957656988735E-5</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>2.048121907263284E-5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2.0014864687668234E-5</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>1.8892197368034247E-5</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>1.7979627686056389E-5</v>
+        <v>3.4994658627723738</v>
       </c>
       <c r="U28">
-        <v>1.7306078775723893E-5</v>
+        <v>3.4910729792722091</v>
       </c>
       <c r="V28">
-        <v>1.5921777791722313E-5</v>
+        <v>3.4836094092680381</v>
       </c>
       <c r="W28">
-        <v>1.6017750071568542E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.4865159475805378</v>
+      </c>
+      <c r="X28">
+        <v>3.4784686158784299</v>
+      </c>
+      <c r="Y28">
+        <v>1.695562670212331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3.0774935819357438E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="D29">
-        <v>3.008076433471028E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="E29">
-        <v>3.0281973460694964E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="F29">
-        <v>3.0627687322614103E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="G29">
-        <v>3.0887940479648834E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="H29">
-        <v>3.0887940479648834E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="I29">
-        <v>3.0614742399823476E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="J29">
-        <v>3.0986205401641358E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="K29">
-        <v>3.1090185956680422E-5</v>
+        <v>1.8672652190945931</v>
       </c>
       <c r="L29">
-        <v>3.1124290095944569E-5</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>3.0917853477961267E-5</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>3.0932191495491096E-5</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>3.1135555722702447E-5</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>3.1591906645586925E-5</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>3.1617806524853785E-5</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>3.1719516195726638E-5</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>3.1520174782301591E-5</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>3.0037446640936435E-5</v>
+        <v>2.2625981334067551</v>
       </c>
       <c r="U29">
-        <v>2.9235409239238997E-5</v>
+        <v>2.2605408502814579</v>
       </c>
       <c r="V29">
-        <v>2.8581250513126095E-5</v>
+        <v>2.2539124597566649</v>
       </c>
       <c r="W29">
-        <v>2.8032990326970144E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.1835374204256328</v>
+      </c>
+      <c r="X29">
+        <v>1.993728836766866</v>
+      </c>
+      <c r="Y29">
+        <v>1.612342346844108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3.1698282722701067E-2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2.4290588112313612E-2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>7.9753058034769592E-2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>6.2824784925337079E-2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>5.1201075286352052E-2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4.2556161341308373E-2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>4.5032026432868827E-2</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>4.5585656531376667E-2</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>4.5205952879179223E-2</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>5.2073866369442133E-2</v>
       </c>
       <c r="M30">
-        <v>3.6523401643200264E-7</v>
+        <v>5.7747434448396653E-2</v>
       </c>
       <c r="N30">
-        <v>3.6168805510742007E-7</v>
+        <v>4.6088891156483569E-2</v>
       </c>
       <c r="O30">
-        <v>2.8116128057406996E-7</v>
+        <v>4.604937144792056E-2</v>
       </c>
       <c r="P30">
-        <v>1.6339416524589589E-7</v>
+        <v>6.2443935016973533E-2</v>
       </c>
       <c r="Q30">
-        <v>2.183339779297756E-7</v>
+        <v>6.7799629524594993E-2</v>
       </c>
       <c r="R30">
-        <v>1.3629851068414564E-7</v>
+        <v>0.1070439552332924</v>
       </c>
       <c r="S30">
-        <v>8.68435647875292E-8</v>
+        <v>0.12497567690861321</v>
       </c>
       <c r="T30">
-        <v>1.1077575056034491E-6</v>
+        <v>0.1383939250314053</v>
       </c>
       <c r="U30">
-        <v>1.0798223094511382E-6</v>
+        <v>0.15550645874263791</v>
       </c>
       <c r="V30">
-        <v>9.4365956013487339E-7</v>
+        <v>0.16202119744077881</v>
       </c>
       <c r="W30">
-        <v>8.143288077472428E-7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.1777553167638885</v>
+      </c>
+      <c r="X30">
+        <v>0.1659548988666274</v>
+      </c>
+      <c r="Y30">
+        <v>0.15170631196030329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0.10424502690494231</v>
+      </c>
+      <c r="M32">
+        <v>0.33164226030862731</v>
+      </c>
+      <c r="N32">
+        <v>0.20878358072848549</v>
+      </c>
+      <c r="O32">
+        <v>0.30739263672043038</v>
+      </c>
+      <c r="P32">
+        <v>0.49064601113470357</v>
+      </c>
+      <c r="Q32">
+        <v>0.46316697851643129</v>
+      </c>
+      <c r="R32">
+        <v>0.43395041080072211</v>
+      </c>
+      <c r="S32">
+        <v>0.40726570122784639</v>
+      </c>
+      <c r="T32">
+        <v>0.44382360925492831</v>
+      </c>
+      <c r="U32">
+        <v>0.52568495266076398</v>
+      </c>
+      <c r="V32">
+        <v>0.59256736874615423</v>
+      </c>
+      <c r="W32">
+        <v>0.71484649798227551</v>
+      </c>
+      <c r="X32">
+        <v>0.66819573343892824</v>
+      </c>
+      <c r="Y32">
+        <v>0.60731869439673314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>3</v>
-      </c>
-      <c r="C31">
-        <v>1.6197334641767074E-6</v>
-      </c>
-      <c r="D31">
-        <v>2.3139049488238676E-6</v>
-      </c>
-      <c r="E31">
-        <v>2.1126958228391835E-6</v>
-      </c>
-      <c r="F31">
-        <v>1.7669819609200442E-6</v>
-      </c>
-      <c r="G31">
-        <v>1.5067288038853092E-6</v>
-      </c>
-      <c r="H31">
-        <v>1.5067288038853092E-6</v>
-      </c>
-      <c r="I31">
-        <v>1.7799268837106675E-6</v>
-      </c>
-      <c r="J31">
-        <v>1.4084638818927889E-6</v>
-      </c>
-      <c r="K31">
-        <v>1.3044833268537239E-6</v>
-      </c>
-      <c r="L31">
-        <v>1.2703791875895745E-6</v>
-      </c>
-      <c r="M31">
-        <v>1.1115817891408777E-6</v>
-      </c>
-      <c r="N31">
-        <v>1.1007897329356264E-6</v>
-      </c>
-      <c r="O31">
-        <v>9.7795228025763471E-7</v>
-      </c>
-      <c r="P31">
-        <v>6.393684727013318E-7</v>
-      </c>
-      <c r="Q31">
-        <v>5.5852878075058875E-7</v>
-      </c>
-      <c r="R31">
-        <v>5.3885457712336645E-7</v>
-      </c>
-      <c r="S31">
-        <v>7.8765093644503217E-7</v>
-      </c>
-      <c r="T31">
-        <v>1.2494651369942617E-6</v>
-      </c>
-      <c r="U31">
-        <v>2.0794377348440076E-6</v>
-      </c>
-      <c r="V31">
-        <v>2.8697592102731767E-6</v>
-      </c>
-      <c r="W31">
-        <v>3.5473501488167555E-6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>10</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>2.564300742293169E-5</v>
-      </c>
-      <c r="O32">
-        <v>2.3547996680831532E-5</v>
-      </c>
-      <c r="P32">
-        <v>2.2488699861031662E-5</v>
-      </c>
-      <c r="Q32">
-        <v>2.2369635469071107E-5</v>
-      </c>
-      <c r="R32">
-        <v>2.1877183960478985E-5</v>
-      </c>
-      <c r="S32">
-        <v>2.2234300190731618E-5</v>
-      </c>
-      <c r="T32">
-        <v>2.2615106069823527E-5</v>
-      </c>
-      <c r="U32">
-        <v>2.246014087863589E-5</v>
-      </c>
-      <c r="V32">
-        <v>2.2340950131869181E-5</v>
-      </c>
-      <c r="W32">
-        <v>2.1938385972654918E-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>10</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2750,84 +3000,96 @@
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>3.7039942614757905E-5</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1.1396935191826217E-5</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1.3491945933926376E-5</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1.4551242753726248E-5</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.4670307145686799E-5</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.516275865427892E-5</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.480564242402629E-5</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1.4424836544934382E-5</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>1.4579801736122021E-5</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>1.4698992482888722E-5</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1.5101556642102986E-5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2845,155 +3107,167 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>3.9900751190694494E-5</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>3.9900751190694494E-5</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>3.9900751190694494E-5</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>3.9900751190694494E-5</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>3.9900751190694494E-5</v>
+        <v>3.005047612988736E-3</v>
       </c>
       <c r="M35">
-        <v>3.9900751190694494E-5</v>
+        <v>5.551656817437938E-3</v>
       </c>
       <c r="N35">
-        <v>3.9900751190694494E-5</v>
+        <v>1.072527800090893E-2</v>
       </c>
       <c r="O35">
-        <v>3.9033343556114178E-5</v>
+        <v>1.283847520056525E-2</v>
       </c>
       <c r="P35">
-        <v>3.712377583310037E-5</v>
+        <v>2.255656903259769E-2</v>
       </c>
       <c r="Q35">
-        <v>3.6361168423778043E-5</v>
+        <v>4.0486616808400162E-2</v>
       </c>
       <c r="R35">
-        <v>3.5806170025140183E-5</v>
+        <v>0.122087765171563</v>
       </c>
       <c r="S35">
-        <v>3.5768490766713882E-5</v>
+        <v>0.1435922784155983</v>
       </c>
       <c r="T35">
-        <v>3.6137121145981914E-5</v>
+        <v>0.17213895029954829</v>
       </c>
       <c r="U35">
-        <v>3.5770352328905476E-5</v>
+        <v>0.19179750515016869</v>
       </c>
       <c r="V35">
-        <v>3.527267883264376E-5</v>
+        <v>0.21471781465311859</v>
       </c>
       <c r="W35">
-        <v>3.5142308121678938E-5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.2094390604809091</v>
+      </c>
+      <c r="X35">
+        <v>0.19661130720286621</v>
+      </c>
+      <c r="Y35">
+        <v>0.19003227205525741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>6.5258918232263388E-2</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>6.2460166521872452E-2</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.23073888435964579</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.42360885422182132</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.42309440528646641</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.42240195900927779</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.42134416959679161</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>0.42289119316323459</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.41772759454329189</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>0.59200692926080356</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.71177031458359374</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.6858831486131598</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.6309673938895155</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>0.73665942984393828</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.7227828732176993</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>0.67767323028907434</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>0.65132475856802252</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>0.61731122716197029</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>0.74613888923259286</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>0.7388873612191672</v>
       </c>
       <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.70255618901046402</v>
+      </c>
+      <c r="X36">
+        <v>0.82712587353137645</v>
+      </c>
+      <c r="Y36">
+        <v>0.70935621890686906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>0.996715893976168</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3008,107 +3282,119 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>8.6740763458031498E-7</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>2.7769753575941226E-6</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>3.5395827669164472E-6</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>4.0945811655543076E-6</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>4.1322604239806104E-6</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>3.7636300447125762E-6</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>4.1303988617890174E-6</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>4.6280723580507361E-6</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>4.7584430690155561E-6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4.1591460986910369E-5</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>4.1283376090711035E-5</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>4.1387581276190222E-5</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>4.130948498021945E-5</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>4.109484652736517E-5</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>4.0110459408741457E-5</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>3.7592282045861291E-5</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3.2735862834195006E-5</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>2.7312556216953117E-5</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>2.4261685575697717E-5</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>2.033222981380908E-5</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1.2945686532349584E-5</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>7.7968902488520313E-6</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>5.4743447020260996E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3144,190 +3430,208 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>3.4409948307250263E-2</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>3.40758711392187E-2</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>2.6489167753505859E-2</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.5393924242717219E-2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>2.0569992268720132E-2</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1.2841149772449561E-2</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>8.1818298425457899E-3</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>0.1043656307732764</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>0.1017337602127399</v>
       </c>
       <c r="V39">
-        <v>0</v>
+        <v>8.8905400983998545E-2</v>
       </c>
       <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7.6720707598450538E-2</v>
+      </c>
+      <c r="X39">
+        <v>6.0509759605078872E-2</v>
+      </c>
+      <c r="Y39">
+        <v>3.5135930431461973E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>3.3535489223062778E-3</v>
+      </c>
+      <c r="O40">
+        <v>2.7356918815873532E-3</v>
+      </c>
+      <c r="P40">
+        <v>2.436179934693168E-3</v>
+      </c>
+      <c r="Q40">
+        <v>2.1486200295346672E-3</v>
+      </c>
+      <c r="R40">
+        <v>1.8775294693706339E-3</v>
+      </c>
+      <c r="S40">
+        <v>1.698924671449082E-3</v>
+      </c>
+      <c r="T40">
+        <v>1.480609922511909E-3</v>
+      </c>
+      <c r="U40">
+        <v>1.5817099406627709E-3</v>
+      </c>
+      <c r="V40">
+        <v>1.5961725721502611E-3</v>
+      </c>
+      <c r="W40">
+        <v>1.471718450081799E-3</v>
+      </c>
+      <c r="X40">
+        <v>1.307367739973173E-3</v>
+      </c>
+      <c r="Y40">
+        <v>3.9787807806065147E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1.114715004849921</v>
+      </c>
+      <c r="D41">
+        <v>1.114715004849921</v>
+      </c>
+      <c r="E41">
+        <v>1.114715004849921</v>
+      </c>
+      <c r="F41">
+        <v>1.114715004849921</v>
+      </c>
+      <c r="G41">
+        <v>1.114715004849921</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>12</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>3.0808489619933609E-7</v>
-      </c>
-      <c r="L40">
-        <v>2.0387971072014887E-7</v>
-      </c>
-      <c r="M40">
-        <v>2.8197600669091774E-7</v>
-      </c>
-      <c r="N40">
-        <v>4.9661445954519845E-7</v>
-      </c>
-      <c r="O40">
-        <v>1.4810015781689154E-6</v>
-      </c>
-      <c r="P40">
-        <v>3.999178941049074E-6</v>
-      </c>
-      <c r="Q40">
-        <v>8.8555981527153664E-6</v>
-      </c>
-      <c r="R40">
-        <v>1.4278904769957254E-5</v>
-      </c>
-      <c r="S40">
-        <v>1.7329775411212656E-5</v>
-      </c>
-      <c r="T40">
-        <v>2.1259231173101286E-5</v>
-      </c>
-      <c r="U40">
-        <v>2.8645774454560782E-5</v>
-      </c>
-      <c r="V40">
-        <v>3.3794570738058338E-5</v>
-      </c>
-      <c r="W40">
-        <v>3.6117116284884269E-5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="D41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="E41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="F41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="G41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="H41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="I41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="J41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="K41">
-        <v>3.2938204003056529E-5</v>
-      </c>
-      <c r="L41">
-        <v>3.2921970601105854E-5</v>
-      </c>
-      <c r="M41">
-        <v>3.2921795196906171E-5</v>
-      </c>
-      <c r="N41">
-        <v>3.2921811658364839E-5</v>
-      </c>
-      <c r="O41">
-        <v>3.2920047612200501E-5</v>
-      </c>
-      <c r="P41">
-        <v>3.2920796188506688E-5</v>
-      </c>
-      <c r="Q41">
-        <v>3.2914720775139E-5</v>
-      </c>
-      <c r="R41">
-        <v>3.2906628460906904E-5</v>
-      </c>
-      <c r="S41">
-        <v>3.2868669049918607E-5</v>
-      </c>
-      <c r="T41">
-        <v>3.2769034964562398E-5</v>
-      </c>
-      <c r="U41">
-        <v>3.26540294640782E-5</v>
-      </c>
-      <c r="V41">
-        <v>3.2485705277053669E-5</v>
-      </c>
-      <c r="W41">
-        <v>3.2264754878315653E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>13</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3389,13 +3693,19 @@
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3425,116 +3735,128 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1.6233401950677142E-8</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>1.6408806150356712E-8</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1.6392344691688666E-8</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>1.8156390856026329E-8</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>1.740781454984209E-8</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2.3483227917530466E-8</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>3.1575542149624887E-8</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>6.9534953137924977E-8</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>1.6916903849412554E-7</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>2.8417453897832203E-7</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>4.5249872600285746E-7</v>
+        <v>0</v>
       </c>
       <c r="W43">
-        <v>6.7344912474088054E-7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>4.5947660483153696E-5</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>4.6938814727139693E-5</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>4.7026252954255124E-5</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>4.6955780563788058E-5</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>4.7058220226866944E-5</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4.7367619725711784E-5</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>4.7235085115452153E-5</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4.6461172929606935E-5</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>4.2525707691772517E-5</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>3.8403467926256727E-5</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>2.984819560949986E-5</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1.668429972118979E-5</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>1.5741272322753754E-5</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>1.5453593873364794E-5</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1.53919391762498E-5</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.5757116090658522E-5</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1.5827994616056768E-5</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>1.6002966150769306E-5</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>1.630503116486207E-5</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1.6369769011541666E-5</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>1.6162746372955481E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3602,185 +3924,203 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46">
-        <v>2.4049739646829756E-6</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D46">
-        <v>1.4138197206969788E-6</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="E46">
-        <v>1.3263814935815544E-6</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="F46">
-        <v>1.396853884048615E-6</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="G46">
-        <v>1.294414220969721E-6</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>9.8501472212489345E-7</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1.1175493323845147E-6</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1.8914615182297418E-6</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>5.8269267560641493E-6</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>9.9491665215799376E-6</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>1.8504438838336812E-5</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>3.1668334726646881E-5</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>3.2611362125082914E-5</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>3.2899040574471874E-5</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>3.2960695271586868E-5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>3.2595518357178147E-5</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>3.25246398317799E-5</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>3.2349668297067376E-5</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>3.2047603282974601E-5</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>3.1982865436295002E-5</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>3.2189888074881191E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>3.5307858967305202E-5</v>
+        <v>0</v>
       </c>
       <c r="S47">
-        <v>3.4962757718102836E-5</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>3.4994697161437972E-5</v>
+        <v>0</v>
       </c>
       <c r="U47">
-        <v>3.4443381725512042E-5</v>
+        <v>0</v>
       </c>
       <c r="V47">
-        <v>3.3875134137383577E-5</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>3.314202954403361E-5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3815,13 +4155,19 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3842,57 +4188,63 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.21202243147494559</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>0.18979711835860361</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>0.32718799736366172</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.3153343946656329</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>0.31045599406057789</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.29307549621864698</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.26559966844814892</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>0.21481745411209191</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.186578279488369</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>0.2300492646153246</v>
       </c>
       <c r="S49">
-        <v>3.4510124920235979E-7</v>
+        <v>0.47438088081642138</v>
       </c>
       <c r="T49">
-        <v>3.1316180586722263E-7</v>
+        <v>0.42631175587690079</v>
       </c>
       <c r="U49">
-        <v>8.6447724179315643E-7</v>
+        <v>0.33688172657402932</v>
       </c>
       <c r="V49">
-        <v>1.432724829921618E-6</v>
+        <v>0.25894693119279533</v>
       </c>
       <c r="W49">
-        <v>2.1658294232715886E-6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.43889020606504542</v>
+      </c>
+      <c r="X49">
+        <v>0.34640957295411212</v>
+      </c>
+      <c r="Y49">
+        <v>0.28713483639404369</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3907,60 +4259,66 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>3.7607604570539635E-5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>3.6674082471270923E-5</v>
+        <v>0</v>
       </c>
       <c r="P50">
-        <v>3.0237814625880575E-5</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>3.03389078888387E-5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>3.2469139787634217E-5</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>3.3060916625914811E-5</v>
+        <v>0</v>
       </c>
       <c r="T50">
-        <v>3.2920500628709593E-5</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>3.2593257294467685E-5</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>3.1526626123497907E-5</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>2.8846742142175291E-5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -3999,19 +4357,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1.6024356935782501E-3</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.641025203278831E-3</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.555261176982372E-3</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>1.447396559185844E-3</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>1.417210550532073E-3</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4026,24 +4384,30 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.532676633480958E-2</v>
+      </c>
+      <c r="X51">
+        <v>1.348328439593228E-2</v>
+      </c>
+      <c r="Y51">
+        <v>1.1652855651588179E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4073,107 +4437,119 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>9.3352209926871437E-7</v>
+        <v>0</v>
       </c>
       <c r="P52">
-        <v>7.3697899446590637E-6</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>7.2686966817009389E-6</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>5.1384647829054159E-6</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>4.546687944624826E-6</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>4.6871039418300417E-6</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>5.0143472760719516E-6</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>6.0809784470417309E-6</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>8.7608624283643469E-6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>4.9077923964554225E-5</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>4.8519426963535112E-5</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>4.4031700968650602E-5</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>2.9019251262571724E-5</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>2.9298498937119487E-5</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>2.9287477495390842E-5</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2.9230997787612502E-5</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>2.9112750218631103E-5</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>3.1213289075371524E-5</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>3.0408522172966254E-5</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>2.93261688102717E-5</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>2.5651083074544929E-5</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>2.1526143366951327E-5</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>1.8667136650497913E-5</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1.7015624661655164E-5</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.7387386188368554E-5</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>2.4315298774838996E-5</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>2.3706231435462709E-5</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>2.3790746170685817E-5</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>2.2550968114379854E-5</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>2.2087936243998358E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4241,117 +4617,129 @@
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>5.5849700101910933E-7</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>5.0462229959036263E-6</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>2.0058672701982504E-5</v>
+        <v>0.18921029512250681</v>
       </c>
       <c r="G55">
-        <v>1.9779425027434737E-5</v>
+        <v>0.16629965395944751</v>
       </c>
       <c r="H55">
-        <v>1.9790446469163386E-5</v>
+        <v>0.15144017917599881</v>
       </c>
       <c r="I55">
-        <v>1.9846926176941719E-5</v>
+        <v>0.13501276990944969</v>
       </c>
       <c r="J55">
-        <v>1.9965173745923122E-5</v>
+        <v>0.59941047655243673</v>
       </c>
       <c r="K55">
-        <v>1.7864634889182697E-5</v>
+        <v>0.45988852953051712</v>
       </c>
       <c r="L55">
-        <v>1.866940179158797E-5</v>
+        <v>0.41664029271569059</v>
       </c>
       <c r="M55">
-        <v>1.9751755154282525E-5</v>
+        <v>0.3048787940779511</v>
       </c>
       <c r="N55">
-        <v>2.3426840890009299E-5</v>
+        <v>0.2227284561923937</v>
       </c>
       <c r="O55">
-        <v>2.7551780597602898E-5</v>
+        <v>0.17032897917082229</v>
       </c>
       <c r="P55">
-        <v>3.0410787314056311E-5</v>
+        <v>0.19069034463423751</v>
       </c>
       <c r="Q55">
-        <v>3.206229930289906E-5</v>
+        <v>0.1569454137947289</v>
       </c>
       <c r="R55">
-        <v>3.1690537776185674E-5</v>
+        <v>0.1364097569163033</v>
       </c>
       <c r="S55">
-        <v>2.4762625189715228E-5</v>
+        <v>0.11688263980725989</v>
       </c>
       <c r="T55">
-        <v>2.5371692529091515E-5</v>
+        <v>0.1123300993508721</v>
       </c>
       <c r="U55">
-        <v>2.5287177793868407E-5</v>
+        <v>9.9640635487865989E-2</v>
       </c>
       <c r="V55">
-        <v>2.6526955850174378E-5</v>
+        <v>8.1960918685495293E-2</v>
       </c>
       <c r="W55">
-        <v>2.698998772055587E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6.9477833713816523E-2</v>
+      </c>
+      <c r="X55">
+        <v>5.3351601215944643E-2</v>
+      </c>
+      <c r="Y55">
+        <v>4.392456182187511E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4383,40 +4771,46 @@
       <c r="W56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>1.114715004849921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1.114715004849921</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4454,155 +4848,173 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.30028871562651549</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.35716197511571202</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.35538859159964159</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.22359933538206</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>0.40101758671631932</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.5835432876400114</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.70616415617842798</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>0.91855992194145963</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>1.6067421908318551</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>2.1263226012377241</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>3.090119187139913</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>3.9715324093932911</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>4.4472031254156574</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>4.5454521236868644</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>4.440984430943983</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>4.3097159330177934</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>4.2039567787443914</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>4.0714669345254686</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>4.1296465035259544</v>
       </c>
       <c r="V58">
-        <v>0</v>
+        <v>4.3367022105308717</v>
       </c>
       <c r="W58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.5481047001529831</v>
+      </c>
+      <c r="X58">
+        <v>4.8356755089124306</v>
+      </c>
+      <c r="Y58">
+        <v>5.2102283633283646</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>3.6405297066305577E-5</v>
+        <v>11.156517401481141</v>
       </c>
       <c r="D59">
-        <v>3.591229812664432E-5</v>
+        <v>11.156517401481141</v>
       </c>
       <c r="E59">
-        <v>3.606855454425998E-5</v>
+        <v>11.156517401481141</v>
       </c>
       <c r="F59">
-        <v>3.5651922193529976E-5</v>
+        <v>11.156517401481141</v>
       </c>
       <c r="G59">
-        <v>3.5798994579742699E-5</v>
+        <v>11.156517401481141</v>
       </c>
       <c r="H59">
-        <v>3.596550153127638E-5</v>
+        <v>0.27709457603996351</v>
       </c>
       <c r="I59">
-        <v>3.3726942459820698E-5</v>
+        <v>0.25211673382784572</v>
       </c>
       <c r="J59">
-        <v>3.4097908585704695E-5</v>
+        <v>0.26631127408993721</v>
       </c>
       <c r="K59">
-        <v>3.2594414459532537E-5</v>
+        <v>0.32877044981441228</v>
       </c>
       <c r="L59">
-        <v>3.2607308514006396E-5</v>
+        <v>0.51978383531141059</v>
       </c>
       <c r="M59">
-        <v>3.2344350995709E-5</v>
+        <v>0.89698262148312835</v>
       </c>
       <c r="N59">
-        <v>3.1734266057008569E-5</v>
+        <v>1.517156536281653</v>
       </c>
       <c r="O59">
-        <v>3.0370684312371487E-5</v>
+        <v>2.2483343886117502</v>
       </c>
       <c r="P59">
-        <v>2.7683080367610085E-5</v>
+        <v>3.0357111042562499</v>
       </c>
       <c r="Q59">
-        <v>2.5514653155662399E-5</v>
+        <v>3.0255731743763761</v>
       </c>
       <c r="R59">
-        <v>2.3115250722878709E-5</v>
+        <v>3.051747592372863</v>
       </c>
       <c r="S59">
-        <v>1.9341861701964015E-5</v>
+        <v>3.1959443870802691</v>
       </c>
       <c r="T59">
-        <v>1.7091625739366378E-5</v>
+        <v>3.4067431846653151</v>
       </c>
       <c r="U59">
-        <v>1.4301641161783807E-5</v>
+        <v>3.5385252726393448</v>
       </c>
       <c r="V59">
-        <v>1.1284362976611642E-5</v>
+        <v>3.8547748012040168</v>
       </c>
       <c r="W59">
-        <v>8.8370624386895915E-6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.3257553732767029</v>
+      </c>
+      <c r="X59">
+        <v>5.0303959034967471</v>
+      </c>
+      <c r="Y59">
+        <v>5.7390525031089181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -4623,640 +5035,694 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>2.5068890472543943E-6</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>2.2441036729165795E-6</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>3.8685718359049549E-6</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>3.7284184258743523E-6</v>
+        <v>4.773674177655141</v>
       </c>
       <c r="M60">
-        <v>3.6707376938883285E-6</v>
+        <v>6.4494746340086859</v>
       </c>
       <c r="N60">
-        <v>3.4652359487538096E-6</v>
+        <v>7.9809004363418321</v>
       </c>
       <c r="O60">
-        <v>3.1403700785581398E-6</v>
+        <v>8.1061921469125924</v>
       </c>
       <c r="P60">
-        <v>2.5399365488189534E-6</v>
+        <v>7.6368932617198517</v>
       </c>
       <c r="Q60">
-        <v>2.2060450965077842E-6</v>
+        <v>7.4909312443163101</v>
       </c>
       <c r="R60">
-        <v>2.7200328653019608E-6</v>
+        <v>7.2458025599517786</v>
       </c>
       <c r="S60">
-        <v>5.6089359322629378E-6</v>
+        <v>7.2264278547611296</v>
       </c>
       <c r="T60">
-        <v>5.0405811502538135E-6</v>
+        <v>6.9542840589590726</v>
       </c>
       <c r="U60">
-        <v>3.983187555644931E-6</v>
+        <v>6.7312786535281282</v>
       </c>
       <c r="V60">
-        <v>3.0617101271384338E-6</v>
+        <v>6.7054425955132411</v>
       </c>
       <c r="W60">
-        <v>5.1893049375848754E-6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6.6863969012790792</v>
+      </c>
+      <c r="X60">
+        <v>6.7430668599270591</v>
+      </c>
+      <c r="Y60">
+        <v>6.8868182289983944</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>1.0587670287739878E-6</v>
+        <v>2.3921181455428031</v>
       </c>
       <c r="D61">
-        <v>1.5517659684352482E-6</v>
+        <v>2.3921181455428031</v>
       </c>
       <c r="E61">
-        <v>1.3955095508195827E-6</v>
+        <v>2.3921181455428031</v>
       </c>
       <c r="F61">
-        <v>1.8121419015495897E-6</v>
+        <v>2.3921181455428031</v>
       </c>
       <c r="G61">
-        <v>1.6650695153368697E-6</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>1.4985625638031827E-6</v>
+        <v>5.8582485196966596</v>
       </c>
       <c r="I61">
-        <v>1.2302325880044714E-6</v>
+        <v>5.8582485196966596</v>
       </c>
       <c r="J61">
-        <v>1.1220518364582897E-6</v>
+        <v>5.8582485196966596</v>
       </c>
       <c r="K61">
-        <v>1.0010777996420718E-6</v>
+        <v>6.4506556733738503</v>
       </c>
       <c r="L61">
-        <v>1.1283371551988171E-6</v>
+        <v>6.7941817151511579</v>
       </c>
       <c r="M61">
-        <v>1.4489754054822348E-6</v>
+        <v>0.56300903397477009</v>
       </c>
       <c r="N61">
-        <v>2.2645620893171824E-6</v>
+        <v>0.49758047749200268</v>
       </c>
       <c r="O61">
-        <v>3.953009704149939E-6</v>
+        <v>0.74287121584827509</v>
       </c>
       <c r="P61">
-        <v>7.2410471786505252E-6</v>
+        <v>1.3783641392893089</v>
       </c>
       <c r="Q61">
-        <v>9.743365842909379E-6</v>
+        <v>2.174395473756507</v>
       </c>
       <c r="R61">
-        <v>1.1628780506898893E-5</v>
+        <v>2.333524172355371</v>
       </c>
       <c r="S61">
-        <v>1.2513266460852613E-5</v>
+        <v>2.4937998662810479</v>
       </c>
       <c r="T61">
-        <v>1.5331857205459372E-5</v>
+        <v>2.9492704599572388</v>
       </c>
       <c r="U61">
-        <v>1.9179235377650825E-5</v>
+        <v>3.07833086159975</v>
       </c>
       <c r="V61">
-        <v>2.3117990991329489E-5</v>
+        <v>3.5131124013348498</v>
       </c>
       <c r="W61">
-        <v>2.3437696718805102E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.2505067672780372</v>
+      </c>
+      <c r="X61">
+        <v>4.78181895049961</v>
+      </c>
+      <c r="Y61">
+        <v>5.2329407026787651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.36906965674088948</v>
       </c>
       <c r="D62">
-        <v>3.7039942614757905E-5</v>
+        <v>10.621004566210051</v>
       </c>
       <c r="E62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.25114503550916201</v>
       </c>
       <c r="F62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.2818872549944626</v>
       </c>
       <c r="G62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.25935522295540397</v>
       </c>
       <c r="H62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.27556489311073618</v>
       </c>
       <c r="I62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.20144482172667841</v>
       </c>
       <c r="J62">
-        <v>3.7039942614757905E-5</v>
+        <v>0.35724729822910811</v>
       </c>
       <c r="K62">
-        <v>3.7039942614757905E-5</v>
+        <v>2.2138769412416721</v>
       </c>
       <c r="L62">
-        <v>3.7039942614757905E-5</v>
+        <v>7.5038301725383008</v>
       </c>
       <c r="M62">
-        <v>3.7039942614757905E-5</v>
+        <v>9.4548839617756428</v>
       </c>
       <c r="N62">
-        <v>3.7017115393598521E-5</v>
+        <v>9.5569058020507143</v>
       </c>
       <c r="O62">
-        <v>3.7021172129668758E-5</v>
+        <v>9.4191540495073305</v>
       </c>
       <c r="P62">
-        <v>3.7014111536045233E-5</v>
+        <v>9.4244003106318761</v>
       </c>
       <c r="Q62">
-        <v>3.6779627990166401E-5</v>
+        <v>9.3620980814286039</v>
       </c>
       <c r="R62">
-        <v>3.6240536895361393E-5</v>
+        <v>9.3541841225982534</v>
       </c>
       <c r="S62">
-        <v>3.5871198183529215E-5</v>
+        <v>9.3464297810399408</v>
       </c>
       <c r="T62">
-        <v>3.5281251534438768E-5</v>
+        <v>9.2477088535849727</v>
       </c>
       <c r="U62">
-        <v>3.3750533455027101E-5</v>
+        <v>9.2200831596013053</v>
       </c>
       <c r="V62">
-        <v>2.9310355954895712E-5</v>
+        <v>9.1414891836857937</v>
       </c>
       <c r="W62">
-        <v>2.2752557522544297E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9.1654178944177254</v>
+      </c>
+      <c r="X62">
+        <v>9.1963454078587752</v>
+      </c>
+      <c r="Y62">
+        <v>9.3159020637317678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>12.06932337069324</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>12.06932337069324</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>12.06932337069324</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>0.35435715889926822</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>0.76104783865647252</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1.2221497660631051</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1.4969823493620711</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1.914672390466057</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>2.554619182010188</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>3.5132643874247811</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>4.839124376243122</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>5.7257923496171532</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>6.3220353618899612</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>6.3126342618739733</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>5.97834848196766</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>5.648980238318833</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>5.448298881377255</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>5.2154107191639048</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>5.2467438536543964</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>5.3837353483082451</v>
       </c>
       <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5.5904157572880129</v>
+      </c>
+      <c r="X63">
+        <v>5.8555466026366298</v>
+      </c>
+      <c r="Y63">
+        <v>6.0940862283639028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>5.9704952799491838E-3</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>5.7144393364968824E-3</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>9.8569936049624149E-3</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>9.1453734000451637E-3</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>9.1342668625821553E-3</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1.367897625917266E-2</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.364472102916724E-2</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1.369481951518607E-2</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1.352760262277449E-2</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>2.0469153439228348E-2</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2.623609681676806E-2</v>
       </c>
       <c r="N64">
-        <v>2.2827221159385757E-8</v>
+        <v>6.1145226979013229E-2</v>
       </c>
       <c r="O64">
-        <v>1.8770485089145626E-8</v>
+        <v>1.257415158578661</v>
       </c>
       <c r="P64">
-        <v>2.583107871267315E-8</v>
+        <v>1.5123287463829771</v>
       </c>
       <c r="Q64">
-        <v>2.6031462459150616E-7</v>
+        <v>1.577392932846021</v>
       </c>
       <c r="R64">
-        <v>7.994057193965135E-7</v>
+        <v>1.9055941243045109</v>
       </c>
       <c r="S64">
-        <v>1.1687444312286922E-6</v>
+        <v>1.992721045068041</v>
       </c>
       <c r="T64">
-        <v>1.758691080319133E-6</v>
+        <v>2.0231484247350719</v>
       </c>
       <c r="U64">
-        <v>3.2894091597308095E-6</v>
+        <v>2.00079665146828</v>
       </c>
       <c r="V64">
-        <v>7.7295866598621928E-6</v>
+        <v>2.1441478444021138</v>
       </c>
       <c r="W64">
-        <v>1.4287385092213609E-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.4619756924728402</v>
+      </c>
+      <c r="X64">
+        <v>2.7935395743403988</v>
+      </c>
+      <c r="Y64">
+        <v>4.3161029117620808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>3.5788681154963986E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="D65">
-        <v>3.5932410798156614E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="E65">
-        <v>3.6030237256874112E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="F65">
-        <v>3.5951574750582294E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="G65">
-        <v>3.6089348030183157E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="H65">
-        <v>3.6151915356428276E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="I65">
-        <v>3.615534537536513E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="J65">
-        <v>3.5829183845427704E-5</v>
+        <v>4.7078920949512613</v>
       </c>
       <c r="K65">
-        <v>3.5487026348263409E-5</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3.5009383290086095E-5</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>3.4984892325934073E-5</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>3.4797810267460162E-5</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>3.4350277310810106E-5</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>3.4019781725451001E-5</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>3.3354741491531762E-5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>3.3199214249808485E-5</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>3.2924738063808744E-5</v>
+        <v>0.44136488390168083</v>
       </c>
       <c r="T65">
-        <v>3.254135030669767E-5</v>
+        <v>0.64827155530234615</v>
       </c>
       <c r="U65">
-        <v>3.2080292443839738E-5</v>
+        <v>1.3177691532226841</v>
       </c>
       <c r="V65">
-        <v>3.0888552054158178E-5</v>
+        <v>3.9013178194076179</v>
       </c>
       <c r="W65">
-        <v>2.9669840389758461E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+        <v>5.5903021977158698</v>
+      </c>
+      <c r="X65">
+        <v>7.8444555720862272</v>
+      </c>
+      <c r="Y65">
+        <v>8.7850618039760384</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2.9335253569088889E-2</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2.7603658740357941E-2</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>2.1370574508664211E-2</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1.6878670312575561E-2</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1.615823926264855E-2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>5.2717862846306952E-2</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>8.3682670707611456E-2</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>9.2261358420384007E-2</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>0.30048748643571238</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>1.0705803005860419</v>
       </c>
       <c r="N66">
-        <v>1.5213569882502966E-8</v>
+        <v>2.1604398201334498</v>
       </c>
       <c r="O66">
-        <v>1.5579939781097992E-8</v>
+        <v>3.7126711187761212</v>
       </c>
       <c r="P66">
-        <v>1.4765693685173598E-8</v>
+        <v>4.672441371175557</v>
       </c>
       <c r="Q66">
-        <v>1.3741623947290653E-8</v>
+        <v>4.5119851879998114</v>
       </c>
       <c r="R66">
-        <v>1.3455037125761163E-8</v>
+        <v>4.4092479402873099</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>4.1619258302470694</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>3.960887948981318</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>3.812102656263828</v>
       </c>
       <c r="V66">
-        <v>0</v>
+        <v>3.5075491342183498</v>
       </c>
       <c r="W66">
-        <v>1.45512753892007E-7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+        <v>3.5286859481474671</v>
+      </c>
+      <c r="X66">
+        <v>3.8094071379339591</v>
+      </c>
+      <c r="Y66">
+        <v>4.2604230129960046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>4.311889295778793E-7</v>
+        <v>0.74585706223385151</v>
       </c>
       <c r="D67">
-        <v>2.8745928638525288E-7</v>
+        <v>1.065510088905502</v>
       </c>
       <c r="E67">
-        <v>1.8963282766775847E-7</v>
+        <v>0.97285703769632792</v>
       </c>
       <c r="F67">
-        <v>2.6829533395956937E-7</v>
+        <v>0.81366224970965628</v>
       </c>
       <c r="G67">
-        <v>1.3052205435870942E-7</v>
+        <v>0.69382052300823405</v>
       </c>
       <c r="H67">
-        <v>6.7954728113586981E-8</v>
+        <v>0.69382052300823405</v>
       </c>
       <c r="I67">
-        <v>6.4524709176737296E-8</v>
+        <v>0.81962314531192482</v>
       </c>
       <c r="J67">
-        <v>3.9068623911415948E-7</v>
+        <v>0.64857135846421865</v>
       </c>
       <c r="K67">
-        <v>7.3284373627845334E-7</v>
+        <v>0.60069025146350452</v>
       </c>
       <c r="L67">
-        <v>1.2104867944557728E-6</v>
+        <v>0.58498593116380515</v>
       </c>
       <c r="M67">
-        <v>1.2349777586077887E-6</v>
+        <v>0.51186268976832949</v>
       </c>
       <c r="N67">
-        <v>1.406846247199199E-6</v>
+        <v>0.50689314909096705</v>
       </c>
       <c r="O67">
-        <v>1.8540128339506613E-6</v>
+        <v>0.45032879229213679</v>
       </c>
       <c r="P67">
-        <v>2.1853226654056928E-6</v>
+        <v>0.29441726140809932</v>
       </c>
       <c r="Q67">
-        <v>2.8513869690628109E-6</v>
+        <v>0.25719209042546609</v>
       </c>
       <c r="R67">
-        <v>3.0072007976076199E-6</v>
+        <v>0.24813248645744571</v>
       </c>
       <c r="S67">
-        <v>3.2951320207331228E-6</v>
+        <v>0.36269857141047651</v>
       </c>
       <c r="T67">
-        <v>3.6785197778441955E-6</v>
+        <v>0.57535540078246306</v>
       </c>
       <c r="U67">
-        <v>4.1395776407021246E-6</v>
+        <v>0.9575423082323633</v>
       </c>
       <c r="V67">
-        <v>5.3313180303836861E-6</v>
+        <v>1.3214706130559859</v>
       </c>
       <c r="W67">
-        <v>6.4045169408914034E-6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.6334886073716579</v>
+      </c>
+      <c r="X67">
+        <v>1.721831892718017</v>
+      </c>
+      <c r="Y67">
+        <v>1.562053585627748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="F68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="G68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="H68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="I68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="J68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="K68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="L68">
-        <v>4.0393353057246278E-5</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="M68">
-        <v>5.5081845078063109E-6</v>
+        <v>10.212504390586581</v>
       </c>
       <c r="N68">
-        <v>2.428458099634045E-7</v>
+        <v>3.1423179761327931</v>
       </c>
       <c r="O68">
-        <v>2.3484507591422256E-7</v>
+        <v>3.719945209442125</v>
       </c>
       <c r="P68">
-        <v>3.754029094539617E-7</v>
+        <v>4.0107652423526439</v>
       </c>
       <c r="Q68">
-        <v>2.2608219994727396E-7</v>
+        <v>4.0448462001755141</v>
       </c>
       <c r="R68">
-        <v>2.2608219994727396E-7</v>
+        <v>4.1806221833815096</v>
       </c>
       <c r="S68">
-        <v>2.2608219994727396E-7</v>
+        <v>4.0821523357484741</v>
       </c>
       <c r="T68">
-        <v>3.0370942148305477E-7</v>
+        <v>3.9771580663826849</v>
       </c>
       <c r="U68">
-        <v>2.5511591404576596E-7</v>
+        <v>4.0089860711311758</v>
       </c>
       <c r="V68">
-        <v>2.7200911149660792E-7</v>
+        <v>4.034774596709668</v>
       </c>
       <c r="W68">
-        <v>2.997651432819761E-7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.13210668053887</v>
+      </c>
+      <c r="X68">
+        <v>4.4982095732365961</v>
+      </c>
+      <c r="Y68">
+        <v>4.6419229302467802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>3.2302325323023249</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>3.2302325323023249</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>3.2302325323023249</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>3.2302325323023249</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>3.2302325323023249</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5280,42 +5746,48 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.2106673390631951</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.67444415509608979</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>0.85965865779013484</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>0.99445114884532704</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>1.003602312374553</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>0.91407303225030423</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>1.0031501946645289</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>1.1240201835832471</v>
       </c>
       <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.1556833251971941</v>
+      </c>
+      <c r="X69">
+        <v>1.19109800715627</v>
+      </c>
+      <c r="Y69">
+        <v>1.7795805000524021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>3.5979012758164108</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5339,51 +5811,57 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>7.9953361684809141E-2</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>5.2910312879653101E-2</v>
       </c>
       <c r="M70">
-        <v>3.4885168549439964E-5</v>
+        <v>7.3177653067452428E-2</v>
       </c>
       <c r="N70">
-        <v>4.0150507247282874E-5</v>
+        <v>0.1288800457008864</v>
       </c>
       <c r="O70">
-        <v>4.0158507981332058E-5</v>
+        <v>0.38434553688246531</v>
       </c>
       <c r="P70">
-        <v>4.001795014779232E-5</v>
+        <v>1.0378561372547339</v>
       </c>
       <c r="Q70">
-        <v>4.0167270857299002E-5</v>
+        <v>2.2981809584760331</v>
       </c>
       <c r="R70">
-        <v>4.0167270857299002E-5</v>
+        <v>3.7056228709007351</v>
       </c>
       <c r="S70">
-        <v>4.0167270857299002E-5</v>
+        <v>4.4973765947705138</v>
       </c>
       <c r="T70">
-        <v>4.0089643635763226E-5</v>
+        <v>5.5171383605386861</v>
       </c>
       <c r="U70">
-        <v>4.0138237143200518E-5</v>
+        <v>7.4340741593027824</v>
       </c>
       <c r="V70">
-        <v>4.0121343945749673E-5</v>
+        <v>8.7702758899761619</v>
       </c>
       <c r="W70">
-        <v>4.0093587913964301E-5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9.3730166488566908</v>
+      </c>
+      <c r="X70">
+        <v>9.731383037627376</v>
+      </c>
+      <c r="Y70">
+        <v>10.02661454469127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5413,474 +5891,516 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>5.5736775257892038E-3</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>5.6354377662065627E-3</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>5.6219186577493993E-3</v>
       </c>
       <c r="O71">
-        <v>9.8788091716091426E-7</v>
+        <v>6.2289555499964499E-3</v>
       </c>
       <c r="P71">
-        <v>7.5267117497974422E-7</v>
+        <v>7.0682127455104606E-3</v>
       </c>
       <c r="Q71">
-        <v>9.4416937215379415E-7</v>
+        <v>8.1296151847650329E-3</v>
       </c>
       <c r="R71">
-        <v>8.8540364359650401E-7</v>
+        <v>1.3798167328685581E-2</v>
       </c>
       <c r="S71">
-        <v>9.0416219536761647E-7</v>
+        <v>2.7712444036628731E-2</v>
       </c>
       <c r="T71">
-        <v>9.3850662102132414E-7</v>
+        <v>4.8761713888054149E-2</v>
       </c>
       <c r="U71">
-        <v>9.3850662102132414E-7</v>
+        <v>7.94331093928448E-2</v>
       </c>
       <c r="V71">
-        <v>8.3477847020714071E-7</v>
+        <v>0.13126206652005931</v>
       </c>
       <c r="W71">
-        <v>6.2914255901531367E-7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.20007478551708999</v>
+      </c>
+      <c r="X71">
+        <v>0.29458959070153667</v>
+      </c>
+      <c r="Y71">
+        <v>0.56167659906014777</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.45856758734636521</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.26957959120700448</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.25290733718721958</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.26634463611252041</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.2468119884263093</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>0.18781734491042831</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>0.2130883363469851</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>0.36065377742558719</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>1.1110472642994069</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1.89705392029454</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>3.5283275402996122</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>6.0383488819970994</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>6.2181603083379802</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>6.2730132981853064</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>6.2847692864495368</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>6.2151393033170272</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>6.2016245647527697</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>6.168261927274906</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>6.1106657841280816</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>6.0983219173761709</v>
       </c>
       <c r="W72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+        <v>6.1377958881120911</v>
+      </c>
+      <c r="X72">
+        <v>6.1256562444449694</v>
+      </c>
+      <c r="Y72">
+        <v>6.2236536101042192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="K73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>7.1127426035585837E-5</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>7.0139545118424928E-5</v>
+        <v>0</v>
       </c>
       <c r="P73">
-        <v>7.0374754860606084E-5</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>7.0183256663432033E-5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>7.0242022391989327E-5</v>
+        <v>0</v>
       </c>
       <c r="S73">
-        <v>7.0223263840218223E-5</v>
+        <v>0.1351697540895862</v>
       </c>
       <c r="T73">
-        <v>7.0188919414564501E-5</v>
+        <v>0.12265966694458939</v>
       </c>
       <c r="U73">
-        <v>7.0188919414564501E-5</v>
+        <v>0.338599690552571</v>
       </c>
       <c r="V73">
-        <v>7.029264756537869E-5</v>
+        <v>0.5604829499164351</v>
       </c>
       <c r="W73">
-        <v>7.049828347657052E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+        <v>0.84729648285835224</v>
+      </c>
+      <c r="X73">
+        <v>1.174002103862154</v>
+      </c>
+      <c r="Y73">
+        <v>7.9962234232083853</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>3.7581887068108386E-5</v>
+        <v>3.6273922698804801</v>
       </c>
       <c r="D74">
-        <v>3.7608325672815413E-5</v>
+        <v>3.6273922698804801</v>
       </c>
       <c r="E74">
-        <v>3.7621485504143112E-5</v>
+        <v>3.6273922698804801</v>
       </c>
       <c r="F74">
-        <v>3.7613058742220012E-5</v>
+        <v>3.6273922698804801</v>
       </c>
       <c r="G74">
-        <v>3.7603048697669052E-5</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>3.755534680043583E-5</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3.7303537483222214E-5</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>3.6508210975263826E-5</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>3.1249424278199818E-5</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>3.1639226027113252E-5</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>3.0880199729942799E-5</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>3.0146069251964747E-5</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>2.9304993769965108E-5</v>
+        <v>0.27012495626769539</v>
       </c>
       <c r="P74">
-        <v>2.8936775981475052E-5</v>
+        <v>2.1325303258086969</v>
       </c>
       <c r="Q74">
-        <v>2.8920286406879249E-5</v>
+        <v>2.1032778707710351</v>
       </c>
       <c r="R74">
-        <v>2.8918835150390989E-5</v>
+        <v>1.4868716829015041</v>
       </c>
       <c r="S74">
-        <v>2.8923997299853697E-5</v>
+        <v>1.31563450202919</v>
       </c>
       <c r="T74">
-        <v>2.8953779342667704E-5</v>
+        <v>1.35626542563995</v>
       </c>
       <c r="U74">
-        <v>2.8996207886944795E-5</v>
+        <v>1.450956907952192</v>
       </c>
       <c r="V74">
-        <v>2.632286308138052E-5</v>
+        <v>1.759598448026795</v>
       </c>
       <c r="W74">
-        <v>2.5790013358182689E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.5350525522460172</v>
+      </c>
+      <c r="X74">
+        <v>2.9967117564347379</v>
+      </c>
+      <c r="Y74">
+        <v>4.1005303920388032</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.14958529310324981</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1.351557384425017</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>5.372423540167846</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>5.2976311148380653</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>5.3005830475940012</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>5.315710315291037</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>5.3473812056137309</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>4.784782445035014</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>5.0003275469002402</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>5.2902201420341806</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>6.2745383674769926</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>7.3793434319047426</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>8.1450867696209119</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>8.5874202189747812</v>
       </c>
       <c r="R75">
-        <v>0</v>
+        <v>8.4878493048311778</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>6.6323087505401483</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>6.7954385727486324</v>
       </c>
       <c r="U75">
-        <v>0</v>
+        <v>6.7728025309850723</v>
       </c>
       <c r="V75">
-        <v>0</v>
+        <v>7.1048590390721413</v>
       </c>
       <c r="W75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+        <v>7.228875386377096</v>
+      </c>
+      <c r="X75">
+        <v>8.8084719187141847</v>
+      </c>
+      <c r="Y75">
+        <v>8.6356210776979587</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>1.7036213539487028E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="D76">
-        <v>1.4392353068784232E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="E76">
-        <v>1.3076369936013759E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="F76">
-        <v>1.391904612832364E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="G76">
-        <v>1.4920050583420447E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="H76">
-        <v>1.9690240306741917E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="I76">
-        <v>4.4871172028103843E-7</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="J76">
-        <v>1.2440382282394222E-6</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="K76">
-        <v>6.5028249253034346E-6</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="L76">
-        <v>6.1130231763899985E-6</v>
+        <v>2.714980717333856</v>
       </c>
       <c r="M76">
-        <v>6.8720494735604578E-6</v>
+        <v>8.144942152001569</v>
       </c>
       <c r="N76">
-        <v>7.6061799515385062E-6</v>
+        <v>8.144942152001569</v>
       </c>
       <c r="O76">
-        <v>8.4472554335381455E-6</v>
+        <v>8.0933918852167483</v>
       </c>
       <c r="P76">
-        <v>8.8154732220281979E-6</v>
+        <v>8.1164633332882765</v>
       </c>
       <c r="Q76">
-        <v>8.8319627966240029E-6</v>
+        <v>8.1300519469704859</v>
       </c>
       <c r="R76">
-        <v>8.8334140531122599E-6</v>
+        <v>8.1340677299027693</v>
       </c>
       <c r="S76">
-        <v>8.8282519036495552E-6</v>
+        <v>8.1362495776664545</v>
       </c>
       <c r="T76">
-        <v>8.7984698608355481E-6</v>
+        <v>8.1376609757842306</v>
       </c>
       <c r="U76">
-        <v>8.7560413165584599E-6</v>
+        <v>8.1387712737895814</v>
       </c>
       <c r="V76">
-        <v>1.1429386122122733E-5</v>
+        <v>8.1396970624886009</v>
       </c>
       <c r="W76">
-        <v>1.1962235845320565E-5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8.1406098050964655</v>
+      </c>
+      <c r="X76">
+        <v>8.1409800839517761</v>
+      </c>
+      <c r="Y76">
+        <v>8.141282441387208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.37519853087155047</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>0.54990408257004675</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.49453101490233009</v>
       </c>
       <c r="F77">
-        <v>2.7642849061919118E-5</v>
+        <v>0.64217430342489745</v>
       </c>
       <c r="G77">
-        <v>2.7854159088804794E-5</v>
+        <v>0.59005580923389145</v>
       </c>
       <c r="H77">
-        <v>2.7991211386627881E-5</v>
+        <v>0.5310502283105023</v>
       </c>
       <c r="I77">
-        <v>2.8092914966008914E-5</v>
+        <v>0.43596130886704793</v>
       </c>
       <c r="J77">
-        <v>2.4531340250840801E-5</v>
+        <v>0.39762496296127459</v>
       </c>
       <c r="K77">
-        <v>2.5610672170761763E-5</v>
+        <v>0.35475502117662627</v>
       </c>
       <c r="L77">
-        <v>2.598182458862402E-5</v>
+        <v>0.39985231070956628</v>
       </c>
       <c r="M77">
-        <v>2.6866524651963391E-5</v>
+        <v>0.51347787438703485</v>
       </c>
       <c r="N77">
-        <v>2.7535350099183235E-5</v>
+        <v>0.80249983791343649</v>
       </c>
       <c r="O77">
-        <v>2.7874052260761156E-5</v>
+        <v>1.4008402162234761</v>
       </c>
       <c r="P77">
-        <v>2.7612353575062342E-5</v>
+        <v>2.5660321766415879</v>
       </c>
       <c r="Q77">
-        <v>2.7829525020727991E-5</v>
+        <v>3.4527865438318419</v>
       </c>
       <c r="R77">
-        <v>2.7815128656611237E-5</v>
+        <v>4.1209267416161381</v>
       </c>
       <c r="S77">
-        <v>2.7799921300123061E-5</v>
+        <v>4.4343647515664824</v>
       </c>
       <c r="T77">
-        <v>2.7471650726106956E-5</v>
+        <v>5.4331974293550864</v>
       </c>
       <c r="U77">
-        <v>2.6988416519169839E-5</v>
+        <v>6.7966046744645769</v>
       </c>
       <c r="V77">
-        <v>2.6519561581774655E-5</v>
+        <v>8.192393624773656</v>
       </c>
       <c r="W77">
-        <v>2.5914347479664243E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+        <v>8.3056887274734166</v>
+      </c>
+      <c r="X77">
+        <v>8.7476152688931474</v>
+      </c>
+      <c r="Y77">
+        <v>9.1770501302943241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -5892,146 +6412,158 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.4659086623744986E-6</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>1.2884082397905301E-6</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>1.1732843096191328E-6</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1.0460127912875659E-6</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>4.6439386891042543E-6</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>3.562991002836103E-6</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>3.2279248536171616E-6</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>2.3620515201024987E-6</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>1.725590952005716E-6</v>
+        <v>7.9436687374050512E-3</v>
       </c>
       <c r="O78">
-        <v>1.3196254773465199E-6</v>
+        <v>6.5319608789642979E-3</v>
       </c>
       <c r="P78">
-        <v>1.4773753608360408E-6</v>
+        <v>8.9889842916312402E-3</v>
       </c>
       <c r="Q78">
-        <v>1.2159361701364229E-6</v>
+        <v>9.0587160426517821E-2</v>
       </c>
       <c r="R78">
-        <v>1.0568359621580794E-6</v>
+        <v>0.27818603838522382</v>
       </c>
       <c r="S78">
-        <v>9.0554942617538218E-7</v>
+        <v>0.40671260577638491</v>
       </c>
       <c r="T78">
-        <v>8.7027857325213973E-7</v>
+        <v>0.61200876164202089</v>
       </c>
       <c r="U78">
-        <v>7.7196682448801995E-7</v>
+        <v>1.1446849585519401</v>
       </c>
       <c r="V78">
-        <v>6.3499304094128983E-7</v>
+        <v>2.6894849882518779</v>
       </c>
       <c r="W78">
-        <v>5.3828021471112673E-7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4.9718821885431019</v>
+      </c>
+      <c r="X78">
+        <v>6.6456079152981866</v>
+      </c>
+      <c r="Y78">
+        <v>7.7197964000265014</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>2.9387978421888758E-5</v>
+        <v>9.297097834567615E-2</v>
       </c>
       <c r="D79">
-        <v>2.9387978421888758E-5</v>
+        <v>6.1980652230450767E-2</v>
       </c>
       <c r="E79">
-        <v>2.9387978421888758E-5</v>
+        <v>4.0887760110140302E-2</v>
       </c>
       <c r="F79">
-        <v>2.7922069759514263E-7</v>
+        <v>5.7848608748420717E-2</v>
       </c>
       <c r="G79">
-        <v>2.4541109329343431E-7</v>
+        <v>2.8142566418150619E-2</v>
       </c>
       <c r="H79">
-        <v>2.2348272564173961E-7</v>
+        <v>1.465208664359624E-2</v>
       </c>
       <c r="I79">
-        <v>2.4905066459227762E-7</v>
+        <v>1.3912521700184321E-2</v>
       </c>
       <c r="J79">
-        <v>2.1269948194370634E-7</v>
+        <v>8.4237974087587916E-2</v>
       </c>
       <c r="K79">
-        <v>2.143152482908934E-7</v>
+        <v>0.15801240352577881</v>
       </c>
       <c r="L79">
-        <v>1.7822897964757332E-7</v>
+        <v>0.26099960791026788</v>
       </c>
       <c r="M79">
-        <v>1.5940224982286801E-7</v>
+        <v>0.26628023721601302</v>
       </c>
       <c r="N79">
-        <v>1.2703737069980731E-7</v>
+        <v>0.30333773205192832</v>
       </c>
       <c r="O79">
-        <v>1.9430068378108267E-7</v>
+        <v>0.39975373951872301</v>
       </c>
       <c r="P79">
-        <v>2.9824948599037443E-7</v>
+        <v>0.47118924505470661</v>
       </c>
       <c r="Q79">
-        <v>3.4251723102434451E-7</v>
+        <v>0.61480297375770476</v>
       </c>
       <c r="R79">
-        <v>5.16013803119438E-7</v>
+        <v>0.64839883646637375</v>
       </c>
       <c r="S79">
-        <v>6.8250769559031271E-7</v>
+        <v>0.71048124553112268</v>
       </c>
       <c r="T79">
-        <v>1.0460491225296655E-6</v>
+        <v>0.79314555442065104</v>
       </c>
       <c r="U79">
-        <v>1.6275950782308991E-6</v>
+        <v>0.89255673509690769</v>
       </c>
       <c r="V79">
-        <v>2.2334237991728126E-6</v>
+        <v>1.1495143292337029</v>
       </c>
       <c r="W79">
-        <v>2.9353507275133858E-6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.380912553596964</v>
+      </c>
+      <c r="X79">
+        <v>1.8173209317001751</v>
+      </c>
+      <c r="Y79">
+        <v>2.525062153456882</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>3.9162996188090138</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3.9162996188090138</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3.9162996188090138</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6055,324 +6587,354 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>10.146776285096079</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>11.67826419396355</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>11.68059130493619</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>11.63970834660895</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>11.68314009417092</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>11.68314009417092</v>
       </c>
       <c r="S80">
-        <v>0</v>
+        <v>11.68314009417092</v>
       </c>
       <c r="T80">
-        <v>2.5872734498368606E-5</v>
+        <v>11.66056127104037</v>
       </c>
       <c r="U80">
-        <v>2.5810683072525153E-5</v>
+        <v>11.64996076079397</v>
       </c>
       <c r="V80">
-        <v>2.5755502375613054E-5</v>
+        <v>11.6697816924107</v>
       </c>
       <c r="W80">
-        <v>2.5776991396228636E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+        <v>11.66170851240903</v>
+      </c>
+      <c r="X80">
+        <v>11.662030842701149</v>
+      </c>
+      <c r="Y80">
+        <v>11.6639158628905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>9.9076535132556387</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>9.7700472144604227</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>9.8028106189354727</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>9.7761359887433947</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>9.7843217267835776</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>9.7817087652057797</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>9.7769247783746174</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>9.7769247783746174</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>9.7913735309180243</v>
       </c>
       <c r="W81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+        <v>9.8200174657758925</v>
+      </c>
+      <c r="X81">
+        <v>9.836666992729743</v>
+      </c>
+      <c r="Y81">
+        <v>9.8552737039933849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>2.9224829857714539E-2</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>2.4689410514400011E-2</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>2.243190281988227E-2</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>2.387747453030499E-2</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>2.5594650992035312E-2</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3.3777689008667608E-2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>7.6974403085408857E-2</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.21340895658839271</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1.1155292905668781</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>1.048660618347959</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1.178868039973209</v>
       </c>
       <c r="N82">
-        <v>3.7607604570539635E-5</v>
+        <v>1.3048046999155281</v>
       </c>
       <c r="O82">
-        <v>3.7607604570539635E-5</v>
+        <v>1.4490872765688541</v>
       </c>
       <c r="P82">
-        <v>3.7607604570539635E-5</v>
+        <v>1.512253321032099</v>
       </c>
       <c r="Q82">
-        <v>3.7607604570539635E-5</v>
+        <v>1.5150820306562851</v>
       </c>
       <c r="R82">
-        <v>3.7607604570539635E-5</v>
+        <v>1.515330986939035</v>
       </c>
       <c r="S82">
-        <v>3.7607604570539635E-5</v>
+        <v>1.514445444271951</v>
       </c>
       <c r="T82">
-        <v>1.173487007217103E-5</v>
+        <v>1.5093364737132231</v>
       </c>
       <c r="U82">
-        <v>1.1796921498014485E-5</v>
+        <v>1.5020580548043829</v>
       </c>
       <c r="V82">
-        <v>1.1852102194926584E-5</v>
+        <v>1.960657889283643</v>
       </c>
       <c r="W82">
-        <v>1.1830613174311004E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.0520657743990331</v>
+      </c>
+      <c r="X82">
+        <v>2.3617430060588491</v>
+      </c>
+      <c r="Y82">
+        <v>2.9767283728991791</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>12.407715614731361</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>12.407715614731361</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>12.407715614731361</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>0.117888034344241</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>0.10361349156351871</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>9.4355251823052197E-2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>0.10515013232823189</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>8.980252555897246E-2</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>9.0484708220465726E-2</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>7.5248949145944918E-2</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>6.7300232624282544E-2</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>5.3635658276936733E-2</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>8.2034483403182548E-2</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>0.12592206075842541</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>0.14461207010176411</v>
       </c>
       <c r="R83">
-        <v>0</v>
+        <v>0.2178629788843596</v>
       </c>
       <c r="S83">
-        <v>0</v>
+        <v>0.28815732985031861</v>
       </c>
       <c r="T83">
-        <v>1.5189932141234427E-5</v>
+        <v>0.44164589496636802</v>
       </c>
       <c r="U83">
-        <v>1.5176120589546497E-5</v>
+        <v>0.6871767964680412</v>
       </c>
       <c r="V83">
-        <v>1.5131620949601333E-5</v>
+        <v>0.94295997327495407</v>
       </c>
       <c r="W83">
-        <v>1.4659158758418697E-5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1.2393161766225409</v>
+      </c>
+      <c r="X83">
+        <v>1.4521783469799281</v>
+      </c>
+      <c r="Y83">
+        <v>1.7777419384399411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>2.6820718601540521</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>8.0462155804621549</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>8.0462155804621549</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>8.0462155804621549</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>8.0462155804621549</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>8.0462155804621549</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>8.0462155804621549</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>2.510696852076765</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>2.5239728677952078</v>
       </c>
       <c r="V84">
-        <v>0</v>
+        <v>2.5357788785290771</v>
       </c>
       <c r="W84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+        <v>2.5311812633802142</v>
+      </c>
+      <c r="X84">
+        <v>2.5439106789817298</v>
+      </c>
+      <c r="Y84">
+        <v>2.6820718601540521</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>27</v>
       </c>
@@ -6380,74 +6942,76 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>2.8736484215936269</v>
       </c>
       <c r="L85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="M85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="N85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="O85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="P85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="Q85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="R85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="S85">
-        <v>3.7607604570539635E-5</v>
+        <v>8.6209452647808824</v>
       </c>
       <c r="T85">
-        <v>2.2417672429305213E-5</v>
+        <v>5.1388948906419154</v>
       </c>
       <c r="U85">
-        <v>2.2431483980993143E-5</v>
+        <v>5.1420609692178578</v>
       </c>
       <c r="V85">
-        <v>2.2475983620938302E-5</v>
+        <v>5.1522618039865318</v>
       </c>
       <c r="W85">
-        <v>2.2948445812120934E-5</v>
+        <v>5.2605662476323438</v>
+      </c>
+      <c r="X85">
+        <v>5.5526742627435626</v>
+      </c>
+      <c r="Y85">
+        <v>6.1396132115207918</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W85">
-    <sortCondition ref="A2:A85"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/import/raw_data/eurostat/renewable_energy_system_utilization_eurostat.xlsx
+++ b/import/raw_data/eurostat/renewable_energy_system_utilization_eurostat.xlsx
@@ -1,52 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\eurostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_env\workspace\micat\back_end\import\public\eurostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A79B9ED-0209-476D-8B74-1CD021E6E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30624" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2028" yWindow="1128" windowWidth="43200" windowHeight="11328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id_region</t>
-  </si>
-  <si>
-    <t>id_technology</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
   </si>
   <si>
     <t>2007</t>
@@ -79,9 +59,6 @@
     <t>2016</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
@@ -91,16 +68,13 @@
     <t>2020</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>id_technology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,8 +86,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,27 +100,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -153,15 +114,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,44 +143,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -248,14 +207,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -282,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -293,257 +254,232 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B35"/>
+      <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2003</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2005</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2006</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -551,774 +487,714 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.0927665574480194</v>
+        <v>3.8270580050558486E-5</v>
       </c>
       <c r="D2">
-        <v>5.0739158392462507</v>
+        <v>3.8126997282633544E-5</v>
       </c>
       <c r="E2">
-        <v>4.9988078848109199</v>
+        <v>3.7557659403971977E-5</v>
       </c>
       <c r="F2">
-        <v>5.0892156567053233</v>
+        <v>3.8242197323836576E-5</v>
       </c>
       <c r="G2">
-        <v>5.0146699194345086</v>
+        <v>3.7680002350739305E-5</v>
       </c>
       <c r="H2">
-        <v>4.9334370934538816</v>
+        <v>3.7063592102360882E-5</v>
       </c>
       <c r="I2">
-        <v>4.8675121182968528</v>
+        <v>3.6565306648699969E-5</v>
       </c>
       <c r="J2">
-        <v>4.7584399797647619</v>
+        <v>3.5728861976685281E-5</v>
       </c>
       <c r="K2">
-        <v>4.4080148309137082</v>
+        <v>3.3064863858495534E-5</v>
       </c>
       <c r="L2">
-        <v>4.1336369234531416</v>
+        <v>3.1065735476586786E-5</v>
       </c>
       <c r="M2">
-        <v>3.634363336143819</v>
+        <v>2.7313522685685367E-5</v>
       </c>
       <c r="N2">
-        <v>3.2008559514585029</v>
+        <v>2.405865185205655E-5</v>
       </c>
       <c r="O2">
-        <v>2.958336999780744</v>
+        <v>2.2235542003568156E-5</v>
       </c>
       <c r="P2">
-        <v>2.885764881667324</v>
+        <v>2.1689510151595438E-5</v>
       </c>
       <c r="Q2">
-        <v>2.9316991675655979</v>
+        <v>2.2034948722407756E-5</v>
       </c>
       <c r="R2">
-        <v>2.944855819720023</v>
+        <v>2.2133701758414989E-5</v>
       </c>
       <c r="S2">
-        <v>2.974213028846258</v>
+        <v>2.2354150466222855E-5</v>
       </c>
       <c r="T2">
-        <v>3.0233876212995709</v>
+        <v>2.2723084026865245E-5</v>
       </c>
       <c r="U2">
-        <v>2.9702653247707822</v>
+        <v>2.2319726465319376E-5</v>
       </c>
       <c r="V2">
-        <v>2.8557465972457221</v>
+        <v>2.1455554274582744E-5</v>
       </c>
       <c r="W2">
-        <v>2.7263758573302641</v>
-      </c>
-      <c r="X2">
-        <v>2.595898886156752</v>
-      </c>
-      <c r="Y2">
-        <v>2.424419796636974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.0477608876518354E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3.2724372210621583E-7</v>
+      </c>
+      <c r="D3">
+        <v>2.5101393979513986E-7</v>
+      </c>
+      <c r="E3">
+        <v>8.2383883884246407E-7</v>
+      </c>
+      <c r="F3">
+        <v>6.4865986316303893E-7</v>
+      </c>
+      <c r="G3">
+        <v>5.2886803880914752E-7</v>
+      </c>
+      <c r="H3">
+        <v>4.4012800807191562E-7</v>
+      </c>
+      <c r="I3">
+        <v>4.658939415430838E-7</v>
+      </c>
+      <c r="J3">
+        <v>4.7168285296963119E-7</v>
+      </c>
+      <c r="K3">
+        <v>4.6744753733617703E-7</v>
+      </c>
+      <c r="L3">
+        <v>5.3635688200191359E-7</v>
+      </c>
+      <c r="M3">
+        <v>5.9479428730342682E-7</v>
+      </c>
+      <c r="N3">
+        <v>4.7162731906982501E-7</v>
+      </c>
+      <c r="O3">
+        <v>4.7171409502753446E-7</v>
+      </c>
+      <c r="P3">
+        <v>6.4082288721378718E-7</v>
+      </c>
+      <c r="Q3">
+        <v>6.9613257670131279E-7</v>
+      </c>
+      <c r="R3">
+        <v>1.100511975520539E-6</v>
+      </c>
+      <c r="S3">
+        <v>1.285337819767277E-6</v>
+      </c>
+      <c r="T3">
+        <v>1.4236650300190267E-6</v>
+      </c>
+      <c r="U3">
+        <v>1.5994230890396143E-6</v>
+      </c>
+      <c r="V3">
+        <v>1.6661886300001525E-6</v>
+      </c>
+      <c r="W3">
+        <v>1.8279570523274837E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.1535226554291418E-6</v>
+      </c>
+      <c r="D4">
+        <v>1.373335205665165E-6</v>
+      </c>
+      <c r="E4">
+        <v>1.3698481852794057E-6</v>
+      </c>
+      <c r="F4">
+        <v>8.6048924109423146E-7</v>
+      </c>
+      <c r="G4">
+        <v>1.5424760385453947E-6</v>
+      </c>
+      <c r="H4">
+        <v>2.2476263176610461E-6</v>
+      </c>
+      <c r="I4">
+        <v>2.7201458378507973E-6</v>
+      </c>
+      <c r="J4">
+        <v>3.5508015984389312E-6</v>
+      </c>
+      <c r="K4">
+        <v>6.2190350322621314E-6</v>
+      </c>
+      <c r="L4">
+        <v>8.1492540695051444E-6</v>
+      </c>
+      <c r="M4">
+        <v>1.1843029455105049E-5</v>
+      </c>
+      <c r="N4">
+        <v>1.5221067256967462E-5</v>
+      </c>
+      <c r="O4">
+        <v>1.7044090329498155E-5</v>
+      </c>
+      <c r="P4">
+        <v>1.7421013389284613E-5</v>
+      </c>
+      <c r="Q4">
+        <v>1.7020265128984772E-5</v>
+      </c>
+      <c r="R4">
+        <v>1.6517132694158312E-5</v>
+      </c>
+      <c r="S4">
+        <v>1.6111858142103708E-5</v>
+      </c>
+      <c r="T4">
+        <v>1.5604597371209568E-5</v>
+      </c>
+      <c r="U4">
+        <v>1.5832196873734861E-5</v>
+      </c>
+      <c r="V4">
+        <v>1.6629603523510948E-5</v>
+      </c>
+      <c r="W4">
+        <v>1.7445780499248013E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5.8056112835313902</v>
-      </c>
-      <c r="I3">
-        <v>5.8189402665952557</v>
-      </c>
-      <c r="J3">
-        <v>5.8113656016123469</v>
-      </c>
-      <c r="K3">
-        <v>5.7780353688266404</v>
-      </c>
-      <c r="L3">
-        <v>5.6761044590771208</v>
-      </c>
-      <c r="M3">
-        <v>5.4748190081603738</v>
-      </c>
-      <c r="N3">
-        <v>5.1438741836714756</v>
-      </c>
-      <c r="O3">
-        <v>4.7536940741320963</v>
-      </c>
-      <c r="P3">
-        <v>4.3335244366357033</v>
-      </c>
-      <c r="Q3">
-        <v>4.3389343633429007</v>
-      </c>
-      <c r="R3">
-        <v>4.3249668488066586</v>
-      </c>
-      <c r="S3">
-        <v>4.2480187834695231</v>
-      </c>
-      <c r="T3">
-        <v>4.1355297390183097</v>
-      </c>
-      <c r="U3">
-        <v>4.0652065620276847</v>
-      </c>
-      <c r="V3">
-        <v>3.8964456028384662</v>
-      </c>
-      <c r="W3">
-        <v>3.645115163032862</v>
-      </c>
-      <c r="X3">
-        <v>3.269096225381805</v>
-      </c>
-      <c r="Y3">
-        <v>2.8909341834362978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="D4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="E4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="F4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="G4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="H4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="I4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="J4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="K4">
-        <v>5.8229191700712963</v>
-      </c>
-      <c r="L4">
-        <v>3.37424692350208</v>
-      </c>
-      <c r="M4">
-        <v>2.1715306297227208</v>
-      </c>
-      <c r="N4">
-        <v>1.667048489266048</v>
-      </c>
-      <c r="O4">
-        <v>1.43037648181719</v>
-      </c>
-      <c r="P4">
-        <v>1.3231413769529969</v>
-      </c>
-      <c r="Q4">
-        <v>1.4416953298173569</v>
-      </c>
-      <c r="R4">
-        <v>1.610347481899858</v>
-      </c>
-      <c r="S4">
-        <v>1.6675106357834939</v>
-      </c>
-      <c r="T4">
-        <v>1.730680757079629</v>
-      </c>
-      <c r="U4">
-        <v>1.6891080947557231</v>
-      </c>
-      <c r="V4">
-        <v>1.5810752161179931</v>
-      </c>
-      <c r="W4">
-        <v>1.3702089529183441</v>
-      </c>
-      <c r="X4">
-        <v>1.427254821027073</v>
-      </c>
-      <c r="Y4">
-        <v>1.468633935709512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>2.7832821190277892</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.7832821190277892</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.7832821190277892</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2.7832821190277892</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>8.3498463570833685</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.53364524926021</v>
+        <v>4.2922847437220732E-5</v>
       </c>
       <c r="I5">
-        <v>1.53364524926021</v>
+        <v>4.3021393116323735E-5</v>
       </c>
       <c r="J5">
-        <v>1.53364524926021</v>
+        <v>4.296539105666608E-5</v>
       </c>
       <c r="K5">
-        <v>0.84436648554775628</v>
+        <v>4.2718969374772537E-5</v>
       </c>
       <c r="L5">
-        <v>0.4446663740458599</v>
+        <v>4.1965359690168494E-5</v>
       </c>
       <c r="M5">
-        <v>7.6947729527731008</v>
+        <v>4.0477188285110802E-5</v>
       </c>
       <c r="N5">
-        <v>7.7709005184920441</v>
+        <v>3.8030401285786555E-5</v>
       </c>
       <c r="O5">
-        <v>7.4854993449328608</v>
+        <v>3.5145667793156001E-5</v>
       </c>
       <c r="P5">
-        <v>6.7460893396712791</v>
+        <v>3.2039211579118899E-5</v>
       </c>
       <c r="Q5">
-        <v>5.8198893593163641</v>
+        <v>3.2079208996679096E-5</v>
       </c>
       <c r="R5">
-        <v>5.634739615663598</v>
+        <v>3.1975942438475836E-5</v>
       </c>
       <c r="S5">
-        <v>5.4482553176997586</v>
+        <v>3.1407039370779212E-5</v>
       </c>
       <c r="T5">
-        <v>4.9183052558752598</v>
+        <v>3.0575369826000252E-5</v>
       </c>
       <c r="U5">
-        <v>4.7681406376119622</v>
+        <v>3.0055446798113125E-5</v>
       </c>
       <c r="V5">
-        <v>4.2622627454673498</v>
+        <v>2.880773995883749E-5</v>
       </c>
       <c r="W5">
-        <v>3.404288168741</v>
-      </c>
-      <c r="X5">
-        <v>2.786094748011497</v>
-      </c>
-      <c r="Y5">
-        <v>2.261204658998011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.6949569027775158E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>4.8358183535231856</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>4.8914431748589076</v>
-      </c>
-      <c r="F6">
-        <v>4.876942127931879</v>
-      </c>
-      <c r="G6">
-        <v>4.8875704449314341</v>
-      </c>
-      <c r="H6">
-        <v>4.8799243741034486</v>
-      </c>
-      <c r="I6">
-        <v>4.9148866719261157</v>
-      </c>
-      <c r="J6">
-        <v>4.8413949377268573</v>
-      </c>
-      <c r="K6">
-        <v>3.965626238192629</v>
-      </c>
-      <c r="L6">
-        <v>1.4703652800338409</v>
-      </c>
-      <c r="M6">
-        <v>0.55005688888415183</v>
-      </c>
-      <c r="N6">
-        <v>0.50193337932043947</v>
-      </c>
-      <c r="O6">
-        <v>0.56691062108618662</v>
-      </c>
-      <c r="P6">
-        <v>0.56443596961234388</v>
-      </c>
-      <c r="Q6">
-        <v>0.59382381357615155</v>
-      </c>
-      <c r="R6">
-        <v>0.59755681302443053</v>
-      </c>
-      <c r="S6">
-        <v>0.60121452130665387</v>
-      </c>
-      <c r="T6">
-        <v>0.64778099652126087</v>
-      </c>
-      <c r="U6">
-        <v>0.6608119842494059</v>
-      </c>
-      <c r="V6">
-        <v>0.69788461439823257</v>
-      </c>
-      <c r="W6">
-        <v>0.68659748669449117</v>
-      </c>
-      <c r="X6">
-        <v>0.6720090369581454</v>
-      </c>
-      <c r="Y6">
-        <v>0.61561438796145174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4.4016075304532941E-5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4.4016075304532941E-5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4.4016075304532941E-5</v>
       </c>
       <c r="F7">
-        <v>5.9112214830153036</v>
+        <v>4.4016075304532941E-5</v>
       </c>
       <c r="G7">
-        <v>5.7060105895598339</v>
+        <v>4.4016075304532941E-5</v>
       </c>
       <c r="H7">
-        <v>5.4733444794005237</v>
+        <v>1.0932278673121987E-6</v>
       </c>
       <c r="I7">
-        <v>5.3346674878276508</v>
+        <v>9.9468218820920587E-7</v>
       </c>
       <c r="J7">
-        <v>5.1239064579127964</v>
+        <v>1.0506842478668633E-6</v>
       </c>
       <c r="K7">
-        <v>4.8009975263997013</v>
+        <v>1.2971059297604057E-6</v>
       </c>
       <c r="L7">
-        <v>4.3114052196164989</v>
+        <v>2.0507156143644429E-6</v>
       </c>
       <c r="M7">
-        <v>3.6374168971802008</v>
+        <v>3.5388870194221326E-6</v>
       </c>
       <c r="N7">
-        <v>3.179905705917347</v>
+        <v>5.9856740187463856E-6</v>
       </c>
       <c r="O7">
-        <v>2.8749196813436662</v>
+        <v>8.8704075113769344E-6</v>
       </c>
       <c r="P7">
-        <v>2.8606729521203298</v>
+        <v>1.197686372541404E-5</v>
       </c>
       <c r="Q7">
-        <v>2.9943116467863971</v>
+        <v>1.1936866307853845E-5</v>
       </c>
       <c r="R7">
-        <v>3.0010475073307261</v>
+        <v>1.20401328660571E-5</v>
       </c>
       <c r="S7">
-        <v>3.0602861615583148</v>
+        <v>1.260903593375373E-5</v>
       </c>
       <c r="T7">
-        <v>3.1220146735808192</v>
+        <v>1.3440705478532692E-5</v>
       </c>
       <c r="U7">
-        <v>3.067789035230736</v>
+        <v>1.3960628506419816E-5</v>
       </c>
       <c r="V7">
-        <v>2.9538756578904599</v>
+        <v>1.5208335345695449E-5</v>
       </c>
       <c r="W7">
-        <v>2.8599027417876481</v>
-      </c>
-      <c r="X7">
-        <v>2.7511882000816761</v>
-      </c>
-      <c r="Y7">
-        <v>2.6436804484435168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.7066506276757786E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>3.78814948824055</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>3.7916867555281799</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3.5820549402861359</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3.3432690612413341</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3.3439095093623541</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>3.3435352577411348</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3.3448552176148878</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3.3429247681252732</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>3.349368151753465</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.1315422582232251</v>
+        <v>2.4946948536467258E-5</v>
       </c>
       <c r="M8">
-        <v>2.981583761149472</v>
+        <v>1.6054860267555541E-5</v>
       </c>
       <c r="N8">
-        <v>3.00419453792016</v>
+        <v>1.2325053208125107E-5</v>
       </c>
       <c r="O8">
-        <v>2.7478857685871612</v>
+        <v>1.0575257024352898E-5</v>
       </c>
       <c r="P8">
-        <v>2.5478097366733681</v>
+        <v>9.7824316316062543E-6</v>
       </c>
       <c r="Q8">
-        <v>2.5473624107989901</v>
+        <v>1.0658941095185274E-5</v>
       </c>
       <c r="R8">
-        <v>2.514268788172243</v>
+        <v>1.1905843486726866E-5</v>
       </c>
       <c r="S8">
-        <v>2.5232929772405792</v>
+        <v>1.2328470013607463E-5</v>
       </c>
       <c r="T8">
-        <v>2.557188034204247</v>
+        <v>1.2795508081877064E-5</v>
       </c>
       <c r="U8">
-        <v>2.4036223156438878</v>
+        <v>1.2488147331158203E-5</v>
       </c>
       <c r="V8">
-        <v>2.373739628946685</v>
+        <v>1.1689423727129646E-5</v>
       </c>
       <c r="W8">
-        <v>2.3325814899324619</v>
-      </c>
-      <c r="X8">
-        <v>2.0883320528039748</v>
-      </c>
-      <c r="Y8">
-        <v>1.821433256405139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.0130418137029248E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1.626992121049333</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>4.8809763631479983</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.8809763631479983</v>
+        <v>1.385941585359292E-6</v>
       </c>
       <c r="M9">
-        <v>4.8809763631479983</v>
+        <v>4.4091964256808715E-6</v>
       </c>
       <c r="N9">
-        <v>4.8809763631479983</v>
+        <v>2.7757856222310413E-6</v>
       </c>
       <c r="O9">
-        <v>4.8809763631479983</v>
+        <v>4.0867967606029567E-6</v>
       </c>
       <c r="P9">
-        <v>4.8809763631479983</v>
+        <v>6.5231573218578599E-6</v>
       </c>
       <c r="Q9">
-        <v>4.8809763631479983</v>
+        <v>6.1578225412756077E-6</v>
       </c>
       <c r="R9">
-        <v>4.8809763631479983</v>
+        <v>5.7693871656908258E-6</v>
       </c>
       <c r="S9">
-        <v>4.7284458517996244</v>
+        <v>5.4146129401154639E-6</v>
       </c>
       <c r="T9">
-        <v>4.6569413403596878</v>
+        <v>5.9006517135015034E-6</v>
       </c>
       <c r="U9">
-        <v>4.4255708469607482</v>
+        <v>6.9890013780181757E-6</v>
       </c>
       <c r="V9">
-        <v>3.5327268226174242</v>
+        <v>7.8782056358536242E-6</v>
       </c>
       <c r="W9">
-        <v>2.9490336918785438</v>
-      </c>
-      <c r="X9">
-        <v>2.170024805147611</v>
-      </c>
-      <c r="Y9">
-        <v>1.8449623573621621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+        <v>9.5039112955048949E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4.8809763631479983</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4.8629653802581538</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4.8640285285537344</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="F10">
-        <v>4.8678554589459884</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="G10">
-        <v>4.8706133560075564</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="H10">
-        <v>4.8710556794830628</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="I10">
-        <v>4.8486091458857441</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="J10">
-        <v>4.8295976645885466</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="K10">
-        <v>4.8243306026472466</v>
+        <v>4.3050810495223002E-5</v>
       </c>
       <c r="L10">
-        <v>4.6964858843437192</v>
+        <v>1.6717920373396459E-5</v>
       </c>
       <c r="M10">
-        <v>4.2236715462440682</v>
+        <v>2.2586753801986597E-5</v>
       </c>
       <c r="N10">
-        <v>3.5545298559337111</v>
+        <v>2.7949971664866859E-5</v>
       </c>
       <c r="O10">
-        <v>2.6015054924288359</v>
+        <v>2.8388756710267153E-5</v>
       </c>
       <c r="P10">
-        <v>2.0122347859924181</v>
+        <v>2.6745221541758888E-5</v>
       </c>
       <c r="Q10">
-        <v>2.11075016316282</v>
+        <v>2.6234046858762123E-5</v>
       </c>
       <c r="R10">
-        <v>2.1738278115745402</v>
+        <v>2.5375579842805315E-5</v>
       </c>
       <c r="S10">
-        <v>2.325676312959541</v>
+        <v>2.5307727541500078E-5</v>
       </c>
       <c r="T10">
-        <v>2.4491076591778511</v>
+        <v>2.4354650699844438E-5</v>
       </c>
       <c r="U10">
-        <v>2.5404574528683681</v>
+        <v>2.3573661786046627E-5</v>
       </c>
       <c r="V10">
-        <v>2.727444357947761</v>
+        <v>2.348318113223974E-5</v>
       </c>
       <c r="W10">
-        <v>2.7144669758662818</v>
-      </c>
-      <c r="X10">
-        <v>2.5421124218429578</v>
-      </c>
-      <c r="Y10">
-        <v>2.2652019397276568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.3416481062688868E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>4.1625224166252242</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4.0686309335434521</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>4.09584585617585</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4.1426060414260606</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>4.1778070766617921</v>
+        <v>6.1733237691263183E-5</v>
       </c>
       <c r="H11">
-        <v>4.1778070766617921</v>
+        <v>1.1338757943293235E-5</v>
       </c>
       <c r="I11">
-        <v>4.1408551512986609</v>
+        <v>1.1338757943293235E-5</v>
       </c>
       <c r="J11">
-        <v>4.1910980853892417</v>
+        <v>1.1338757943293235E-5</v>
       </c>
       <c r="K11">
-        <v>4.2051621729241049</v>
+        <v>6.2426869575434678E-6</v>
       </c>
       <c r="L11">
-        <v>4.2097749930781427</v>
+        <v>3.287568871132359E-6</v>
       </c>
       <c r="M11">
-        <v>4.1818530160832363</v>
+        <v>5.6890058494414288E-5</v>
       </c>
       <c r="N11">
-        <v>4.1837923318864672</v>
+        <v>5.7452895330974526E-5</v>
       </c>
       <c r="O11">
-        <v>4.2112987468299696</v>
+        <v>5.5342827943956293E-5</v>
       </c>
       <c r="P11">
-        <v>4.2730233579714616</v>
+        <v>4.9876119737117419E-5</v>
       </c>
       <c r="Q11">
-        <v>4.2765264953514732</v>
+        <v>4.3028410079754871E-5</v>
       </c>
       <c r="R11">
-        <v>4.2902834301337549</v>
+        <v>4.1659535414929876E-5</v>
       </c>
       <c r="S11">
-        <v>4.2633211285122634</v>
+        <v>4.0280793938791955E-5</v>
       </c>
       <c r="T11">
-        <v>4.0627719165684528</v>
+        <v>3.6362693924489527E-5</v>
       </c>
       <c r="U11">
-        <v>3.954290823930803</v>
+        <v>3.525247612219404E-5</v>
       </c>
       <c r="V11">
-        <v>3.8658113425288239</v>
+        <v>3.151234979854908E-5</v>
       </c>
       <c r="W11">
-        <v>3.791655369355948</v>
-      </c>
-      <c r="X11">
-        <v>3.7889794947067421</v>
-      </c>
-      <c r="Y11">
-        <v>3.8723388512135322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.5169053621227595E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1354,972 +1230,894 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.462850488494424</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>3.1805073981307328</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>3.0383360092793059</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.022092336530199</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>2.9559333170908499</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>3.0045344834824879</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3.056401943397911</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>3.040621104057331</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>3.0279462249713092</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>2.9804041117927049</v>
-      </c>
-      <c r="X12">
-        <v>2.801078110133548</v>
-      </c>
-      <c r="Y12">
-        <v>2.666975585000444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>1.7989506379082061</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1.7989506379082061</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.7989506379082061</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.7989506379082061</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1.7989506379082061</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>5.3968519137246167</v>
+        <v>5.0394479747969946E-5</v>
       </c>
       <c r="I13">
-        <v>5.3968519137246167</v>
+        <v>5.0394479747969946E-5</v>
       </c>
       <c r="J13">
-        <v>5.3968519137246167</v>
+        <v>5.0394479747969946E-5</v>
       </c>
       <c r="K13">
-        <v>5.3968519137246167</v>
+        <v>5.5490550733719716E-5</v>
       </c>
       <c r="L13">
-        <v>5.3968519137246167</v>
+        <v>5.8445668820130829E-5</v>
       </c>
       <c r="M13">
-        <v>5.3968519137246167</v>
+        <v>4.8431791968488913E-6</v>
       </c>
       <c r="N13">
-        <v>5.3968519137246167</v>
+        <v>4.2803423602886585E-6</v>
       </c>
       <c r="O13">
-        <v>5.2795290460349511</v>
+        <v>6.3904097473068899E-6</v>
       </c>
       <c r="P13">
-        <v>5.0212468354800457</v>
+        <v>1.1857117954145761E-5</v>
       </c>
       <c r="Q13">
-        <v>4.9180989213780784</v>
+        <v>1.8704827611508312E-5</v>
       </c>
       <c r="R13">
-        <v>4.8430315584733572</v>
+        <v>2.0073702276333307E-5</v>
       </c>
       <c r="S13">
-        <v>4.8379351787843179</v>
+        <v>2.1452443752471225E-5</v>
       </c>
       <c r="T13">
-        <v>4.887794981129935</v>
+        <v>2.5370543766773653E-5</v>
       </c>
       <c r="U13">
-        <v>4.838186967915509</v>
+        <v>2.648076156906913E-5</v>
       </c>
       <c r="V13">
-        <v>4.7708731935989883</v>
+        <v>3.0220887892714107E-5</v>
       </c>
       <c r="W13">
-        <v>4.7532396553830898</v>
-      </c>
-      <c r="X13">
-        <v>4.7335168446985634</v>
-      </c>
-      <c r="Y13">
-        <v>4.4057847246710429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.6564184070035592E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1.8751773598534689</v>
+        <v>3.5752840361735432E-5</v>
       </c>
       <c r="D14">
-        <v>5.625532079560406</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>5.625532079560406</v>
+        <v>3.6164093475888727E-5</v>
       </c>
       <c r="F14">
-        <v>5.625532079560406</v>
+        <v>3.6056882332301753E-5</v>
       </c>
       <c r="G14">
-        <v>5.625532079560406</v>
+        <v>3.6135461073937533E-5</v>
       </c>
       <c r="H14">
-        <v>5.625532079560406</v>
+        <v>3.6078931086720713E-5</v>
       </c>
       <c r="I14">
-        <v>5.625532079560406</v>
+        <v>3.6337419177329533E-5</v>
       </c>
       <c r="J14">
-        <v>5.625532079560406</v>
+        <v>3.5794069934523738E-5</v>
       </c>
       <c r="K14">
-        <v>5.5838614715636634</v>
+        <v>2.9319215790045834E-5</v>
       </c>
       <c r="L14">
-        <v>5.5979559419155018</v>
+        <v>1.0870907732129372E-5</v>
       </c>
       <c r="M14">
-        <v>5.5873928790210128</v>
+        <v>4.0667565860533161E-6</v>
       </c>
       <c r="N14">
-        <v>5.5583615472671468</v>
+        <v>3.7109632064644564E-6</v>
       </c>
       <c r="O14">
-        <v>5.4252163972021714</v>
+        <v>4.1913619274594475E-6</v>
       </c>
       <c r="P14">
-        <v>5.0846155334488294</v>
+        <v>4.1730659922883556E-6</v>
       </c>
       <c r="Q14">
-        <v>4.4277513257784058</v>
+        <v>4.3903402604684482E-6</v>
       </c>
       <c r="R14">
-        <v>3.694211684980786</v>
+        <v>4.4179395877358847E-6</v>
       </c>
       <c r="S14">
-        <v>3.2815603797435702</v>
+        <v>4.4449822619523078E-6</v>
       </c>
       <c r="T14">
-        <v>2.7500743747033778</v>
+        <v>4.7892639600734926E-6</v>
       </c>
       <c r="U14">
-        <v>1.750993428737345</v>
+        <v>4.8856064588897825E-6</v>
       </c>
       <c r="V14">
-        <v>1.0545832046999479</v>
+        <v>5.1312037521363327E-6</v>
       </c>
       <c r="W14">
-        <v>0.74044289392746976</v>
-      </c>
-      <c r="X14">
-        <v>0.55366719130545916</v>
-      </c>
-      <c r="Y14">
-        <v>0.39979653296283651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+        <v>5.0061103783862203E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.4551193650209928</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>4.4533612251303074</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>4.4533417437121887</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>4.4533460081289498</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.4531545266931412</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>4.4528897945576444</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>4.452554989761369</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>4.4507669229777163</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>4.4463778558282314</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>4.4397381532576476</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>4.4300632835346594</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>4.4137145520918457</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>4.3920085266364071</v>
-      </c>
-      <c r="X15">
-        <v>4.3621951317124541</v>
-      </c>
-      <c r="Y15">
-        <v>4.2779462096127574</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>6.2147381192038376</v>
+        <v>1.2871022530224751E-6</v>
       </c>
       <c r="D16">
-        <v>6.3487985696672267</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="E16">
-        <v>6.3606251932083548</v>
+        <v>8.7584913886917989E-7</v>
       </c>
       <c r="F16">
-        <v>6.3510933161381899</v>
+        <v>9.8306028245615168E-7</v>
       </c>
       <c r="G16">
-        <v>6.3649489874032863</v>
+        <v>9.044815408203758E-7</v>
       </c>
       <c r="H16">
-        <v>6.4067974044785903</v>
+        <v>9.6101152803719712E-7</v>
       </c>
       <c r="I16">
-        <v>6.3888711839521664</v>
+        <v>7.0252343742837087E-7</v>
       </c>
       <c r="J16">
-        <v>6.2841942208225179</v>
+        <v>1.2458726802341699E-6</v>
       </c>
       <c r="K16">
-        <v>5.7518953926952756</v>
+        <v>7.7207268247120705E-6</v>
       </c>
       <c r="L16">
-        <v>5.1943340209548863</v>
+        <v>2.616903488262853E-5</v>
       </c>
       <c r="M16">
-        <v>4.0371744087345398</v>
+        <v>3.2973186028704584E-5</v>
       </c>
       <c r="N16">
-        <v>2.256666658958983</v>
+        <v>3.332897940829345E-5</v>
       </c>
       <c r="O16">
-        <v>2.129115696431461</v>
+        <v>3.2848580687298459E-5</v>
       </c>
       <c r="P16">
-        <v>2.0902052011703032</v>
+        <v>3.2866876622469547E-5</v>
       </c>
       <c r="Q16">
-        <v>2.0818659779680901</v>
+        <v>3.2649602354289459E-5</v>
       </c>
       <c r="R16">
-        <v>2.1312586753625791</v>
+        <v>3.2622003027022027E-5</v>
       </c>
       <c r="S16">
-        <v>2.1408454849845171</v>
+        <v>3.25949603528056E-5</v>
       </c>
       <c r="T16">
-        <v>2.164511592357977</v>
+        <v>3.2250678654684409E-5</v>
       </c>
       <c r="U16">
-        <v>2.2053679697626212</v>
+        <v>3.2154336155868126E-5</v>
       </c>
       <c r="V16">
-        <v>2.2141242102171779</v>
+        <v>3.1908738862621578E-5</v>
       </c>
       <c r="W16">
-        <v>2.1861229698921898</v>
-      </c>
-      <c r="X16">
-        <v>2.1947343427398041</v>
-      </c>
-      <c r="Y16">
-        <v>2.1252189700554092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.2033832236371685E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>4.775631549554876</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4.775631549554876</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4.775631549554876</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>4.775631549554876</v>
+        <v>4.3703659355015057E-5</v>
       </c>
       <c r="G17">
-        <v>4.775631549554876</v>
+        <v>4.2186465825845967E-5</v>
       </c>
       <c r="H17">
-        <v>4.775631549554876</v>
+        <v>4.0466286595364474E-5</v>
       </c>
       <c r="I17">
-        <v>4.775631549554876</v>
+        <v>3.9441000701832436E-5</v>
       </c>
       <c r="J17">
-        <v>4.775631549554876</v>
+        <v>3.7882773136992077E-5</v>
       </c>
       <c r="K17">
-        <v>4.775631549554876</v>
+        <v>3.5495398211845217E-5</v>
       </c>
       <c r="L17">
-        <v>4.775631549554876</v>
+        <v>3.1875676727889826E-5</v>
       </c>
       <c r="M17">
-        <v>4.775631549554876</v>
+        <v>2.6892653145090715E-5</v>
       </c>
       <c r="N17">
-        <v>4.775631549554876</v>
+        <v>2.3510118196686186E-5</v>
       </c>
       <c r="O17">
-        <v>4.775631549554876</v>
+        <v>2.1255253383329661E-5</v>
       </c>
       <c r="P17">
-        <v>4.775631549554876</v>
+        <v>2.1149922496525834E-5</v>
       </c>
       <c r="Q17">
-        <v>4.775631549554876</v>
+        <v>2.2137958557281837E-5</v>
       </c>
       <c r="R17">
-        <v>4.775631549554876</v>
+        <v>2.2187759052076032E-5</v>
       </c>
       <c r="S17">
-        <v>4.7289542244016376</v>
+        <v>2.262573045484801E-5</v>
       </c>
       <c r="T17">
-        <v>4.7332742544948747</v>
+        <v>2.3082110218264915E-5</v>
       </c>
       <c r="U17">
-        <v>4.6587050377093826</v>
+        <v>2.2681201737070359E-5</v>
       </c>
       <c r="V17">
-        <v>4.5820834805189854</v>
+        <v>2.1839001617591978E-5</v>
       </c>
       <c r="W17">
-        <v>4.4830399583519913</v>
-      </c>
-      <c r="X17">
-        <v>4.3702207510988806</v>
-      </c>
-      <c r="Y17">
-        <v>2.0143457631232038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.1144228071082971E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>1.695562670212331</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1.695562670212331</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1.695562670212331</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.695562670212331</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>5.0866880106369949</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>5.0866880106369949</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.0866880106369949</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.0866880106369949</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>5.0866880106369949</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.0866880106369949</v>
+        <v>4.341552264762984E-8</v>
       </c>
       <c r="M18">
-        <v>5.0866880106369949</v>
+        <v>8.0207741550432727E-8</v>
       </c>
       <c r="N18">
-        <v>5.0866880106369949</v>
+        <v>1.5495380104392805E-7</v>
       </c>
       <c r="O18">
-        <v>4.9604227054084173</v>
+        <v>1.8548428598001855E-7</v>
       </c>
       <c r="P18">
-        <v>4.0898730690712437</v>
+        <v>3.2588676114638372E-7</v>
       </c>
       <c r="Q18">
-        <v>4.1035466304298449</v>
+        <v>5.8493170669692042E-7</v>
       </c>
       <c r="R18">
-        <v>4.3916751933420386</v>
+        <v>1.7638669387114224E-6</v>
       </c>
       <c r="S18">
-        <v>4.4717170939796729</v>
+        <v>2.0745540898025512E-6</v>
       </c>
       <c r="T18">
-        <v>4.4527248614872867</v>
+        <v>2.4869830557647413E-6</v>
       </c>
       <c r="U18">
-        <v>4.4084629425520623</v>
+        <v>2.7710006632221909E-6</v>
       </c>
       <c r="V18">
-        <v>4.2641937169233213</v>
+        <v>3.1021425765865222E-6</v>
       </c>
       <c r="W18">
-        <v>3.9017209172499681</v>
-      </c>
-      <c r="X18">
-        <v>3.685926193452941</v>
-      </c>
-      <c r="Y18">
-        <v>3.1699649921360979</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.025877604835577E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>6.6381278538812776</v>
+        <v>4.5025618316104795E-5</v>
       </c>
       <c r="D19">
-        <v>6.5625872808641361</v>
+        <v>4.5025618316104795E-5</v>
       </c>
       <c r="E19">
-        <v>5.9555913747466436</v>
+        <v>4.5025618316104795E-5</v>
       </c>
       <c r="F19">
-        <v>3.9250539660965158</v>
+        <v>1.3219589610897399E-6</v>
       </c>
       <c r="G19">
-        <v>3.9628241408880549</v>
+        <v>2.8391524902588335E-6</v>
       </c>
       <c r="H19">
-        <v>3.9613334148463069</v>
+        <v>4.5593317207403199E-6</v>
       </c>
       <c r="I19">
-        <v>3.953694144659305</v>
+        <v>5.5846176142723571E-6</v>
       </c>
       <c r="J19">
-        <v>3.9377003450463439</v>
+        <v>7.1428451791127207E-6</v>
       </c>
       <c r="K19">
-        <v>4.2218127191385957</v>
+        <v>9.5302201042595749E-6</v>
       </c>
       <c r="L19">
-        <v>4.1129624426966567</v>
+        <v>1.3106526065567338E-5</v>
       </c>
       <c r="M19">
-        <v>3.9665666821540162</v>
+        <v>1.8052757429463648E-5</v>
       </c>
       <c r="N19">
-        <v>3.4694859783053968</v>
+        <v>2.1360546318374676E-5</v>
       </c>
       <c r="O19">
-        <v>2.9115594207693829</v>
+        <v>2.3584880646795118E-5</v>
       </c>
       <c r="P19">
-        <v>2.5248590352227169</v>
+        <v>2.3549809058432572E-5</v>
       </c>
       <c r="Q19">
-        <v>2.3014806432990129</v>
+        <v>2.2302728052126041E-5</v>
       </c>
       <c r="R19">
-        <v>2.3517639549415339</v>
+        <v>2.1073992325317339E-5</v>
       </c>
       <c r="S19">
-        <v>3.288811934858503</v>
+        <v>2.0325333771454234E-5</v>
       </c>
       <c r="T19">
-        <v>3.2064313746432189</v>
+        <v>1.9456525042075136E-5</v>
       </c>
       <c r="U19">
-        <v>3.217862575733816</v>
+        <v>1.9573415915812245E-5</v>
       </c>
       <c r="V19">
-        <v>3.050174039149848</v>
+        <v>2.0084474121926296E-5</v>
       </c>
       <c r="W19">
-        <v>2.987545783760845</v>
-      </c>
-      <c r="X19">
-        <v>2.1898495349306151</v>
-      </c>
-      <c r="Y19">
-        <v>2.277139209643809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.0855512640186244E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.763114967830353</v>
+        <v>2.8007070162339742E-5</v>
       </c>
       <c r="D20">
-        <v>1.763114967830353</v>
+        <v>2.8033222375554966E-5</v>
       </c>
       <c r="E20">
-        <v>1.763114967830353</v>
+        <v>2.6483343476644486E-5</v>
       </c>
       <c r="F20">
-        <v>1.763114967830353</v>
+        <v>2.4717918725339353E-5</v>
       </c>
       <c r="G20">
-        <v>1.763114967830353</v>
+        <v>2.4722653774871166E-5</v>
       </c>
       <c r="H20">
-        <v>1.763114967830353</v>
+        <v>2.4719886806079052E-5</v>
       </c>
       <c r="I20">
-        <v>1.763114967830353</v>
+        <v>2.4729645715781646E-5</v>
       </c>
       <c r="J20">
-        <v>1.763114967830353</v>
+        <v>2.4715373249906595E-5</v>
       </c>
       <c r="K20">
-        <v>1.763114967830353</v>
+        <v>2.4763011363956173E-5</v>
       </c>
       <c r="L20">
-        <v>1.763114967830353</v>
+        <v>2.3152550873362037E-5</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>2.2043856994722551E-5</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.221102611341954E-5</v>
       </c>
       <c r="O20">
-        <v>3.3476866477791509E-2</v>
+        <v>2.0316048708695643E-5</v>
       </c>
       <c r="P20">
-        <v>1.849421294926944E-2</v>
+        <v>1.8836818947302368E-5</v>
       </c>
       <c r="Q20">
-        <v>9.6697347412999235E-3</v>
+        <v>1.8833511715845943E-5</v>
       </c>
       <c r="R20">
-        <v>7.061875705595539E-3</v>
+        <v>1.8588839372869383E-5</v>
       </c>
       <c r="S20">
-        <v>5.6449785522850156E-3</v>
+        <v>1.8655558254259799E-5</v>
       </c>
       <c r="T20">
-        <v>4.7284132407418534E-3</v>
+        <v>1.890615587230123E-5</v>
       </c>
       <c r="U20">
-        <v>4.0073830619676166E-3</v>
+        <v>1.7770792585397871E-5</v>
       </c>
       <c r="V20">
-        <v>3.4061736677835608E-3</v>
+        <v>1.75498597775544E-5</v>
       </c>
       <c r="W20">
-        <v>2.813436436381898E-3</v>
-      </c>
-      <c r="X20">
-        <v>2.5729764626147688E-3</v>
-      </c>
-      <c r="Y20">
-        <v>2.376624821277722E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.7258701760338197E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>4.9240676247675603</v>
+        <v>1.7962776951025636E-3</v>
       </c>
       <c r="D21">
-        <v>4.8573861164856913</v>
+        <v>1.7192409404690808E-3</v>
       </c>
       <c r="E21">
-        <v>4.8785208751374904</v>
+        <v>2.1137624033103597E-6</v>
       </c>
       <c r="F21">
-        <v>4.8221684749380378</v>
+        <v>3.8806136739736446E-6</v>
       </c>
       <c r="G21">
-        <v>4.8420610299727729</v>
+        <v>3.8759008886925929E-6</v>
       </c>
       <c r="H21">
-        <v>4.8645822440656694</v>
+        <v>3.8695574979325338E-6</v>
       </c>
       <c r="I21">
-        <v>4.5618016835936972</v>
+        <v>3.85986725652854E-6</v>
       </c>
       <c r="J21">
-        <v>4.6119774117857757</v>
+        <v>3.8740392945916408E-6</v>
       </c>
       <c r="K21">
-        <v>4.4086194571115218</v>
+        <v>3.8267363848158968E-6</v>
       </c>
       <c r="L21">
-        <v>4.4103634669480876</v>
+        <v>5.4232817890383894E-6</v>
       </c>
       <c r="M21">
-        <v>4.3747966481914888</v>
+        <v>6.5204152084489922E-6</v>
       </c>
       <c r="N21">
-        <v>4.2922784506461786</v>
+        <v>6.2832669778487732E-6</v>
       </c>
       <c r="O21">
-        <v>4.107844610969976</v>
+        <v>5.7801924396910691E-6</v>
       </c>
       <c r="P21">
-        <v>3.7443276329737798</v>
+        <v>6.7484204544437397E-6</v>
       </c>
       <c r="Q21">
-        <v>3.4510328904100951</v>
+        <v>6.6212995152689064E-6</v>
       </c>
       <c r="R21">
-        <v>3.1264971554993162</v>
+        <v>6.2080572153682919E-6</v>
       </c>
       <c r="S21">
-        <v>2.6161202540363622</v>
+        <v>5.9666830357920541E-6</v>
       </c>
       <c r="T21">
-        <v>2.311760313466892</v>
+        <v>5.6550904574996748E-6</v>
       </c>
       <c r="U21">
-        <v>1.9343956484552649</v>
+        <v>6.8352602817015235E-6</v>
       </c>
       <c r="V21">
-        <v>1.5262879546912551</v>
+        <v>6.7688301811839201E-6</v>
       </c>
       <c r="W21">
-        <v>1.195273670563588</v>
-      </c>
-      <c r="X21">
-        <v>1.174497835187664</v>
-      </c>
-      <c r="Y21">
-        <v>1.1053857301439649</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+        <v>6.4284060743249853E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>5.0099078142500204</v>
+        <v>1.1968500944349725E-8</v>
       </c>
       <c r="D22">
-        <v>5.0099078142500204</v>
+        <v>1.1455209222755515E-8</v>
       </c>
       <c r="E22">
-        <v>5.0099078142500204</v>
+        <v>1.9759405499512592E-8</v>
       </c>
       <c r="F22">
-        <v>5.0099078142500204</v>
+        <v>1.8332886141365983E-8</v>
       </c>
       <c r="G22">
-        <v>5.0099078142500204</v>
+        <v>1.8310621890599236E-8</v>
       </c>
       <c r="H22">
-        <v>5.0099078142500204</v>
+        <v>2.7420981442772175E-8</v>
       </c>
       <c r="I22">
-        <v>5.0099078142500204</v>
+        <v>2.7352313144172955E-8</v>
       </c>
       <c r="J22">
-        <v>5.0099078142500204</v>
+        <v>2.7452740956123589E-8</v>
       </c>
       <c r="K22">
-        <v>5.0099078142500204</v>
+        <v>2.7117536682290518E-8</v>
       </c>
       <c r="L22">
-        <v>5.0099078142500204</v>
+        <v>4.1032623053933496E-8</v>
       </c>
       <c r="M22">
-        <v>5.0099078142500204</v>
+        <v>5.2593082282817246E-8</v>
       </c>
       <c r="N22">
-        <v>5.0068202750803881</v>
+        <v>1.2257219418604526E-7</v>
       </c>
       <c r="O22">
-        <v>5.0073689766253677</v>
+        <v>2.5206241370676464E-6</v>
       </c>
       <c r="P22">
-        <v>5.006413982619689</v>
+        <v>3.0316258837082533E-6</v>
       </c>
       <c r="Q22">
-        <v>4.9746984651031099</v>
+        <v>3.1620540543395041E-6</v>
       </c>
       <c r="R22">
-        <v>4.9017826748021793</v>
+        <v>3.8199686972166813E-6</v>
       </c>
       <c r="S22">
-        <v>4.8518270655897657</v>
+        <v>3.9946239954025064E-6</v>
       </c>
       <c r="T22">
-        <v>4.7720327106684053</v>
+        <v>4.0556189556534504E-6</v>
       </c>
       <c r="U22">
-        <v>4.5649925284732307</v>
+        <v>4.0108124183549633E-6</v>
       </c>
       <c r="V22">
-        <v>3.9645608188162722</v>
+        <v>4.2981753267160362E-6</v>
       </c>
       <c r="W22">
-        <v>3.0774403975710052</v>
-      </c>
-      <c r="X22">
-        <v>2.4268979452850661</v>
-      </c>
-      <c r="Y22">
-        <v>2.009383175749154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+        <v>4.9297574507911764E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>4.8406660681088223</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>4.860106494085163</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>4.8733381976292689</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>4.8626985508820084</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>4.8813333375836532</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4.8897960001728569</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>4.8902599339011967</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.8461443364626042</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>4.7998651740844034</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="L23">
-        <v>4.735260654728819</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="M23">
-        <v>4.7319480828396072</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="N23">
-        <v>4.7066439435648073</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="O23">
-        <v>4.6461120232004847</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="P23">
-        <v>4.6014102148611276</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="Q23">
-        <v>4.5114589344459377</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="R23">
-        <v>4.490422801864896</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="S23">
-        <v>4.4532980038227494</v>
+        <v>3.4958999147545522E-5</v>
       </c>
       <c r="T23">
-        <v>4.4014421642979524</v>
+        <v>3.4430342114596093E-5</v>
       </c>
       <c r="U23">
-        <v>4.3390809070471636</v>
+        <v>3.2719741816948129E-5</v>
       </c>
       <c r="V23">
-        <v>4.1778897963340436</v>
+        <v>2.6118644021986632E-5</v>
       </c>
       <c r="W23">
-        <v>4.0130506346134993</v>
-      </c>
-      <c r="X23">
-        <v>3.7416561971123299</v>
-      </c>
-      <c r="Y23">
-        <v>3.3000362026635899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.1803203325512857E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>1.8211599050428751</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1.8211599050428751</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1.8211599050428751</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.4634797151286243</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.74501996115390334</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>3.2846571433639019E-2</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.1764416948422233E-2</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5.0775833783723273E-2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>3.057917751004827E-2</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>3.057917751004827E-2</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>3.057917751004827E-2</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>4.1078794850591162E-2</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>4.6008250232662098E-2</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>3.6791109192785353E-2</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>4.0545304008375693E-2</v>
-      </c>
-      <c r="X24">
-        <v>4.0395413790230122E-2</v>
-      </c>
-      <c r="Y24">
-        <v>3.9518840615758589E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2358,122 +2156,110 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.13361771042434131</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.1018039698471172</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.12770542235246779</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.11975695208156729</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>0.12229417564261751</v>
+        <v>1.127709649920823E-6</v>
       </c>
       <c r="T25">
-        <v>0.1269394961888185</v>
+        <v>1.6563666828702421E-6</v>
       </c>
       <c r="U25">
-        <v>0.1269394961888185</v>
+        <v>3.3669669805182107E-6</v>
       </c>
       <c r="V25">
-        <v>0.1129095480669596</v>
+        <v>9.9680647754797088E-6</v>
       </c>
       <c r="W25">
-        <v>8.5095872190477928E-2</v>
-      </c>
-      <c r="X25">
-        <v>6.8928940220798152E-2</v>
-      </c>
-      <c r="Y25">
-        <v>5.0861553921319053E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.4283505471953485E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>5.0832095409824003</v>
+        <v>3.6086708797466337E-5</v>
       </c>
       <c r="D26">
-        <v>5.0867855446953989</v>
+        <v>3.5953547510390818E-5</v>
       </c>
       <c r="E26">
-        <v>5.0885655026853067</v>
+        <v>3.5961407725252917E-5</v>
       </c>
       <c r="F26">
-        <v>5.0874257249905499</v>
+        <v>3.5989701515752725E-5</v>
       </c>
       <c r="G26">
-        <v>5.086071797395725</v>
+        <v>3.6010091581335833E-5</v>
       </c>
       <c r="H26">
-        <v>5.0796197866518424</v>
+        <v>3.6013361828365801E-5</v>
       </c>
       <c r="I26">
-        <v>5.0455608390144109</v>
+        <v>3.5847407014989777E-5</v>
       </c>
       <c r="J26">
-        <v>4.9379874410601348</v>
+        <v>3.5706848704861428E-5</v>
       </c>
       <c r="K26">
-        <v>4.2267002546540224</v>
+        <v>3.56679075348265E-5</v>
       </c>
       <c r="L26">
-        <v>4.2794236308266314</v>
+        <v>3.4722708300602371E-5</v>
       </c>
       <c r="M26">
-        <v>4.1767600868528767</v>
+        <v>3.1227032012740872E-5</v>
       </c>
       <c r="N26">
-        <v>4.0774638742060478</v>
+        <v>2.6279841220179751E-5</v>
       </c>
       <c r="O26">
-        <v>3.9637026118447709</v>
+        <v>1.9233809827290513E-5</v>
       </c>
       <c r="P26">
-        <v>3.913898615248752</v>
+        <v>1.4877132227578989E-5</v>
       </c>
       <c r="Q26">
-        <v>3.9116682865066048</v>
+        <v>1.5605489724833498E-5</v>
       </c>
       <c r="R26">
-        <v>3.911471994052897</v>
+        <v>1.6071844109798107E-5</v>
       </c>
       <c r="S26">
-        <v>3.912170210386559</v>
+        <v>1.7194511429432094E-5</v>
       </c>
       <c r="T26">
-        <v>3.9161984371732501</v>
+        <v>1.8107081111409948E-5</v>
       </c>
       <c r="U26">
-        <v>3.921937190543682</v>
+        <v>1.8780630021742444E-5</v>
       </c>
       <c r="V26">
-        <v>3.560348859511957</v>
+        <v>2.0164931005744027E-5</v>
       </c>
       <c r="W26">
-        <v>3.4882772577863612</v>
-      </c>
-      <c r="X26">
-        <v>3.244108671285352</v>
-      </c>
-      <c r="Y26">
-        <v>2.759216362815093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.0068958725897799E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2485,381 +2271,351 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>3.7388860712830669</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>3.7674672104585398</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>3.7860044793999679</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>3.7997605902659508</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>3.3180330351739311</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>3.4640201247334881</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>3.514221050201042</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>3.6338828381981272</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>3.7243460948301972</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>3.7701578992285238</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>3.7347613462668301</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>3.764135282776083</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>3.7621880751943801</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>3.7601311752985951</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>3.7157303150959549</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>3.6503695542916832</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>3.5869536889099169</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>3.5050943056221802</v>
-      </c>
-      <c r="X27">
-        <v>3.453800680310847</v>
-      </c>
-      <c r="Y27">
-        <v>3.359381996184208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>1.695562670212331</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1.695562670212331</v>
+        <v>1.3316128707552156E-7</v>
       </c>
       <c r="E28">
-        <v>1.695562670212331</v>
+        <v>1.2530107221342479E-7</v>
       </c>
       <c r="F28">
-        <v>1.695562670212331</v>
+        <v>9.70072817136192E-8</v>
       </c>
       <c r="G28">
-        <v>1.695562670212331</v>
+        <v>7.6617216130501777E-8</v>
       </c>
       <c r="H28">
-        <v>1.695562670212331</v>
+        <v>7.334696910054135E-8</v>
       </c>
       <c r="I28">
-        <v>1.695562670212331</v>
+        <v>2.3930178247656724E-7</v>
       </c>
       <c r="J28">
-        <v>1.695562670212331</v>
+        <v>3.7986009260490877E-7</v>
       </c>
       <c r="K28">
-        <v>1.695562670212331</v>
+        <v>4.1880126263984153E-7</v>
       </c>
       <c r="L28">
-        <v>1.695562670212331</v>
+        <v>1.3640004968639701E-6</v>
       </c>
       <c r="M28">
-        <v>1.695562670212331</v>
+        <v>4.8596767847254667E-6</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>9.8068675772865899E-6</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.6852898970175831E-5</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.120957656988735E-5</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.048121907263284E-5</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>2.0014864687668234E-5</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.8892197368034247E-5</v>
       </c>
       <c r="T28">
-        <v>3.4994658627723738</v>
+        <v>1.7979627686056389E-5</v>
       </c>
       <c r="U28">
-        <v>3.4910729792722091</v>
+        <v>1.7306078775723893E-5</v>
       </c>
       <c r="V28">
-        <v>3.4836094092680381</v>
+        <v>1.5921777791722313E-5</v>
       </c>
       <c r="W28">
-        <v>3.4865159475805378</v>
-      </c>
-      <c r="X28">
-        <v>3.4784686158784299</v>
-      </c>
-      <c r="Y28">
-        <v>1.695562670212331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.6017750071568542E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>1.8672652190945931</v>
+        <v>3.0774935819357438E-5</v>
       </c>
       <c r="D29">
-        <v>1.8672652190945931</v>
+        <v>3.008076433471028E-5</v>
       </c>
       <c r="E29">
-        <v>1.8672652190945931</v>
+        <v>3.0281973460694964E-5</v>
       </c>
       <c r="F29">
-        <v>1.8672652190945931</v>
+        <v>3.0627687322614103E-5</v>
       </c>
       <c r="G29">
-        <v>1.8672652190945931</v>
+        <v>3.0887940479648834E-5</v>
       </c>
       <c r="H29">
-        <v>1.8672652190945931</v>
+        <v>3.0887940479648834E-5</v>
       </c>
       <c r="I29">
-        <v>1.8672652190945931</v>
+        <v>3.0614742399823476E-5</v>
       </c>
       <c r="J29">
-        <v>1.8672652190945931</v>
+        <v>3.0986205401641358E-5</v>
       </c>
       <c r="K29">
-        <v>1.8672652190945931</v>
+        <v>3.1090185956680422E-5</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>3.1124290095944569E-5</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>3.0917853477961267E-5</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>3.0932191495491096E-5</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>3.1135555722702447E-5</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>3.1591906645586925E-5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>3.1617806524853785E-5</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>3.1719516195726638E-5</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3.1520174782301591E-5</v>
       </c>
       <c r="T29">
-        <v>2.2625981334067551</v>
+        <v>3.0037446640936435E-5</v>
       </c>
       <c r="U29">
-        <v>2.2605408502814579</v>
+        <v>2.9235409239238997E-5</v>
       </c>
       <c r="V29">
-        <v>2.2539124597566649</v>
+        <v>2.8581250513126095E-5</v>
       </c>
       <c r="W29">
-        <v>2.1835374204256328</v>
-      </c>
-      <c r="X29">
-        <v>1.993728836766866</v>
-      </c>
-      <c r="Y29">
-        <v>1.612342346844108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.8032990326970144E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>3.1698282722701067E-2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>2.4290588112313612E-2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>7.9753058034769592E-2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>6.2824784925337079E-2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>5.1201075286352052E-2</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>4.2556161341308373E-2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4.5032026432868827E-2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4.5585656531376667E-2</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>4.5205952879179223E-2</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>5.2073866369442133E-2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>5.7747434448396653E-2</v>
+        <v>3.6523401643200264E-7</v>
       </c>
       <c r="N30">
-        <v>4.6088891156483569E-2</v>
+        <v>3.6168805510742007E-7</v>
       </c>
       <c r="O30">
-        <v>4.604937144792056E-2</v>
+        <v>2.8116128057406996E-7</v>
       </c>
       <c r="P30">
-        <v>6.2443935016973533E-2</v>
+        <v>1.6339416524589589E-7</v>
       </c>
       <c r="Q30">
-        <v>6.7799629524594993E-2</v>
+        <v>2.183339779297756E-7</v>
       </c>
       <c r="R30">
-        <v>0.1070439552332924</v>
+        <v>1.3629851068414564E-7</v>
       </c>
       <c r="S30">
-        <v>0.12497567690861321</v>
+        <v>8.68435647875292E-8</v>
       </c>
       <c r="T30">
-        <v>0.1383939250314053</v>
+        <v>1.1077575056034491E-6</v>
       </c>
       <c r="U30">
-        <v>0.15550645874263791</v>
+        <v>1.0798223094511382E-6</v>
       </c>
       <c r="V30">
-        <v>0.16202119744077881</v>
+        <v>9.4365956013487339E-7</v>
       </c>
       <c r="W30">
-        <v>0.1777553167638885</v>
-      </c>
-      <c r="X30">
-        <v>0.1659548988666274</v>
-      </c>
-      <c r="Y30">
-        <v>0.15170631196030329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+        <v>8.143288077472428E-7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1.6197334641767074E-6</v>
+      </c>
+      <c r="D31">
+        <v>2.3139049488238676E-6</v>
+      </c>
+      <c r="E31">
+        <v>2.1126958228391835E-6</v>
+      </c>
+      <c r="F31">
+        <v>1.7669819609200442E-6</v>
+      </c>
+      <c r="G31">
+        <v>1.5067288038853092E-6</v>
+      </c>
+      <c r="H31">
+        <v>1.5067288038853092E-6</v>
+      </c>
+      <c r="I31">
+        <v>1.7799268837106675E-6</v>
+      </c>
+      <c r="J31">
+        <v>1.4084638818927889E-6</v>
+      </c>
+      <c r="K31">
+        <v>1.3044833268537239E-6</v>
+      </c>
+      <c r="L31">
+        <v>1.2703791875895745E-6</v>
+      </c>
+      <c r="M31">
+        <v>1.1115817891408777E-6</v>
+      </c>
+      <c r="N31">
+        <v>1.1007897329356264E-6</v>
+      </c>
+      <c r="O31">
+        <v>9.7795228025763471E-7</v>
+      </c>
+      <c r="P31">
+        <v>6.393684727013318E-7</v>
+      </c>
+      <c r="Q31">
+        <v>5.5852878075058875E-7</v>
+      </c>
+      <c r="R31">
+        <v>5.3885457712336645E-7</v>
+      </c>
+      <c r="S31">
+        <v>7.8765093644503217E-7</v>
+      </c>
+      <c r="T31">
+        <v>1.2494651369942617E-6</v>
+      </c>
+      <c r="U31">
+        <v>2.0794377348440076E-6</v>
+      </c>
+      <c r="V31">
+        <v>2.8697592102731767E-6</v>
+      </c>
+      <c r="W31">
+        <v>3.5473501488167555E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
       <c r="C32">
         <v>0</v>
       </c>
@@ -2888,66 +2644,60 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0.10424502690494231</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.33164226030862731</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0.20878358072848549</v>
+        <v>2.564300742293169E-5</v>
       </c>
       <c r="O32">
-        <v>0.30739263672043038</v>
+        <v>2.3547996680831532E-5</v>
       </c>
       <c r="P32">
-        <v>0.49064601113470357</v>
+        <v>2.2488699861031662E-5</v>
       </c>
       <c r="Q32">
-        <v>0.46316697851643129</v>
+        <v>2.2369635469071107E-5</v>
       </c>
       <c r="R32">
-        <v>0.43395041080072211</v>
+        <v>2.1877183960478985E-5</v>
       </c>
       <c r="S32">
-        <v>0.40726570122784639</v>
+        <v>2.2234300190731618E-5</v>
       </c>
       <c r="T32">
-        <v>0.44382360925492831</v>
+        <v>2.2615106069823527E-5</v>
       </c>
       <c r="U32">
-        <v>0.52568495266076398</v>
+        <v>2.246014087863589E-5</v>
       </c>
       <c r="V32">
-        <v>0.59256736874615423</v>
+        <v>2.2340950131869181E-5</v>
       </c>
       <c r="W32">
-        <v>0.71484649798227551</v>
-      </c>
-      <c r="X32">
-        <v>0.66819573343892824</v>
-      </c>
-      <c r="Y32">
-        <v>0.60731869439673314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.1938385972654918E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3000,96 +2750,84 @@
       <c r="W33">
         <v>0</v>
       </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1.1396935191826217E-5</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1.3491945933926376E-5</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.4551242753726248E-5</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.4670307145686799E-5</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.516275865427892E-5</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.480564242402629E-5</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.4424836544934382E-5</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.4579801736122021E-5</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1.4698992482888722E-5</v>
       </c>
       <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.5101556642102986E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3107,167 +2845,155 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="L35">
-        <v>3.005047612988736E-3</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="M35">
-        <v>5.551656817437938E-3</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="N35">
-        <v>1.072527800090893E-2</v>
+        <v>3.9900751190694494E-5</v>
       </c>
       <c r="O35">
-        <v>1.283847520056525E-2</v>
+        <v>3.9033343556114178E-5</v>
       </c>
       <c r="P35">
-        <v>2.255656903259769E-2</v>
+        <v>3.712377583310037E-5</v>
       </c>
       <c r="Q35">
-        <v>4.0486616808400162E-2</v>
+        <v>3.6361168423778043E-5</v>
       </c>
       <c r="R35">
-        <v>0.122087765171563</v>
+        <v>3.5806170025140183E-5</v>
       </c>
       <c r="S35">
-        <v>0.1435922784155983</v>
+        <v>3.5768490766713882E-5</v>
       </c>
       <c r="T35">
-        <v>0.17213895029954829</v>
+        <v>3.6137121145981914E-5</v>
       </c>
       <c r="U35">
-        <v>0.19179750515016869</v>
+        <v>3.5770352328905476E-5</v>
       </c>
       <c r="V35">
-        <v>0.21471781465311859</v>
+        <v>3.527267883264376E-5</v>
       </c>
       <c r="W35">
-        <v>0.2094390604809091</v>
-      </c>
-      <c r="X35">
-        <v>0.19661130720286621</v>
-      </c>
-      <c r="Y35">
-        <v>0.19003227205525741</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.5142308121678938E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>6.5258918232263388E-2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>6.2460166521872452E-2</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.23073888435964579</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.42360885422182132</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.42309440528646641</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0.42240195900927779</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0.42134416959679161</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.42289119316323459</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>0.41772759454329189</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0.59200692926080356</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>0.71177031458359374</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>0.6858831486131598</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>0.6309673938895155</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>0.73665942984393828</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>0.7227828732176993</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0.67767323028907434</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>0.65132475856802252</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0.61731122716197029</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>0.74613888923259286</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>0.7388873612191672</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>0.70255618901046402</v>
-      </c>
-      <c r="X36">
-        <v>0.82712587353137645</v>
-      </c>
-      <c r="Y36">
-        <v>0.70935621890686906</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0.996715893976168</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3282,119 +3008,107 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>8.6740763458031498E-7</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2.7769753575941226E-6</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>3.5395827669164472E-6</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>4.0945811655543076E-6</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>4.1322604239806104E-6</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>3.7636300447125762E-6</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>4.1303988617890174E-6</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>4.6280723580507361E-6</v>
       </c>
       <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+        <v>4.7584430690155561E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>4.1591460986910369E-5</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4.1283376090711035E-5</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>4.1387581276190222E-5</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>4.130948498021945E-5</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>4.109484652736517E-5</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>4.0110459408741457E-5</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3.7592282045861291E-5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>3.2735862834195006E-5</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>2.7312556216953117E-5</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>2.4261685575697717E-5</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>2.033222981380908E-5</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.2945686532349584E-5</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>7.7968902488520313E-6</v>
       </c>
       <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+        <v>5.4743447020260996E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3430,51 +3144,45 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>3.4409948307250263E-2</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>3.40758711392187E-2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>2.6489167753505859E-2</v>
+        <v>0</v>
       </c>
       <c r="P39">
-        <v>1.5393924242717219E-2</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>2.0569992268720132E-2</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.2841149772449561E-2</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>8.1818298425457899E-3</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0.1043656307732764</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0.1017337602127399</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>8.8905400983998545E-2</v>
+        <v>0</v>
       </c>
       <c r="W39">
-        <v>7.6720707598450538E-2</v>
-      </c>
-      <c r="X39">
-        <v>6.0509759605078872E-2</v>
-      </c>
-      <c r="Y39">
-        <v>3.5135930431461973E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3501,137 +3209,125 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>3.0808489619933609E-7</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2.0387971072014887E-7</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2.8197600669091774E-7</v>
       </c>
       <c r="N40">
-        <v>3.3535489223062778E-3</v>
+        <v>4.9661445954519845E-7</v>
       </c>
       <c r="O40">
-        <v>2.7356918815873532E-3</v>
+        <v>1.4810015781689154E-6</v>
       </c>
       <c r="P40">
-        <v>2.436179934693168E-3</v>
+        <v>3.999178941049074E-6</v>
       </c>
       <c r="Q40">
-        <v>2.1486200295346672E-3</v>
+        <v>8.8555981527153664E-6</v>
       </c>
       <c r="R40">
-        <v>1.8775294693706339E-3</v>
+        <v>1.4278904769957254E-5</v>
       </c>
       <c r="S40">
-        <v>1.698924671449082E-3</v>
+        <v>1.7329775411212656E-5</v>
       </c>
       <c r="T40">
-        <v>1.480609922511909E-3</v>
+        <v>2.1259231173101286E-5</v>
       </c>
       <c r="U40">
-        <v>1.5817099406627709E-3</v>
+        <v>2.8645774454560782E-5</v>
       </c>
       <c r="V40">
-        <v>1.5961725721502611E-3</v>
+        <v>3.3794570738058338E-5</v>
       </c>
       <c r="W40">
-        <v>1.471718450081799E-3</v>
-      </c>
-      <c r="X40">
-        <v>1.307367739973173E-3</v>
-      </c>
-      <c r="Y40">
-        <v>3.9787807806065147E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.6117116284884269E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>1.114715004849921</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="D41">
-        <v>1.114715004849921</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="E41">
-        <v>1.114715004849921</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="F41">
-        <v>1.114715004849921</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="G41">
-        <v>1.114715004849921</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3.2938204003056529E-5</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>3.2921970601105854E-5</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>3.2921795196906171E-5</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>3.2921811658364839E-5</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>3.2920047612200501E-5</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>3.2920796188506688E-5</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>3.2914720775139E-5</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>3.2906628460906904E-5</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>3.2868669049918607E-5</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>3.2769034964562398E-5</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>3.26540294640782E-5</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>3.2485705277053669E-5</v>
       </c>
       <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.2264754878315653E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
       <c r="C42">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3693,19 +3389,13 @@
       <c r="W42">
         <v>0</v>
       </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>13</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3735,128 +3425,116 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>1.6233401950677142E-8</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>1.6408806150356712E-8</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>1.6392344691688666E-8</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1.8156390856026329E-8</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1.740781454984209E-8</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>2.3483227917530466E-8</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>3.1575542149624887E-8</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>6.9534953137924977E-8</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1.6916903849412554E-7</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>2.8417453897832203E-7</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>4.5249872600285746E-7</v>
       </c>
       <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+        <v>6.7344912474088054E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>4.5947660483153696E-5</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>4.6938814727139693E-5</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4.7026252954255124E-5</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4.6955780563788058E-5</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>4.7058220226866944E-5</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>4.7367619725711784E-5</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>4.7235085115452153E-5</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>4.6461172929606935E-5</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>4.2525707691772517E-5</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>3.8403467926256727E-5</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>2.984819560949986E-5</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1.668429972118979E-5</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>1.5741272322753754E-5</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1.5453593873364794E-5</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>1.53919391762498E-5</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1.5757116090658522E-5</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1.5827994616056768E-5</v>
       </c>
       <c r="T44">
-        <v>0</v>
+        <v>1.6002966150769306E-5</v>
       </c>
       <c r="U44">
-        <v>0</v>
+        <v>1.630503116486207E-5</v>
       </c>
       <c r="V44">
-        <v>0</v>
+        <v>1.6369769011541666E-5</v>
       </c>
       <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.6162746372955481E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3924,203 +3602,185 @@
       <c r="W45">
         <v>0</v>
       </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>1.114715004849921</v>
+        <v>2.4049739646829756E-6</v>
       </c>
       <c r="D46">
-        <v>1.114715004849921</v>
+        <v>1.4138197206969788E-6</v>
       </c>
       <c r="E46">
-        <v>1.114715004849921</v>
+        <v>1.3263814935815544E-6</v>
       </c>
       <c r="F46">
-        <v>1.114715004849921</v>
+        <v>1.396853884048615E-6</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1.294414220969721E-6</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>9.8501472212489345E-7</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1.1175493323845147E-6</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1.8914615182297418E-6</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>5.8269267560641493E-6</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>9.9491665215799376E-6</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1.8504438838336812E-5</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>3.1668334726646881E-5</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>3.2611362125082914E-5</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>3.2899040574471874E-5</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>3.2960695271586868E-5</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>3.2595518357178147E-5</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>3.25246398317799E-5</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>3.2349668297067376E-5</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>3.2047603282974601E-5</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>3.1982865436295002E-5</v>
       </c>
       <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.2189888074881191E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>3.5307858967305202E-5</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>3.4962757718102836E-5</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>3.4994697161437972E-5</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>3.4443381725512042E-5</v>
       </c>
       <c r="V47">
-        <v>0</v>
+        <v>3.3875134137383577E-5</v>
       </c>
       <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+        <v>3.314202954403361E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -4155,19 +3815,13 @@
       <c r="W48">
         <v>0</v>
       </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -4188,63 +3842,57 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0.21202243147494559</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.18979711835860361</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0.32718799736366172</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.3153343946656329</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0.31045599406057789</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>0.29307549621864698</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>0.26559966844814892</v>
+        <v>0</v>
       </c>
       <c r="P49">
-        <v>0.21481745411209191</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>0.186578279488369</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>0.2300492646153246</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>0.47438088081642138</v>
+        <v>3.4510124920235979E-7</v>
       </c>
       <c r="T49">
-        <v>0.42631175587690079</v>
+        <v>3.1316180586722263E-7</v>
       </c>
       <c r="U49">
-        <v>0.33688172657402932</v>
+        <v>8.6447724179315643E-7</v>
       </c>
       <c r="V49">
-        <v>0.25894693119279533</v>
+        <v>1.432724829921618E-6</v>
       </c>
       <c r="W49">
-        <v>0.43889020606504542</v>
-      </c>
-      <c r="X49">
-        <v>0.34640957295411212</v>
-      </c>
-      <c r="Y49">
-        <v>0.28713483639404369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.1658294232715886E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4259,66 +3907,60 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>3.6674082471270923E-5</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>3.0237814625880575E-5</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>3.03389078888387E-5</v>
       </c>
       <c r="R50">
-        <v>0</v>
+        <v>3.2469139787634217E-5</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>3.3060916625914811E-5</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>3.2920500628709593E-5</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>3.2593257294467685E-5</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>3.1526626123497907E-5</v>
       </c>
       <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.8846742142175291E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -4357,19 +3999,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1.6024356935782501E-3</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>1.641025203278831E-3</v>
+        <v>0</v>
       </c>
       <c r="P51">
-        <v>1.555261176982372E-3</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1.447396559185844E-3</v>
+        <v>0</v>
       </c>
       <c r="R51">
-        <v>1.417210550532073E-3</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4384,30 +4026,24 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1.532676633480958E-2</v>
-      </c>
-      <c r="X51">
-        <v>1.348328439593228E-2</v>
-      </c>
-      <c r="Y51">
-        <v>1.1652855651588179E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4437,119 +4073,107 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>9.3352209926871437E-7</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>7.3697899446590637E-6</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>7.2686966817009389E-6</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>5.1384647829054159E-6</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>4.546687944624826E-6</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>4.6871039418300417E-6</v>
       </c>
       <c r="U52">
-        <v>0</v>
+        <v>5.0143472760719516E-6</v>
       </c>
       <c r="V52">
-        <v>0</v>
+        <v>6.0809784470417309E-6</v>
       </c>
       <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+        <v>8.7608624283643469E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>4.9077923964554225E-5</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>4.8519426963535112E-5</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>4.4031700968650602E-5</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2.9019251262571724E-5</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>2.9298498937119487E-5</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.9287477495390842E-5</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2.9230997787612502E-5</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2.9112750218631103E-5</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>3.1213289075371524E-5</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>3.0408522172966254E-5</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>2.93261688102717E-5</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>2.5651083074544929E-5</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>2.1526143366951327E-5</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1.8667136650497913E-5</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>1.7015624661655164E-5</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>1.7387386188368554E-5</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>2.4315298774838996E-5</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>2.3706231435462709E-5</v>
       </c>
       <c r="U53">
-        <v>0</v>
+        <v>2.3790746170685817E-5</v>
       </c>
       <c r="V53">
-        <v>0</v>
+        <v>2.2550968114379854E-5</v>
       </c>
       <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.2087936243998358E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4617,129 +4241,117 @@
       <c r="W54">
         <v>0</v>
       </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>5.5849700101910933E-7</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5.0462229959036263E-6</v>
       </c>
       <c r="F55">
-        <v>0.18921029512250681</v>
+        <v>2.0058672701982504E-5</v>
       </c>
       <c r="G55">
-        <v>0.16629965395944751</v>
+        <v>1.9779425027434737E-5</v>
       </c>
       <c r="H55">
-        <v>0.15144017917599881</v>
+        <v>1.9790446469163386E-5</v>
       </c>
       <c r="I55">
-        <v>0.13501276990944969</v>
+        <v>1.9846926176941719E-5</v>
       </c>
       <c r="J55">
-        <v>0.59941047655243673</v>
+        <v>1.9965173745923122E-5</v>
       </c>
       <c r="K55">
-        <v>0.45988852953051712</v>
+        <v>1.7864634889182697E-5</v>
       </c>
       <c r="L55">
-        <v>0.41664029271569059</v>
+        <v>1.866940179158797E-5</v>
       </c>
       <c r="M55">
-        <v>0.3048787940779511</v>
+        <v>1.9751755154282525E-5</v>
       </c>
       <c r="N55">
-        <v>0.2227284561923937</v>
+        <v>2.3426840890009299E-5</v>
       </c>
       <c r="O55">
-        <v>0.17032897917082229</v>
+        <v>2.7551780597602898E-5</v>
       </c>
       <c r="P55">
-        <v>0.19069034463423751</v>
+        <v>3.0410787314056311E-5</v>
       </c>
       <c r="Q55">
-        <v>0.1569454137947289</v>
+        <v>3.206229930289906E-5</v>
       </c>
       <c r="R55">
-        <v>0.1364097569163033</v>
+        <v>3.1690537776185674E-5</v>
       </c>
       <c r="S55">
-        <v>0.11688263980725989</v>
+        <v>2.4762625189715228E-5</v>
       </c>
       <c r="T55">
-        <v>0.1123300993508721</v>
+        <v>2.5371692529091515E-5</v>
       </c>
       <c r="U55">
-        <v>9.9640635487865989E-2</v>
+        <v>2.5287177793868407E-5</v>
       </c>
       <c r="V55">
-        <v>8.1960918685495293E-2</v>
+        <v>2.6526955850174378E-5</v>
       </c>
       <c r="W55">
-        <v>6.9477833713816523E-2</v>
-      </c>
-      <c r="X55">
-        <v>5.3351601215944643E-2</v>
-      </c>
-      <c r="Y55">
-        <v>4.392456182187511E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.698998772055587E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4771,46 +4383,40 @@
       <c r="W56">
         <v>0</v>
       </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>1.114715004849921</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>1.114715004849921</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -4848,174 +4454,156 @@
       <c r="W57">
         <v>0</v>
       </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0.30028871562651549</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>0.35716197511571202</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.35538859159964159</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.22359933538206</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.40101758671631932</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0.5835432876400114</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0.70616415617842798</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.91855992194145963</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>1.6067421908318551</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>2.1263226012377241</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>3.090119187139913</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>3.9715324093932911</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>4.4472031254156574</v>
+        <v>0</v>
       </c>
       <c r="P58">
-        <v>4.5454521236868644</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>4.440984430943983</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>4.3097159330177934</v>
+        <v>0</v>
       </c>
       <c r="S58">
-        <v>4.2039567787443914</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>4.0714669345254686</v>
+        <v>0</v>
       </c>
       <c r="U58">
-        <v>4.1296465035259544</v>
+        <v>0</v>
       </c>
       <c r="V58">
-        <v>4.3367022105308717</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>4.5481047001529831</v>
-      </c>
-      <c r="X58">
-        <v>4.8356755089124306</v>
-      </c>
-      <c r="Y58">
-        <v>5.2102283633283646</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
       <c r="C59">
-        <v>11.156517401481141</v>
+        <v>3.6405297066305577E-5</v>
       </c>
       <c r="D59">
-        <v>11.156517401481141</v>
+        <v>3.591229812664432E-5</v>
       </c>
       <c r="E59">
-        <v>11.156517401481141</v>
+        <v>3.606855454425998E-5</v>
       </c>
       <c r="F59">
-        <v>11.156517401481141</v>
+        <v>3.5651922193529976E-5</v>
       </c>
       <c r="G59">
-        <v>11.156517401481141</v>
+        <v>3.5798994579742699E-5</v>
       </c>
       <c r="H59">
-        <v>0.27709457603996351</v>
+        <v>3.596550153127638E-5</v>
       </c>
       <c r="I59">
-        <v>0.25211673382784572</v>
+        <v>3.3726942459820698E-5</v>
       </c>
       <c r="J59">
-        <v>0.26631127408993721</v>
+        <v>3.4097908585704695E-5</v>
       </c>
       <c r="K59">
-        <v>0.32877044981441228</v>
+        <v>3.2594414459532537E-5</v>
       </c>
       <c r="L59">
-        <v>0.51978383531141059</v>
+        <v>3.2607308514006396E-5</v>
       </c>
       <c r="M59">
-        <v>0.89698262148312835</v>
+        <v>3.2344350995709E-5</v>
       </c>
       <c r="N59">
-        <v>1.517156536281653</v>
+        <v>3.1734266057008569E-5</v>
       </c>
       <c r="O59">
-        <v>2.2483343886117502</v>
+        <v>3.0370684312371487E-5</v>
       </c>
       <c r="P59">
-        <v>3.0357111042562499</v>
+        <v>2.7683080367610085E-5</v>
       </c>
       <c r="Q59">
-        <v>3.0255731743763761</v>
+        <v>2.5514653155662399E-5</v>
       </c>
       <c r="R59">
-        <v>3.051747592372863</v>
+        <v>2.3115250722878709E-5</v>
       </c>
       <c r="S59">
-        <v>3.1959443870802691</v>
+        <v>1.9341861701964015E-5</v>
       </c>
       <c r="T59">
-        <v>3.4067431846653151</v>
+        <v>1.7091625739366378E-5</v>
       </c>
       <c r="U59">
-        <v>3.5385252726393448</v>
+        <v>1.4301641161783807E-5</v>
       </c>
       <c r="V59">
-        <v>3.8547748012040168</v>
+        <v>1.1284362976611642E-5</v>
       </c>
       <c r="W59">
-        <v>4.3257553732767029</v>
-      </c>
-      <c r="X59">
-        <v>5.0303959034967471</v>
-      </c>
-      <c r="Y59">
-        <v>5.7390525031089181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+        <v>8.8370624386895915E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
         <v>2</v>
       </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
       <c r="C60">
         <v>0</v>
       </c>
@@ -5035,694 +4623,640 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2.5068890472543943E-6</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>2.2441036729165795E-6</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>3.8685718359049549E-6</v>
       </c>
       <c r="L60">
-        <v>4.773674177655141</v>
+        <v>3.7284184258743523E-6</v>
       </c>
       <c r="M60">
-        <v>6.4494746340086859</v>
+        <v>3.6707376938883285E-6</v>
       </c>
       <c r="N60">
-        <v>7.9809004363418321</v>
+        <v>3.4652359487538096E-6</v>
       </c>
       <c r="O60">
-        <v>8.1061921469125924</v>
+        <v>3.1403700785581398E-6</v>
       </c>
       <c r="P60">
-        <v>7.6368932617198517</v>
+        <v>2.5399365488189534E-6</v>
       </c>
       <c r="Q60">
-        <v>7.4909312443163101</v>
+        <v>2.2060450965077842E-6</v>
       </c>
       <c r="R60">
-        <v>7.2458025599517786</v>
+        <v>2.7200328653019608E-6</v>
       </c>
       <c r="S60">
-        <v>7.2264278547611296</v>
+        <v>5.6089359322629378E-6</v>
       </c>
       <c r="T60">
-        <v>6.9542840589590726</v>
+        <v>5.0405811502538135E-6</v>
       </c>
       <c r="U60">
-        <v>6.7312786535281282</v>
+        <v>3.983187555644931E-6</v>
       </c>
       <c r="V60">
-        <v>6.7054425955132411</v>
+        <v>3.0617101271384338E-6</v>
       </c>
       <c r="W60">
-        <v>6.6863969012790792</v>
-      </c>
-      <c r="X60">
-        <v>6.7430668599270591</v>
-      </c>
-      <c r="Y60">
-        <v>6.8868182289983944</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+        <v>5.1893049375848754E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>2.3921181455428031</v>
+        <v>1.0587670287739878E-6</v>
       </c>
       <c r="D61">
-        <v>2.3921181455428031</v>
+        <v>1.5517659684352482E-6</v>
       </c>
       <c r="E61">
-        <v>2.3921181455428031</v>
+        <v>1.3955095508195827E-6</v>
       </c>
       <c r="F61">
-        <v>2.3921181455428031</v>
+        <v>1.8121419015495897E-6</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1.6650695153368697E-6</v>
       </c>
       <c r="H61">
-        <v>5.8582485196966596</v>
+        <v>1.4985625638031827E-6</v>
       </c>
       <c r="I61">
-        <v>5.8582485196966596</v>
+        <v>1.2302325880044714E-6</v>
       </c>
       <c r="J61">
-        <v>5.8582485196966596</v>
+        <v>1.1220518364582897E-6</v>
       </c>
       <c r="K61">
-        <v>6.4506556733738503</v>
+        <v>1.0010777996420718E-6</v>
       </c>
       <c r="L61">
-        <v>6.7941817151511579</v>
+        <v>1.1283371551988171E-6</v>
       </c>
       <c r="M61">
-        <v>0.56300903397477009</v>
+        <v>1.4489754054822348E-6</v>
       </c>
       <c r="N61">
-        <v>0.49758047749200268</v>
+        <v>2.2645620893171824E-6</v>
       </c>
       <c r="O61">
-        <v>0.74287121584827509</v>
+        <v>3.953009704149939E-6</v>
       </c>
       <c r="P61">
-        <v>1.3783641392893089</v>
+        <v>7.2410471786505252E-6</v>
       </c>
       <c r="Q61">
-        <v>2.174395473756507</v>
+        <v>9.743365842909379E-6</v>
       </c>
       <c r="R61">
-        <v>2.333524172355371</v>
+        <v>1.1628780506898893E-5</v>
       </c>
       <c r="S61">
-        <v>2.4937998662810479</v>
+        <v>1.2513266460852613E-5</v>
       </c>
       <c r="T61">
-        <v>2.9492704599572388</v>
+        <v>1.5331857205459372E-5</v>
       </c>
       <c r="U61">
-        <v>3.07833086159975</v>
+        <v>1.9179235377650825E-5</v>
       </c>
       <c r="V61">
-        <v>3.5131124013348498</v>
+        <v>2.3117990991329489E-5</v>
       </c>
       <c r="W61">
-        <v>4.2505067672780372</v>
-      </c>
-      <c r="X61">
-        <v>4.78181895049961</v>
-      </c>
-      <c r="Y61">
-        <v>5.2329407026787651</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.3437696718805102E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>0.36906965674088948</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="D62">
-        <v>10.621004566210051</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="E62">
-        <v>0.25114503550916201</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="F62">
-        <v>0.2818872549944626</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="G62">
-        <v>0.25935522295540397</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="H62">
-        <v>0.27556489311073618</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="I62">
-        <v>0.20144482172667841</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="J62">
-        <v>0.35724729822910811</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="K62">
-        <v>2.2138769412416721</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="L62">
-        <v>7.5038301725383008</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="M62">
-        <v>9.4548839617756428</v>
+        <v>3.7039942614757905E-5</v>
       </c>
       <c r="N62">
-        <v>9.5569058020507143</v>
+        <v>3.7017115393598521E-5</v>
       </c>
       <c r="O62">
-        <v>9.4191540495073305</v>
+        <v>3.7021172129668758E-5</v>
       </c>
       <c r="P62">
-        <v>9.4244003106318761</v>
+        <v>3.7014111536045233E-5</v>
       </c>
       <c r="Q62">
-        <v>9.3620980814286039</v>
+        <v>3.6779627990166401E-5</v>
       </c>
       <c r="R62">
-        <v>9.3541841225982534</v>
+        <v>3.6240536895361393E-5</v>
       </c>
       <c r="S62">
-        <v>9.3464297810399408</v>
+        <v>3.5871198183529215E-5</v>
       </c>
       <c r="T62">
-        <v>9.2477088535849727</v>
+        <v>3.5281251534438768E-5</v>
       </c>
       <c r="U62">
-        <v>9.2200831596013053</v>
+        <v>3.3750533455027101E-5</v>
       </c>
       <c r="V62">
-        <v>9.1414891836857937</v>
+        <v>2.9310355954895712E-5</v>
       </c>
       <c r="W62">
-        <v>9.1654178944177254</v>
-      </c>
-      <c r="X62">
-        <v>9.1963454078587752</v>
-      </c>
-      <c r="Y62">
-        <v>9.3159020637317678</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.2752557522544297E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
-        <v>12.06932337069324</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>12.06932337069324</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>12.06932337069324</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.35435715889926822</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.76104783865647252</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>1.2221497660631051</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1.4969823493620711</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1.914672390466057</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>2.554619182010188</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>3.5132643874247811</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>4.839124376243122</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>5.7257923496171532</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>6.3220353618899612</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>6.3126342618739733</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>5.97834848196766</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>5.648980238318833</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>5.448298881377255</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>5.2154107191639048</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>5.2467438536543964</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>5.3837353483082451</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>5.5904157572880129</v>
-      </c>
-      <c r="X63">
-        <v>5.8555466026366298</v>
-      </c>
-      <c r="Y63">
-        <v>6.0940862283639028</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>5.9704952799491838E-3</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>5.7144393364968824E-3</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>9.8569936049624149E-3</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>9.1453734000451637E-3</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>9.1342668625821553E-3</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>1.367897625917266E-2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1.364472102916724E-2</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>1.369481951518607E-2</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>1.352760262277449E-2</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>2.0469153439228348E-2</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>2.623609681676806E-2</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>6.1145226979013229E-2</v>
+        <v>2.2827221159385757E-8</v>
       </c>
       <c r="O64">
-        <v>1.257415158578661</v>
+        <v>1.8770485089145626E-8</v>
       </c>
       <c r="P64">
-        <v>1.5123287463829771</v>
+        <v>2.583107871267315E-8</v>
       </c>
       <c r="Q64">
-        <v>1.577392932846021</v>
+        <v>2.6031462459150616E-7</v>
       </c>
       <c r="R64">
-        <v>1.9055941243045109</v>
+        <v>7.994057193965135E-7</v>
       </c>
       <c r="S64">
-        <v>1.992721045068041</v>
+        <v>1.1687444312286922E-6</v>
       </c>
       <c r="T64">
-        <v>2.0231484247350719</v>
+        <v>1.758691080319133E-6</v>
       </c>
       <c r="U64">
-        <v>2.00079665146828</v>
+        <v>3.2894091597308095E-6</v>
       </c>
       <c r="V64">
-        <v>2.1441478444021138</v>
+        <v>7.7295866598621928E-6</v>
       </c>
       <c r="W64">
-        <v>2.4619756924728402</v>
-      </c>
-      <c r="X64">
-        <v>2.7935395743403988</v>
-      </c>
-      <c r="Y64">
-        <v>4.3161029117620808</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.4287385092213609E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>4.7078920949512613</v>
+        <v>3.5788681154963986E-5</v>
       </c>
       <c r="D65">
-        <v>4.7078920949512613</v>
+        <v>3.5932410798156614E-5</v>
       </c>
       <c r="E65">
-        <v>4.7078920949512613</v>
+        <v>3.6030237256874112E-5</v>
       </c>
       <c r="F65">
-        <v>4.7078920949512613</v>
+        <v>3.5951574750582294E-5</v>
       </c>
       <c r="G65">
-        <v>4.7078920949512613</v>
+        <v>3.6089348030183157E-5</v>
       </c>
       <c r="H65">
-        <v>4.7078920949512613</v>
+        <v>3.6151915356428276E-5</v>
       </c>
       <c r="I65">
-        <v>4.7078920949512613</v>
+        <v>3.615534537536513E-5</v>
       </c>
       <c r="J65">
-        <v>4.7078920949512613</v>
+        <v>3.5829183845427704E-5</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>3.5487026348263409E-5</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>3.5009383290086095E-5</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>3.4984892325934073E-5</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>3.4797810267460162E-5</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>3.4350277310810106E-5</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>3.4019781725451001E-5</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>3.3354741491531762E-5</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>3.3199214249808485E-5</v>
       </c>
       <c r="S65">
-        <v>0.44136488390168083</v>
+        <v>3.2924738063808744E-5</v>
       </c>
       <c r="T65">
-        <v>0.64827155530234615</v>
+        <v>3.254135030669767E-5</v>
       </c>
       <c r="U65">
-        <v>1.3177691532226841</v>
+        <v>3.2080292443839738E-5</v>
       </c>
       <c r="V65">
-        <v>3.9013178194076179</v>
+        <v>3.0888552054158178E-5</v>
       </c>
       <c r="W65">
-        <v>5.5903021977158698</v>
-      </c>
-      <c r="X65">
-        <v>7.8444555720862272</v>
-      </c>
-      <c r="Y65">
-        <v>8.7850618039760384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.9669840389758461E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>2.9335253569088889E-2</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>2.7603658740357941E-2</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2.1370574508664211E-2</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1.6878670312575561E-2</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>1.615823926264855E-2</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>5.2717862846306952E-2</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>8.3682670707611456E-2</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>9.2261358420384007E-2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>0.30048748643571238</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>1.0705803005860419</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>2.1604398201334498</v>
+        <v>1.5213569882502966E-8</v>
       </c>
       <c r="O66">
-        <v>3.7126711187761212</v>
+        <v>1.5579939781097992E-8</v>
       </c>
       <c r="P66">
-        <v>4.672441371175557</v>
+        <v>1.4765693685173598E-8</v>
       </c>
       <c r="Q66">
-        <v>4.5119851879998114</v>
+        <v>1.3741623947290653E-8</v>
       </c>
       <c r="R66">
-        <v>4.4092479402873099</v>
+        <v>1.3455037125761163E-8</v>
       </c>
       <c r="S66">
-        <v>4.1619258302470694</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>3.960887948981318</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>3.812102656263828</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>3.5075491342183498</v>
+        <v>0</v>
       </c>
       <c r="W66">
-        <v>3.5286859481474671</v>
-      </c>
-      <c r="X66">
-        <v>3.8094071379339591</v>
-      </c>
-      <c r="Y66">
-        <v>4.2604230129960046</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.45512753892007E-7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>0.74585706223385151</v>
+        <v>4.311889295778793E-7</v>
       </c>
       <c r="D67">
-        <v>1.065510088905502</v>
+        <v>2.8745928638525288E-7</v>
       </c>
       <c r="E67">
-        <v>0.97285703769632792</v>
+        <v>1.8963282766775847E-7</v>
       </c>
       <c r="F67">
-        <v>0.81366224970965628</v>
+        <v>2.6829533395956937E-7</v>
       </c>
       <c r="G67">
-        <v>0.69382052300823405</v>
+        <v>1.3052205435870942E-7</v>
       </c>
       <c r="H67">
-        <v>0.69382052300823405</v>
+        <v>6.7954728113586981E-8</v>
       </c>
       <c r="I67">
-        <v>0.81962314531192482</v>
+        <v>6.4524709176737296E-8</v>
       </c>
       <c r="J67">
-        <v>0.64857135846421865</v>
+        <v>3.9068623911415948E-7</v>
       </c>
       <c r="K67">
-        <v>0.60069025146350452</v>
+        <v>7.3284373627845334E-7</v>
       </c>
       <c r="L67">
-        <v>0.58498593116380515</v>
+        <v>1.2104867944557728E-6</v>
       </c>
       <c r="M67">
-        <v>0.51186268976832949</v>
+        <v>1.2349777586077887E-6</v>
       </c>
       <c r="N67">
-        <v>0.50689314909096705</v>
+        <v>1.406846247199199E-6</v>
       </c>
       <c r="O67">
-        <v>0.45032879229213679</v>
+        <v>1.8540128339506613E-6</v>
       </c>
       <c r="P67">
-        <v>0.29441726140809932</v>
+        <v>2.1853226654056928E-6</v>
       </c>
       <c r="Q67">
-        <v>0.25719209042546609</v>
+        <v>2.8513869690628109E-6</v>
       </c>
       <c r="R67">
-        <v>0.24813248645744571</v>
+        <v>3.0072007976076199E-6</v>
       </c>
       <c r="S67">
-        <v>0.36269857141047651</v>
+        <v>3.2951320207331228E-6</v>
       </c>
       <c r="T67">
-        <v>0.57535540078246306</v>
+        <v>3.6785197778441955E-6</v>
       </c>
       <c r="U67">
-        <v>0.9575423082323633</v>
+        <v>4.1395776407021246E-6</v>
       </c>
       <c r="V67">
-        <v>1.3214706130559859</v>
+        <v>5.3313180303836861E-6</v>
       </c>
       <c r="W67">
-        <v>1.6334886073716579</v>
-      </c>
-      <c r="X67">
-        <v>1.721831892718017</v>
-      </c>
-      <c r="Y67">
-        <v>1.562053585627748</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
+        <v>6.4045169408914034E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>10.212504390586581</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>10.212504390586581</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>10.212504390586581</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="G68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="H68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="I68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="J68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="K68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="L68">
-        <v>10.212504390586581</v>
+        <v>4.0393353057246278E-5</v>
       </c>
       <c r="M68">
-        <v>10.212504390586581</v>
+        <v>5.5081845078063109E-6</v>
       </c>
       <c r="N68">
-        <v>3.1423179761327931</v>
+        <v>2.428458099634045E-7</v>
       </c>
       <c r="O68">
-        <v>3.719945209442125</v>
+        <v>2.3484507591422256E-7</v>
       </c>
       <c r="P68">
-        <v>4.0107652423526439</v>
+        <v>3.754029094539617E-7</v>
       </c>
       <c r="Q68">
-        <v>4.0448462001755141</v>
+        <v>2.2608219994727396E-7</v>
       </c>
       <c r="R68">
-        <v>4.1806221833815096</v>
+        <v>2.2608219994727396E-7</v>
       </c>
       <c r="S68">
-        <v>4.0821523357484741</v>
+        <v>2.2608219994727396E-7</v>
       </c>
       <c r="T68">
-        <v>3.9771580663826849</v>
+        <v>3.0370942148305477E-7</v>
       </c>
       <c r="U68">
-        <v>4.0089860711311758</v>
+        <v>2.5511591404576596E-7</v>
       </c>
       <c r="V68">
-        <v>4.034774596709668</v>
+        <v>2.7200911149660792E-7</v>
       </c>
       <c r="W68">
-        <v>4.13210668053887</v>
-      </c>
-      <c r="X68">
-        <v>4.4982095732365961</v>
-      </c>
-      <c r="Y68">
-        <v>4.6419229302467802</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.997651432819761E-7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>3.2302325323023249</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>3.2302325323023249</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>3.2302325323023249</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>3.2302325323023249</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>3.2302325323023249</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -5746,48 +5280,42 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>0.2106673390631951</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>0.67444415509608979</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>0.85965865779013484</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>0.99445114884532704</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>1.003602312374553</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>0.91407303225030423</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>1.0031501946645289</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>1.1240201835832471</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>1.1556833251971941</v>
-      </c>
-      <c r="X69">
-        <v>1.19109800715627</v>
-      </c>
-      <c r="Y69">
-        <v>1.7795805000524021</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>3.5979012758164108</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -5811,57 +5339,51 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>7.9953361684809141E-2</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>5.2910312879653101E-2</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>7.3177653067452428E-2</v>
+        <v>3.4885168549439964E-5</v>
       </c>
       <c r="N70">
-        <v>0.1288800457008864</v>
+        <v>4.0150507247282874E-5</v>
       </c>
       <c r="O70">
-        <v>0.38434553688246531</v>
+        <v>4.0158507981332058E-5</v>
       </c>
       <c r="P70">
-        <v>1.0378561372547339</v>
+        <v>4.001795014779232E-5</v>
       </c>
       <c r="Q70">
-        <v>2.2981809584760331</v>
+        <v>4.0167270857299002E-5</v>
       </c>
       <c r="R70">
-        <v>3.7056228709007351</v>
+        <v>4.0167270857299002E-5</v>
       </c>
       <c r="S70">
-        <v>4.4973765947705138</v>
+        <v>4.0167270857299002E-5</v>
       </c>
       <c r="T70">
-        <v>5.5171383605386861</v>
+        <v>4.0089643635763226E-5</v>
       </c>
       <c r="U70">
-        <v>7.4340741593027824</v>
+        <v>4.0138237143200518E-5</v>
       </c>
       <c r="V70">
-        <v>8.7702758899761619</v>
+        <v>4.0121343945749673E-5</v>
       </c>
       <c r="W70">
-        <v>9.3730166488566908</v>
-      </c>
-      <c r="X70">
-        <v>9.731383037627376</v>
-      </c>
-      <c r="Y70">
-        <v>10.02661454469127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
+        <v>4.0093587913964301E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5891,516 +5413,474 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>5.5736775257892038E-3</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>5.6354377662065627E-3</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>5.6219186577493993E-3</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>6.2289555499964499E-3</v>
+        <v>9.8788091716091426E-7</v>
       </c>
       <c r="P71">
-        <v>7.0682127455104606E-3</v>
+        <v>7.5267117497974422E-7</v>
       </c>
       <c r="Q71">
-        <v>8.1296151847650329E-3</v>
+        <v>9.4416937215379415E-7</v>
       </c>
       <c r="R71">
-        <v>1.3798167328685581E-2</v>
+        <v>8.8540364359650401E-7</v>
       </c>
       <c r="S71">
-        <v>2.7712444036628731E-2</v>
+        <v>9.0416219536761647E-7</v>
       </c>
       <c r="T71">
-        <v>4.8761713888054149E-2</v>
+        <v>9.3850662102132414E-7</v>
       </c>
       <c r="U71">
-        <v>7.94331093928448E-2</v>
+        <v>9.3850662102132414E-7</v>
       </c>
       <c r="V71">
-        <v>0.13126206652005931</v>
+        <v>8.3477847020714071E-7</v>
       </c>
       <c r="W71">
-        <v>0.20007478551708999</v>
-      </c>
-      <c r="X71">
-        <v>0.29458959070153667</v>
-      </c>
-      <c r="Y71">
-        <v>0.56167659906014777</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
+        <v>6.2914255901531367E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>0.45856758734636521</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>0.26957959120700448</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.25290733718721958</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.26634463611252041</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.2468119884263093</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0.18781734491042831</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0.2130883363469851</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.36065377742558719</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1.1110472642994069</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>1.89705392029454</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>3.5283275402996122</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>6.0383488819970994</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>6.2181603083379802</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>6.2730132981853064</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>6.2847692864495368</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>6.2151393033170272</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>6.2016245647527697</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>6.168261927274906</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>6.1106657841280816</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>6.0983219173761709</v>
+        <v>0</v>
       </c>
       <c r="W72">
-        <v>6.1377958881120911</v>
-      </c>
-      <c r="X72">
-        <v>6.1256562444449694</v>
-      </c>
-      <c r="Y72">
-        <v>6.2236536101042192</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>7.1127426035585837E-5</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>7.0139545118424928E-5</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>7.0374754860606084E-5</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>7.0183256663432033E-5</v>
       </c>
       <c r="R73">
-        <v>0</v>
+        <v>7.0242022391989327E-5</v>
       </c>
       <c r="S73">
-        <v>0.1351697540895862</v>
+        <v>7.0223263840218223E-5</v>
       </c>
       <c r="T73">
-        <v>0.12265966694458939</v>
+        <v>7.0188919414564501E-5</v>
       </c>
       <c r="U73">
-        <v>0.338599690552571</v>
+        <v>7.0188919414564501E-5</v>
       </c>
       <c r="V73">
-        <v>0.5604829499164351</v>
+        <v>7.029264756537869E-5</v>
       </c>
       <c r="W73">
-        <v>0.84729648285835224</v>
-      </c>
-      <c r="X73">
-        <v>1.174002103862154</v>
-      </c>
-      <c r="Y73">
-        <v>7.9962234232083853</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
+        <v>7.049828347657052E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>3.6273922698804801</v>
+        <v>3.7581887068108386E-5</v>
       </c>
       <c r="D74">
-        <v>3.6273922698804801</v>
+        <v>3.7608325672815413E-5</v>
       </c>
       <c r="E74">
-        <v>3.6273922698804801</v>
+        <v>3.7621485504143112E-5</v>
       </c>
       <c r="F74">
-        <v>3.6273922698804801</v>
+        <v>3.7613058742220012E-5</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>3.7603048697669052E-5</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3.755534680043583E-5</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3.7303537483222214E-5</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>3.6508210975263826E-5</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>3.1249424278199818E-5</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>3.1639226027113252E-5</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>3.0880199729942799E-5</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>3.0146069251964747E-5</v>
       </c>
       <c r="O74">
-        <v>0.27012495626769539</v>
+        <v>2.9304993769965108E-5</v>
       </c>
       <c r="P74">
-        <v>2.1325303258086969</v>
+        <v>2.8936775981475052E-5</v>
       </c>
       <c r="Q74">
-        <v>2.1032778707710351</v>
+        <v>2.8920286406879249E-5</v>
       </c>
       <c r="R74">
-        <v>1.4868716829015041</v>
+        <v>2.8918835150390989E-5</v>
       </c>
       <c r="S74">
-        <v>1.31563450202919</v>
+        <v>2.8923997299853697E-5</v>
       </c>
       <c r="T74">
-        <v>1.35626542563995</v>
+        <v>2.8953779342667704E-5</v>
       </c>
       <c r="U74">
-        <v>1.450956907952192</v>
+        <v>2.8996207886944795E-5</v>
       </c>
       <c r="V74">
-        <v>1.759598448026795</v>
+        <v>2.632286308138052E-5</v>
       </c>
       <c r="W74">
-        <v>2.5350525522460172</v>
-      </c>
-      <c r="X74">
-        <v>2.9967117564347379</v>
-      </c>
-      <c r="Y74">
-        <v>4.1005303920388032</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.5790013358182689E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0.14958529310324981</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>1.351557384425017</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>5.372423540167846</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>5.2976311148380653</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>5.3005830475940012</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>5.315710315291037</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>5.3473812056137309</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>4.784782445035014</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>5.0003275469002402</v>
+        <v>0</v>
       </c>
       <c r="M75">
-        <v>5.2902201420341806</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>6.2745383674769926</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>7.3793434319047426</v>
+        <v>0</v>
       </c>
       <c r="P75">
-        <v>8.1450867696209119</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>8.5874202189747812</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>8.4878493048311778</v>
+        <v>0</v>
       </c>
       <c r="S75">
-        <v>6.6323087505401483</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>6.7954385727486324</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>6.7728025309850723</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>7.1048590390721413</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>7.228875386377096</v>
-      </c>
-      <c r="X75">
-        <v>8.8084719187141847</v>
-      </c>
-      <c r="Y75">
-        <v>8.6356210776979587</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2.714980717333856</v>
+        <v>1.7036213539487028E-7</v>
       </c>
       <c r="D76">
-        <v>2.714980717333856</v>
+        <v>1.4392353068784232E-7</v>
       </c>
       <c r="E76">
-        <v>2.714980717333856</v>
+        <v>1.3076369936013759E-7</v>
       </c>
       <c r="F76">
-        <v>2.714980717333856</v>
+        <v>1.391904612832364E-7</v>
       </c>
       <c r="G76">
-        <v>2.714980717333856</v>
+        <v>1.4920050583420447E-7</v>
       </c>
       <c r="H76">
-        <v>2.714980717333856</v>
+        <v>1.9690240306741917E-7</v>
       </c>
       <c r="I76">
-        <v>2.714980717333856</v>
+        <v>4.4871172028103843E-7</v>
       </c>
       <c r="J76">
-        <v>2.714980717333856</v>
+        <v>1.2440382282394222E-6</v>
       </c>
       <c r="K76">
-        <v>2.714980717333856</v>
+        <v>6.5028249253034346E-6</v>
       </c>
       <c r="L76">
-        <v>2.714980717333856</v>
+        <v>6.1130231763899985E-6</v>
       </c>
       <c r="M76">
-        <v>8.144942152001569</v>
+        <v>6.8720494735604578E-6</v>
       </c>
       <c r="N76">
-        <v>8.144942152001569</v>
+        <v>7.6061799515385062E-6</v>
       </c>
       <c r="O76">
-        <v>8.0933918852167483</v>
+        <v>8.4472554335381455E-6</v>
       </c>
       <c r="P76">
-        <v>8.1164633332882765</v>
+        <v>8.8154732220281979E-6</v>
       </c>
       <c r="Q76">
-        <v>8.1300519469704859</v>
+        <v>8.8319627966240029E-6</v>
       </c>
       <c r="R76">
-        <v>8.1340677299027693</v>
+        <v>8.8334140531122599E-6</v>
       </c>
       <c r="S76">
-        <v>8.1362495776664545</v>
+        <v>8.8282519036495552E-6</v>
       </c>
       <c r="T76">
-        <v>8.1376609757842306</v>
+        <v>8.7984698608355481E-6</v>
       </c>
       <c r="U76">
-        <v>8.1387712737895814</v>
+        <v>8.7560413165584599E-6</v>
       </c>
       <c r="V76">
-        <v>8.1396970624886009</v>
+        <v>1.1429386122122733E-5</v>
       </c>
       <c r="W76">
-        <v>8.1406098050964655</v>
-      </c>
-      <c r="X76">
-        <v>8.1409800839517761</v>
-      </c>
-      <c r="Y76">
-        <v>8.141282441387208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.1962235845320565E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>0.37519853087155047</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>0.54990408257004675</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.49453101490233009</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0.64217430342489745</v>
+        <v>2.7642849061919118E-5</v>
       </c>
       <c r="G77">
-        <v>0.59005580923389145</v>
+        <v>2.7854159088804794E-5</v>
       </c>
       <c r="H77">
-        <v>0.5310502283105023</v>
+        <v>2.7991211386627881E-5</v>
       </c>
       <c r="I77">
-        <v>0.43596130886704793</v>
+        <v>2.8092914966008914E-5</v>
       </c>
       <c r="J77">
-        <v>0.39762496296127459</v>
+        <v>2.4531340250840801E-5</v>
       </c>
       <c r="K77">
-        <v>0.35475502117662627</v>
+        <v>2.5610672170761763E-5</v>
       </c>
       <c r="L77">
-        <v>0.39985231070956628</v>
+        <v>2.598182458862402E-5</v>
       </c>
       <c r="M77">
-        <v>0.51347787438703485</v>
+        <v>2.6866524651963391E-5</v>
       </c>
       <c r="N77">
-        <v>0.80249983791343649</v>
+        <v>2.7535350099183235E-5</v>
       </c>
       <c r="O77">
-        <v>1.4008402162234761</v>
+        <v>2.7874052260761156E-5</v>
       </c>
       <c r="P77">
-        <v>2.5660321766415879</v>
+        <v>2.7612353575062342E-5</v>
       </c>
       <c r="Q77">
-        <v>3.4527865438318419</v>
+        <v>2.7829525020727991E-5</v>
       </c>
       <c r="R77">
-        <v>4.1209267416161381</v>
+        <v>2.7815128656611237E-5</v>
       </c>
       <c r="S77">
-        <v>4.4343647515664824</v>
+        <v>2.7799921300123061E-5</v>
       </c>
       <c r="T77">
-        <v>5.4331974293550864</v>
+        <v>2.7471650726106956E-5</v>
       </c>
       <c r="U77">
-        <v>6.7966046744645769</v>
+        <v>2.6988416519169839E-5</v>
       </c>
       <c r="V77">
-        <v>8.192393624773656</v>
+        <v>2.6519561581774655E-5</v>
       </c>
       <c r="W77">
-        <v>8.3056887274734166</v>
-      </c>
-      <c r="X77">
-        <v>8.7476152688931474</v>
-      </c>
-      <c r="Y77">
-        <v>9.1770501302943241</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.5914347479664243E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -6412,158 +5892,146 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1.4659086623744986E-6</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1.2884082397905301E-6</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1.1732843096191328E-6</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1.0460127912875659E-6</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>4.6439386891042543E-6</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>3.562991002836103E-6</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>3.2279248536171616E-6</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>2.3620515201024987E-6</v>
       </c>
       <c r="N78">
-        <v>7.9436687374050512E-3</v>
+        <v>1.725590952005716E-6</v>
       </c>
       <c r="O78">
-        <v>6.5319608789642979E-3</v>
+        <v>1.3196254773465199E-6</v>
       </c>
       <c r="P78">
-        <v>8.9889842916312402E-3</v>
+        <v>1.4773753608360408E-6</v>
       </c>
       <c r="Q78">
-        <v>9.0587160426517821E-2</v>
+        <v>1.2159361701364229E-6</v>
       </c>
       <c r="R78">
-        <v>0.27818603838522382</v>
+        <v>1.0568359621580794E-6</v>
       </c>
       <c r="S78">
-        <v>0.40671260577638491</v>
+        <v>9.0554942617538218E-7</v>
       </c>
       <c r="T78">
-        <v>0.61200876164202089</v>
+        <v>8.7027857325213973E-7</v>
       </c>
       <c r="U78">
-        <v>1.1446849585519401</v>
+        <v>7.7196682448801995E-7</v>
       </c>
       <c r="V78">
-        <v>2.6894849882518779</v>
+        <v>6.3499304094128983E-7</v>
       </c>
       <c r="W78">
-        <v>4.9718821885431019</v>
-      </c>
-      <c r="X78">
-        <v>6.6456079152981866</v>
-      </c>
-      <c r="Y78">
-        <v>7.7197964000265014</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
+        <v>5.3828021471112673E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>9.297097834567615E-2</v>
+        <v>2.9387978421888758E-5</v>
       </c>
       <c r="D79">
-        <v>6.1980652230450767E-2</v>
+        <v>2.9387978421888758E-5</v>
       </c>
       <c r="E79">
-        <v>4.0887760110140302E-2</v>
+        <v>2.9387978421888758E-5</v>
       </c>
       <c r="F79">
-        <v>5.7848608748420717E-2</v>
+        <v>2.7922069759514263E-7</v>
       </c>
       <c r="G79">
-        <v>2.8142566418150619E-2</v>
+        <v>2.4541109329343431E-7</v>
       </c>
       <c r="H79">
-        <v>1.465208664359624E-2</v>
+        <v>2.2348272564173961E-7</v>
       </c>
       <c r="I79">
-        <v>1.3912521700184321E-2</v>
+        <v>2.4905066459227762E-7</v>
       </c>
       <c r="J79">
-        <v>8.4237974087587916E-2</v>
+        <v>2.1269948194370634E-7</v>
       </c>
       <c r="K79">
-        <v>0.15801240352577881</v>
+        <v>2.143152482908934E-7</v>
       </c>
       <c r="L79">
-        <v>0.26099960791026788</v>
+        <v>1.7822897964757332E-7</v>
       </c>
       <c r="M79">
-        <v>0.26628023721601302</v>
+        <v>1.5940224982286801E-7</v>
       </c>
       <c r="N79">
-        <v>0.30333773205192832</v>
+        <v>1.2703737069980731E-7</v>
       </c>
       <c r="O79">
-        <v>0.39975373951872301</v>
+        <v>1.9430068378108267E-7</v>
       </c>
       <c r="P79">
-        <v>0.47118924505470661</v>
+        <v>2.9824948599037443E-7</v>
       </c>
       <c r="Q79">
-        <v>0.61480297375770476</v>
+        <v>3.4251723102434451E-7</v>
       </c>
       <c r="R79">
-        <v>0.64839883646637375</v>
+        <v>5.16013803119438E-7</v>
       </c>
       <c r="S79">
-        <v>0.71048124553112268</v>
+        <v>6.8250769559031271E-7</v>
       </c>
       <c r="T79">
-        <v>0.79314555442065104</v>
+        <v>1.0460491225296655E-6</v>
       </c>
       <c r="U79">
-        <v>0.89255673509690769</v>
+        <v>1.6275950782308991E-6</v>
       </c>
       <c r="V79">
-        <v>1.1495143292337029</v>
+        <v>2.2334237991728126E-6</v>
       </c>
       <c r="W79">
-        <v>1.380912553596964</v>
-      </c>
-      <c r="X79">
-        <v>1.8173209317001751</v>
-      </c>
-      <c r="Y79">
-        <v>2.525062153456882</v>
-      </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.9353507275133858E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>3.9162996188090138</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>3.9162996188090138</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>3.9162996188090138</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6587,354 +6055,324 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>10.146776285096079</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>11.67826419396355</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>11.68059130493619</v>
+        <v>0</v>
       </c>
       <c r="P80">
-        <v>11.63970834660895</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>11.68314009417092</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>11.68314009417092</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>11.68314009417092</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>11.66056127104037</v>
+        <v>2.5872734498368606E-5</v>
       </c>
       <c r="U80">
-        <v>11.64996076079397</v>
+        <v>2.5810683072525153E-5</v>
       </c>
       <c r="V80">
-        <v>11.6697816924107</v>
+        <v>2.5755502375613054E-5</v>
       </c>
       <c r="W80">
-        <v>11.66170851240903</v>
-      </c>
-      <c r="X80">
-        <v>11.662030842701149</v>
-      </c>
-      <c r="Y80">
-        <v>11.6639158628905</v>
-      </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.35">
+        <v>2.5776991396228636E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>9.9076535132556387</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>9.7700472144604227</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>9.8028106189354727</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>9.7761359887433947</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>9.7843217267835776</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>9.7817087652057797</v>
+        <v>0</v>
       </c>
       <c r="T81">
-        <v>9.7769247783746174</v>
+        <v>0</v>
       </c>
       <c r="U81">
-        <v>9.7769247783746174</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>9.7913735309180243</v>
+        <v>0</v>
       </c>
       <c r="W81">
-        <v>9.8200174657758925</v>
-      </c>
-      <c r="X81">
-        <v>9.836666992729743</v>
-      </c>
-      <c r="Y81">
-        <v>9.8552737039933849</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>2.9224829857714539E-2</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>2.4689410514400011E-2</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>2.243190281988227E-2</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>2.387747453030499E-2</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>2.5594650992035312E-2</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>3.3777689008667608E-2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>7.6974403085408857E-2</v>
+        <v>0</v>
       </c>
       <c r="J82">
-        <v>0.21340895658839271</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>1.1155292905668781</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>1.048660618347959</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>1.178868039973209</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>1.3048046999155281</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="O82">
-        <v>1.4490872765688541</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="P82">
-        <v>1.512253321032099</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="Q82">
-        <v>1.5150820306562851</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="R82">
-        <v>1.515330986939035</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="S82">
-        <v>1.514445444271951</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="T82">
-        <v>1.5093364737132231</v>
+        <v>1.173487007217103E-5</v>
       </c>
       <c r="U82">
-        <v>1.5020580548043829</v>
+        <v>1.1796921498014485E-5</v>
       </c>
       <c r="V82">
-        <v>1.960657889283643</v>
+        <v>1.1852102194926584E-5</v>
       </c>
       <c r="W82">
-        <v>2.0520657743990331</v>
-      </c>
-      <c r="X82">
-        <v>2.3617430060588491</v>
-      </c>
-      <c r="Y82">
-        <v>2.9767283728991791</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.1830613174311004E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>12.407715614731361</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>12.407715614731361</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>12.407715614731361</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.117888034344241</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.10361349156351871</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>9.4355251823052197E-2</v>
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0.10515013232823189</v>
+        <v>0</v>
       </c>
       <c r="J83">
-        <v>8.980252555897246E-2</v>
+        <v>0</v>
       </c>
       <c r="K83">
-        <v>9.0484708220465726E-2</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>7.5248949145944918E-2</v>
+        <v>0</v>
       </c>
       <c r="M83">
-        <v>6.7300232624282544E-2</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>5.3635658276936733E-2</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>8.2034483403182548E-2</v>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>0.12592206075842541</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>0.14461207010176411</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>0.2178629788843596</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>0.28815732985031861</v>
+        <v>0</v>
       </c>
       <c r="T83">
-        <v>0.44164589496636802</v>
+        <v>1.5189932141234427E-5</v>
       </c>
       <c r="U83">
-        <v>0.6871767964680412</v>
+        <v>1.5176120589546497E-5</v>
       </c>
       <c r="V83">
-        <v>0.94295997327495407</v>
+        <v>1.5131620949601333E-5</v>
       </c>
       <c r="W83">
-        <v>1.2393161766225409</v>
-      </c>
-      <c r="X83">
-        <v>1.4521783469799281</v>
-      </c>
-      <c r="Y83">
-        <v>1.7777419384399411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.35">
+        <v>1.4659158758418697E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="K84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="M84">
-        <v>2.6820718601540521</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>8.0462155804621549</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>8.0462155804621549</v>
+        <v>0</v>
       </c>
       <c r="P84">
-        <v>8.0462155804621549</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>8.0462155804621549</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>8.0462155804621549</v>
+        <v>0</v>
       </c>
       <c r="S84">
-        <v>8.0462155804621549</v>
+        <v>0</v>
       </c>
       <c r="T84">
-        <v>2.510696852076765</v>
+        <v>0</v>
       </c>
       <c r="U84">
-        <v>2.5239728677952078</v>
+        <v>0</v>
       </c>
       <c r="V84">
-        <v>2.5357788785290771</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>2.5311812633802142</v>
-      </c>
-      <c r="X84">
-        <v>2.5439106789817298</v>
-      </c>
-      <c r="Y84">
-        <v>2.6820718601540521</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>27</v>
       </c>
@@ -6942,76 +6380,74 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>2.8736484215936269</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="M85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="N85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="O85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="P85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="Q85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="R85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="S85">
-        <v>8.6209452647808824</v>
+        <v>3.7607604570539635E-5</v>
       </c>
       <c r="T85">
-        <v>5.1388948906419154</v>
+        <v>2.2417672429305213E-5</v>
       </c>
       <c r="U85">
-        <v>5.1420609692178578</v>
+        <v>2.2431483980993143E-5</v>
       </c>
       <c r="V85">
-        <v>5.1522618039865318</v>
+        <v>2.2475983620938302E-5</v>
       </c>
       <c r="W85">
-        <v>5.2605662476323438</v>
-      </c>
-      <c r="X85">
-        <v>5.5526742627435626</v>
-      </c>
-      <c r="Y85">
-        <v>6.1396132115207918</v>
+        <v>2.2948445812120934E-5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sortState ref="A2:W85">
+    <sortCondition ref="A2:A85"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>